--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -8,18 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +82,30 @@
   </si>
   <si>
     <t>手续费0说明跟以前的股票一起卖掉的,手续费记录在以前的股票上了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.42+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.66+7.07+0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.78+0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.94+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.5+0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,6 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,54 +460,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>42912</v>
+      <c r="A2" s="2">
+        <v>20170626</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -493,15 +516,31 @@
         <v>23.68</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2373.0500000000002</v>
       </c>
+      <c r="F2" s="2">
+        <v>20170711</v>
+      </c>
+      <c r="G2">
+        <v>24.16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>2408.5300000000002</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>35.480000000000018</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>42913</v>
+      <c r="A3" s="2">
+        <v>20170627</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -510,19 +549,19 @@
         <v>22.94</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2299.0500000000002</v>
       </c>
-      <c r="F3" s="1">
-        <v>42913</v>
+      <c r="F3" s="2">
+        <v>20170627</v>
       </c>
       <c r="G3">
         <v>23.21</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>2313.63</v>
@@ -532,12 +571,12 @@
         <v>14.579999999999927</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>42914</v>
+      <c r="A4" s="2">
+        <v>20170628</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -546,31 +585,31 @@
         <v>24.12</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2417.0500000000002</v>
       </c>
-      <c r="F4" s="1">
-        <v>42915</v>
+      <c r="F4" s="2">
+        <v>20170629</v>
       </c>
       <c r="G4">
         <v>24.21</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J11" si="0">I4-E4</f>
+        <f t="shared" ref="J4:J15" si="0">I4-E4</f>
         <v>-3.5399999999999636</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>42915</v>
+      <c r="A5" s="2">
+        <v>20170629</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -579,19 +618,19 @@
         <v>23.91</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2396.0500000000002</v>
       </c>
-      <c r="F5" s="1">
-        <v>42915</v>
+      <c r="F5" s="2">
+        <v>20170629</v>
       </c>
       <c r="G5">
         <v>24.21</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <v>2413.5100000000002</v>
@@ -602,8 +641,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>42916</v>
+      <c r="A6" s="2">
+        <v>20170630</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -612,19 +651,19 @@
         <v>23.81</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>2386.0500000000002</v>
       </c>
-      <c r="F6" s="1">
-        <v>42916</v>
+      <c r="F6" s="2">
+        <v>20170630</v>
       </c>
       <c r="G6">
         <v>24.11</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>2403.54</v>
@@ -635,8 +674,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>42919</v>
+      <c r="A7" s="2">
+        <v>20170703</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -645,19 +684,19 @@
         <v>23.51</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>2356.0500000000002</v>
       </c>
-      <c r="F7" s="1">
-        <v>42921</v>
+      <c r="F7" s="2">
+        <v>20170705</v>
       </c>
       <c r="G7">
         <v>23.61</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <v>2353.59</v>
@@ -668,8 +707,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>42922</v>
+      <c r="A8" s="2">
+        <v>20170706</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -678,19 +717,19 @@
         <v>23.41</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2346.0500000000002</v>
       </c>
-      <c r="F8" s="1">
-        <v>42922</v>
+      <c r="F8" s="2">
+        <v>20170706</v>
       </c>
       <c r="G8">
         <v>23.83</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>2375.5700000000002</v>
@@ -701,8 +740,8 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>42923</v>
+      <c r="A9" s="2">
+        <v>20170707</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -711,25 +750,31 @@
         <v>23.76</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>2381.0500000000002</v>
       </c>
-      <c r="F9" s="1">
-        <v>42927</v>
+      <c r="F9" s="2">
+        <v>20170711</v>
       </c>
       <c r="G9">
         <v>23.92</v>
       </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>4774.12</v>
+      </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>-2381.0500000000002</v>
+        <v>2393.0699999999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>42923</v>
+      <c r="A10" s="2">
+        <v>20170707</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -738,13 +783,13 @@
         <v>23.51</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2356.0500000000002</v>
       </c>
-      <c r="F10" s="1">
-        <v>42927</v>
+      <c r="F10" s="2">
+        <v>20170711</v>
       </c>
       <c r="G10">
         <v>23.92</v>
@@ -752,14 +797,17 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <f t="shared" si="0"/>
         <v>-2356.0500000000002</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>42926</v>
+      <c r="A11" s="2">
+        <v>20170710</v>
       </c>
       <c r="B11">
         <v>300</v>
@@ -768,25 +816,31 @@
         <v>23.29</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>6992.73</v>
       </c>
-      <c r="F11" s="1">
-        <v>42927</v>
+      <c r="F11" s="2">
+        <v>20170711</v>
       </c>
       <c r="G11">
         <v>23.58</v>
       </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>7061.13</v>
+      </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>-6992.73</v>
+        <v>68.400000000000546</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>42927</v>
+      <c r="A12" s="2">
+        <v>20170711</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -795,7 +849,134 @@
         <v>23.72</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2377.0500000000002</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-2377.0500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>20170711</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <v>24.06</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>4817.1000000000004</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20170712</v>
+      </c>
+      <c r="G13">
+        <v>24.69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>4927.96</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>110.85999999999967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>20170712</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>24.24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2429.0500000000002</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20170713</v>
+      </c>
+      <c r="G14">
+        <v>24.95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>2487.4499999999998</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>58.399999999999636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>20170713</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>24.67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2427.0500000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20170713</v>
+      </c>
+      <c r="G15">
+        <v>24.95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>2487.4499999999998</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>60.399999999999636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>20170714</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>25.08</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20170714</v>
+      </c>
+      <c r="G16">
+        <v>24.83</v>
       </c>
     </row>
   </sheetData>
@@ -803,51 +984,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>23.83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,26 @@
   </si>
   <si>
     <t>5+2.5+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.48+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.49+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.07+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.49+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +623,7 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J15" si="0">I4-E4</f>
+        <f t="shared" ref="J4:J18" si="0">I4-E4</f>
         <v>-3.5399999999999636</v>
       </c>
     </row>
@@ -854,10 +874,21 @@
       <c r="E12">
         <v>2377.0500000000002</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2">
+        <v>20170717</v>
+      </c>
+      <c r="G12">
+        <v>24.91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>2483.46</v>
+      </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>-2377.0500000000002</v>
+        <v>106.40999999999985</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -972,11 +1003,118 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
+      <c r="E16">
+        <v>2513.0500000000002</v>
+      </c>
       <c r="F16" s="2">
         <v>20170714</v>
       </c>
       <c r="G16">
         <v>24.83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>2475.4699999999998</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-37.580000000000382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>20170717</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>25.02</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>5009.1000000000004</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20170719</v>
+      </c>
+      <c r="G17">
+        <v>25.35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>5059.83</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>50.729999999999563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>20170718</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>24.25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>2430.0500000000002</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20170719</v>
+      </c>
+      <c r="G18">
+        <v>24.85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>2477.46</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>47.409999999999854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>20170720</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>25.12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>20170720</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>24.9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,38 @@
   </si>
   <si>
     <t>5+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.04+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.11+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.18+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.15+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.59+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.62+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.64+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别两天卖掉的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +183,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,15 +214,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -623,7 +677,7 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J18" si="0">I4-E4</f>
+        <f t="shared" ref="J4:J28" si="0">I4-E4</f>
         <v>-3.5399999999999636</v>
       </c>
     </row>
@@ -1023,7 +1077,7 @@
         <v>-37.580000000000382</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>20170717</v>
       </c>
@@ -1056,7 +1110,7 @@
         <v>50.729999999999563</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>20170718</v>
       </c>
@@ -1089,7 +1143,7 @@
         <v>47.409999999999854</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>20170720</v>
       </c>
@@ -1102,8 +1156,27 @@
       <c r="D19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>5029.1000000000004</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20170724</v>
+      </c>
+      <c r="G19">
+        <v>25.54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>5097.79</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>68.6899999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>20170720</v>
       </c>
@@ -1116,8 +1189,309 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
+      <c r="E20">
+        <v>2495.0500000000002</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20170727</v>
+      </c>
+      <c r="G20">
+        <v>25.76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20">
+        <v>5141.75</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2646.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20170721</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>24.71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>2476.0500000000002</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20170727</v>
+      </c>
+      <c r="G21">
+        <v>25.76</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>-2476.0500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>20170724</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>24.89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>4983.1000000000004</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20170724</v>
+      </c>
+      <c r="G22">
+        <v>25.2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>5029.8599999999997</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>46.759999999999309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20170725</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>25.8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>5165.1000000000004</v>
+      </c>
+      <c r="F23">
+        <v>20170802</v>
+      </c>
+      <c r="G23">
+        <v>26.44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>2636.31</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="1">I23-E23</f>
+        <v>-2528.7900000000004</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>20170725</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20170803</v>
+      </c>
+      <c r="G24" s="4">
+        <v>26.61</v>
+      </c>
+      <c r="H24"/>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>20170726</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+      <c r="C25">
+        <v>25.54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>5113.1000000000004</v>
+      </c>
+      <c r="F25" s="2">
+        <v>20170726</v>
+      </c>
+      <c r="G25">
+        <v>25.89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>5167.72</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>54.619999999999891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>20170731</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+      <c r="C26">
+        <v>25.46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>5097.1000000000004</v>
+      </c>
+      <c r="F26">
+        <v>20170731</v>
+      </c>
+      <c r="G26">
+        <v>25.76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>5141.75</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>44.649999999999636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>20170801</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>25.4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>2545.0500000000002</v>
+      </c>
+      <c r="F27">
+        <v>20170801</v>
+      </c>
+      <c r="G27">
+        <v>25.89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>2581.36</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>36.309999999999945</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>20170801</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>25.78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2583.0500000000002</v>
+      </c>
+      <c r="F28">
+        <v>20170801</v>
+      </c>
+      <c r="G28">
+        <v>26.15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>2607.33</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>24.279999999999745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>20170803</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
+        <v>24.41</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K23:L24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>分别两天卖掉的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.66+0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+7.49+0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次割肉卖掉300股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,26 +195,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,24 +213,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,7 +667,7 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J28" si="0">I4-E4</f>
+        <f t="shared" ref="J4:J30" si="0">I4-E4</f>
         <v>-3.5399999999999636</v>
       </c>
     </row>
@@ -1077,7 +1067,7 @@
         <v>-37.580000000000382</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>20170717</v>
       </c>
@@ -1110,7 +1100,7 @@
         <v>50.729999999999563</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>20170718</v>
       </c>
@@ -1143,7 +1133,7 @@
         <v>47.409999999999854</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>20170720</v>
       </c>
@@ -1176,7 +1166,7 @@
         <v>68.6899999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>20170720</v>
       </c>
@@ -1209,7 +1199,7 @@
         <v>2646.7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20170721</v>
       </c>
@@ -1242,7 +1232,7 @@
         <v>-2476.0500000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>20170724</v>
       </c>
@@ -1275,7 +1265,7 @@
         <v>46.759999999999309</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20170725</v>
       </c>
@@ -1307,42 +1297,44 @@
         <f t="shared" ref="J23" si="1">I23-E23</f>
         <v>-2528.7900000000004</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>20170725</v>
       </c>
-      <c r="B24" s="4">
-        <v>100</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
         <v>25.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
         <v>20170803</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>26.61</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24">
+        <v>2653.29</v>
+      </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2653.29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>20170726</v>
       </c>
@@ -1375,7 +1367,7 @@
         <v>54.619999999999891</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20170731</v>
       </c>
@@ -1408,7 +1400,7 @@
         <v>44.649999999999636</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20170801</v>
       </c>
@@ -1441,7 +1433,7 @@
         <v>36.309999999999945</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20170801</v>
       </c>
@@ -1474,24 +1466,109 @@
         <v>24.279999999999745</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>20170803</v>
       </c>
-      <c r="B29" s="4">
-        <v>100</v>
-      </c>
-      <c r="C29" s="4">
-        <v>24.41</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>8</v>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>26.41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>2646.05</v>
+      </c>
+      <c r="F29">
+        <v>20170811</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>-2646.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>20170804</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>25.95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>2600.0500000000002</v>
+      </c>
+      <c r="F30">
+        <v>20170811</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>-2600.0500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>20170810</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>25.44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2549.0500000000002</v>
+      </c>
+      <c r="F31">
+        <v>20170811</v>
+      </c>
+      <c r="G31">
+        <v>24.98</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>7480.36</v>
+      </c>
+      <c r="J31">
+        <f>I31-E29</f>
+        <v>4834.3099999999995</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K23:L24"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +171,50 @@
   </si>
   <si>
     <t>一次割肉卖掉300股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手返8元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加息%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171101左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1573,4 +1618,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20170907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,22 @@
   </si>
   <si>
     <t>20171101左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>235,半年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1622,19 +1638,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1642,48 +1658,83 @@
         <v>41</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1">
+        <v>12010</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20170907</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>50</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20170907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>590</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="美年健康" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,7 +589,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,9 +1639,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>20171012</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>18.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
     <sheet name="美年健康" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,26 @@
   </si>
   <si>
     <t>235,半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.89+7.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.91+7.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.99+7.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +610,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -597,6 +618,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -630,6 +652,9 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
@@ -663,6 +688,10 @@
         <f>I2-E2</f>
         <v>35.480000000000018</v>
       </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>1.4951223109500438E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -696,6 +725,10 @@
         <f>I3-E3</f>
         <v>14.579999999999927</v>
       </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K31" si="0">J3/E3</f>
+        <v>6.341749853200203E-3</v>
+      </c>
       <c r="O3" t="s">
         <v>17</v>
       </c>
@@ -729,8 +762,12 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J30" si="0">I4-E4</f>
+        <f t="shared" ref="J4:J30" si="1">I4-E4</f>
         <v>-3.5399999999999636</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-1.4645952710949147E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -762,8 +799,12 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.460000000000036</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>7.2869931762692911E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -795,8 +836,12 @@
         <v>2403.54</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.489999999999782</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>7.3301062425346411E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -828,8 +873,12 @@
         <v>2353.59</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.4600000000000364</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-1.0441204558477265E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -861,8 +910,12 @@
         <v>2375.5700000000002</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.519999999999982</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.2582852027876635E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -894,8 +947,12 @@
         <v>4774.12</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2393.0699999999997</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.0050481930240858</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -927,8 +984,12 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2356.0500000000002</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -960,8 +1021,12 @@
         <v>7061.13</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.400000000000546</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>9.78158744867892E-3</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -993,8 +1058,12 @@
         <v>2483.46</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.40999999999985</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>4.4765570770492771E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -1026,8 +1095,12 @@
         <v>4927.96</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.85999999999967</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.3013846505158635E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -1059,8 +1132,12 @@
         <v>2487.4499999999998</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58.399999999999636</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2.4042321072023892E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -1092,8 +1169,12 @@
         <v>2487.4499999999998</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.399999999999636</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.4886178694299512E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -1125,11 +1206,15 @@
         <v>2475.4699999999998</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-37.580000000000382</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-1.495394043095059E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>20170717</v>
       </c>
@@ -1158,11 +1243,15 @@
         <v>5059.83</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.729999999999563</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.0127567826555581E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>20170718</v>
       </c>
@@ -1191,11 +1280,15 @@
         <v>2477.46</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.409999999999854</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.9509886627847101E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>20170720</v>
       </c>
@@ -1224,11 +1317,15 @@
         <v>5097.79</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68.6899999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1.3658507486428903E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>20170720</v>
       </c>
@@ -1257,11 +1354,15 @@
         <v>5141.75</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2646.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.0607803450832647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20170721</v>
       </c>
@@ -1290,11 +1391,15 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2476.0500000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>20170724</v>
       </c>
@@ -1323,11 +1428,15 @@
         <v>5029.8599999999997</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.759999999999309</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>9.3837169633359373E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20170725</v>
       </c>
@@ -1356,11 +1465,15 @@
         <v>2636.31</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="1">I23-E23</f>
+        <f t="shared" ref="J23" si="2">I23-E23</f>
         <v>-2528.7900000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>-0.48959168263925196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20170725</v>
       </c>
@@ -1389,14 +1502,18 @@
         <v>2653.29</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2653.29</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>20170726</v>
       </c>
@@ -1425,11 +1542,15 @@
         <v>5167.72</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54.619999999999891</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1.06823649058301E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20170731</v>
       </c>
@@ -1458,11 +1579,15 @@
         <v>5141.75</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.649999999999636</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>8.7598830707656568E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20170801</v>
       </c>
@@ -1491,11 +1616,15 @@
         <v>2581.36</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.309999999999945</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1.4266910276811828E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20170801</v>
       </c>
@@ -1524,11 +1653,15 @@
         <v>2607.33</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.279999999999745</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>9.3997406167127019E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20170803</v>
       </c>
@@ -1557,11 +1690,15 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2646.05</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20170804</v>
       </c>
@@ -1590,11 +1727,15 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2600.0500000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20170810</v>
       </c>
@@ -1626,7 +1767,11 @@
         <f>I31-E29</f>
         <v>4834.3099999999995</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1.8965143877130692</v>
+      </c>
+      <c r="L31" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1639,10 +1784,190 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>20171012</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>18.04</v>
+      </c>
+      <c r="D2">
+        <v>5.77</v>
+      </c>
+      <c r="E2">
+        <v>7221.77</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20171016</v>
+      </c>
+      <c r="G2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>7354.74</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>132.96999999999935</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>1.8412383667715717E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>20171016</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>18.25</v>
+      </c>
+      <c r="D3">
+        <v>5.84</v>
+      </c>
+      <c r="E3">
+        <v>7305.84</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20171018</v>
+      </c>
+      <c r="G3">
+        <v>18.47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>7374.7</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>68.859999999999673</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>9.4253364431741826E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>20171018</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>18.47</v>
+      </c>
+      <c r="D4">
+        <v>5.91</v>
+      </c>
+      <c r="E4">
+        <v>7393.91</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20171019</v>
+      </c>
+      <c r="G4">
+        <v>18.73</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>7478.51</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>84.600000000000364</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>1.1441848764726696E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>20171020</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>18.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1650,7 +1975,7 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1681,25 +2006,35 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>20171012</v>
+        <v>20171017</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>18.04</v>
+        <v>4.84</v>
+      </c>
+      <c r="D2">
+        <v>7.74</v>
+      </c>
+      <c r="E2">
+        <v>9687.94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
     <sheet name="美年健康" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="苏宁云商" sheetId="5" r:id="rId3"/>
+    <sheet name="广深铁路" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +254,33 @@
   </si>
   <si>
     <t>5.99+7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
+  </si>
+  <si>
+    <t>5.97+7.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.92+7.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件中盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.71</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,13 +306,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,15 +337,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1784,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1954,6 +2000,86 @@
       <c r="C5">
         <v>18.47</v>
       </c>
+      <c r="D5">
+        <v>5.91</v>
+      </c>
+      <c r="E5">
+        <v>7393.91</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20171023</v>
+      </c>
+      <c r="G5">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5">
+        <v>7446.57</v>
+      </c>
+      <c r="J5">
+        <f>I5-E5</f>
+        <v>52.659999999999854</v>
+      </c>
+      <c r="K5">
+        <f>J5/E5</f>
+        <v>7.1220774935047701E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>20171023</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="D6">
+        <v>5.86</v>
+      </c>
+      <c r="E6">
+        <v>7329.86</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20171025</v>
+      </c>
+      <c r="G6">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>7382.68</v>
+      </c>
+      <c r="J6">
+        <f>I6-E6</f>
+        <v>52.820000000000618</v>
+      </c>
+      <c r="K6">
+        <f>J6/E6</f>
+        <v>7.2061403628446681E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>20171026</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>18.95</v>
+      </c>
+      <c r="D7">
+        <v>6.06</v>
+      </c>
+      <c r="E7">
+        <v>7586.06</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1964,18 +2090,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2009,22 +2136,136 @@
       <c r="K1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>20171017</v>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20171018</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="C2">
-        <v>4.84</v>
+        <v>14.11</v>
       </c>
       <c r="D2">
-        <v>7.74</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>9687.94</v>
+        <v>5649</v>
+      </c>
+      <c r="F2">
+        <v>20171026</v>
+      </c>
+      <c r="G2">
+        <v>14.27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2">
+        <v>5697.29</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>48.289999999999964</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>8.5484156487873903E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20171019</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>13.8</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4145</v>
+      </c>
+      <c r="F3">
+        <v>20171023</v>
+      </c>
+      <c r="G3">
+        <v>14.05</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>4205.78</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
+        <v>60.779999999999745</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
+        <v>1.4663449939686308E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20171025</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>13.65</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4100</v>
+      </c>
+      <c r="F4">
+        <v>20171026</v>
+      </c>
+      <c r="G4">
+        <v>14.89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4">
+        <v>4157.83</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>57.829999999999927</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.410487804878047E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>20171026</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>14.44</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2893</v>
       </c>
     </row>
   </sheetData>
@@ -2035,6 +2276,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>20171017</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>4.84</v>
+      </c>
+      <c r="D2">
+        <v>7.74</v>
+      </c>
+      <c r="E2">
+        <v>9687.94</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20171027</v>
+      </c>
+      <c r="G2">
+        <v>4.93</v>
+      </c>
+      <c r="L2">
+        <v>144.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="苏宁云商" sheetId="5" r:id="rId3"/>
     <sheet name="广深铁路" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +283,48 @@
   </si>
   <si>
     <t>5+5.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.89+9.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-30 卖完广深铁路后 原始12508.44 买卖后12565.57,即盈利57.13</t>
+  </si>
+  <si>
+    <t>按道理应该专80,损失23块钱,</t>
+  </si>
+  <si>
+    <t>总金额35550左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣款385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么乘以2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +700,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1832,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2080,6 +2124,12 @@
       <c r="E7">
         <v>7586.06</v>
       </c>
+      <c r="F7" s="2">
+        <v>20171031</v>
+      </c>
+      <c r="G7">
+        <v>19.27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2090,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2268,6 +2318,20 @@
         <v>2893</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20171031</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>14.86</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" activeCellId="1" sqref="A2:L4 N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2349,8 +2413,84 @@
       <c r="G2">
         <v>4.93</v>
       </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>9842.0499999999993</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>154.10999999999876</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>1.5907406528116272E-2</v>
+      </c>
       <c r="L2">
         <v>144.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>20171027</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4945.1000000000004</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
+        <v>-4945.1000000000004</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>20171030</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>4.88</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>4885.1000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20171030</v>
+      </c>
+      <c r="G4">
+        <v>4.96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4">
+        <v>4949.9399999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>64.839999999999236</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.3273013858467428E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2466,4 +2606,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>385</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>SUM(A1:A6)</f>
+        <v>1739</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,13 @@
     <sheet name="苏宁云商" sheetId="5" r:id="rId3"/>
     <sheet name="广深铁路" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,41 +288,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-10-30 卖完广深铁路后 原始12508.44 买卖后12565.57,即盈利57.13</t>
-  </si>
-  <si>
-    <t>按道理应该专80,损失23块钱,</t>
-  </si>
-  <si>
-    <t>总金额35550左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5+4.96</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣款385</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么乘以2</t>
+    <t>6.17+7.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该股票同一天一起卖了,因此该记录没有内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+1.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,11 +379,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1874,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1952,11 +1945,11 @@
         <v>7354.74</v>
       </c>
       <c r="J2">
-        <f>I2-E2</f>
+        <f t="shared" ref="J2:J9" si="0">I2-E2</f>
         <v>132.96999999999935</v>
       </c>
       <c r="K2">
-        <f>J2/E2</f>
+        <f t="shared" ref="K2:K9" si="1">J2/E2</f>
         <v>1.8412383667715717E-2</v>
       </c>
     </row>
@@ -1989,11 +1982,11 @@
         <v>7374.7</v>
       </c>
       <c r="J3">
-        <f>I3-E3</f>
+        <f t="shared" si="0"/>
         <v>68.859999999999673</v>
       </c>
       <c r="K3">
-        <f>J3/E3</f>
+        <f t="shared" si="1"/>
         <v>9.4253364431741826E-3</v>
       </c>
     </row>
@@ -2026,11 +2019,11 @@
         <v>7478.51</v>
       </c>
       <c r="J4">
-        <f>I4-E4</f>
+        <f t="shared" si="0"/>
         <v>84.600000000000364</v>
       </c>
       <c r="K4">
-        <f>J4/E4</f>
+        <f t="shared" si="1"/>
         <v>1.1441848764726696E-2</v>
       </c>
     </row>
@@ -2063,11 +2056,11 @@
         <v>7446.57</v>
       </c>
       <c r="J5">
-        <f>I5-E5</f>
+        <f t="shared" si="0"/>
         <v>52.659999999999854</v>
       </c>
       <c r="K5">
-        <f>J5/E5</f>
+        <f t="shared" si="1"/>
         <v>7.1220774935047701E-3</v>
       </c>
     </row>
@@ -2100,11 +2093,11 @@
         <v>7382.68</v>
       </c>
       <c r="J6">
-        <f>I6-E6</f>
+        <f t="shared" si="0"/>
         <v>52.820000000000618</v>
       </c>
       <c r="K6">
-        <f>J6/E6</f>
+        <f t="shared" si="1"/>
         <v>7.2061403628446681E-3</v>
       </c>
     </row>
@@ -2129,6 +2122,94 @@
       </c>
       <c r="G7">
         <v>19.27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7">
+        <v>7694.12</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>108.05999999999949</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.4244548553531014E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>20171031</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1905</v>
+      </c>
+      <c r="F8">
+        <v>20171108</v>
+      </c>
+      <c r="G8">
+        <v>18.91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>1884.11</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-20.8900000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-1.0965879265091917E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>20171107</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>20.36</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2041</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20171107</v>
+      </c>
+      <c r="G9">
+        <v>20.78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9">
+        <v>2070.92</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>29.920000000000073</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.4659480646741829E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2140,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2256,11 +2337,11 @@
         <v>4205.78</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
+        <f t="shared" ref="J3:J7" si="0">I3-E3</f>
         <v>60.779999999999745</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
+        <f t="shared" ref="K3:K7" si="1">J3/E3</f>
         <v>1.4663449939686308E-2</v>
       </c>
     </row>
@@ -2302,7 +2383,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>20171026</v>
       </c>
       <c r="B5">
@@ -2317,19 +2398,107 @@
       <c r="E5">
         <v>2893</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="F5">
+        <v>20171107</v>
+      </c>
+      <c r="G5">
+        <v>14.84</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>I5-E5</f>
+        <v>-2893</v>
+      </c>
+      <c r="K5">
+        <f>J5/E5</f>
+        <v>-1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>20171031</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>200</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>14.86</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2977</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2977</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20171102</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>14.12</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2829</v>
+      </c>
+      <c r="F7">
+        <v>20171107</v>
+      </c>
+      <c r="G7">
+        <v>14.84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7">
+        <v>5925.06</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3096.0600000000004</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1.0944008483563097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>20171110</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14.01</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2807</v>
       </c>
     </row>
   </sheetData>
@@ -2341,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" activeCellId="1" sqref="A2:L4 N9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2432,7 +2601,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>20171027</v>
       </c>
       <c r="B3">
@@ -2447,13 +2616,25 @@
       <c r="E3">
         <v>4945.1000000000004</v>
       </c>
+      <c r="F3">
+        <v>20171108</v>
+      </c>
+      <c r="G3">
+        <v>4.99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>4979.91</v>
+      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
-        <v>-4945.1000000000004</v>
+        <f t="shared" ref="J3:J6" si="0">I3-E3</f>
+        <v>34.809999999999491</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
-        <v>-1</v>
+        <f t="shared" ref="K3:K6" si="1">J3/E3</f>
+        <v>7.0392914197891831E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -2479,7 +2660,7 @@
         <v>4.96</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4">
         <v>4949.9399999999996</v>
@@ -2491,6 +2672,70 @@
       <c r="K4">
         <f t="shared" si="1"/>
         <v>1.3273013858467428E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>20171101</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5005</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="J5">
+        <f>I5-E5</f>
+        <v>-5005</v>
+      </c>
+      <c r="K5">
+        <f>J5/E5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20171110</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5065.1000000000004</v>
+      </c>
+      <c r="F6">
+        <v>20171110</v>
+      </c>
+      <c r="G6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>5099</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>33.899999999999636</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>6.6928589761307052E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2504,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2606,104 +2851,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>385</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>385</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>333</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>200</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>336</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <f>SUM(A1:A6)</f>
-        <v>1739</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
     <sheet name="美年健康" sheetId="3" r:id="rId2"/>
     <sheet name="苏宁云商" sheetId="5" r:id="rId3"/>
     <sheet name="广深铁路" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="科大讯飞" sheetId="6" r:id="rId5"/>
+    <sheet name="海天味业" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +319,10 @@
   </si>
   <si>
     <t>5+5.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,15 +696,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
@@ -1857,6 +1863,35 @@
       <c r="L31" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>20171121</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>30.84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>3089.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,7 +2259,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2513,7 +2548,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2747,10 +2782,153 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20171129</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>66.22</v>
+      </c>
+      <c r="D2">
+        <v>5.3</v>
+      </c>
+      <c r="E2">
+        <v>6627.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20171114</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>52.66</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5271.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>5+0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,12 +389,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -2545,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2596,7 +2608,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>20171017</v>
       </c>
       <c r="B2">
@@ -2636,7 +2648,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>20171027</v>
       </c>
       <c r="B3">
@@ -2664,16 +2676,16 @@
         <v>4979.91</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="0">I3-E3</f>
+        <f t="shared" ref="J3:J7" si="0">I3-E3</f>
         <v>34.809999999999491</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="1">J3/E3</f>
+        <f t="shared" ref="K3:K7" si="1">J3/E3</f>
         <v>7.0392914197891831E-3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>20171030</v>
       </c>
       <c r="B4">
@@ -2710,7 +2722,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>20171101</v>
       </c>
       <c r="B5" s="3">
@@ -2737,7 +2749,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>20171110</v>
       </c>
       <c r="B6">
@@ -2771,6 +2783,43 @@
       <c r="K6">
         <f t="shared" si="1"/>
         <v>6.6928589761307052E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20171204</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5115</v>
+      </c>
+      <c r="F7">
+        <v>20171204</v>
+      </c>
+      <c r="G7">
+        <v>5.16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>5149.74</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>34.739999999999782</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>6.7917888563049427E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -2560,7 +2560,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2737,8 +2737,12 @@
       <c r="E5" s="3">
         <v>5005</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3">
+        <v>20171211</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5.12</v>
+      </c>
       <c r="J5">
         <f>I5-E5</f>
         <v>-5005</v>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="广深铁路" sheetId="4" r:id="rId4"/>
     <sheet name="科大讯飞" sheetId="6" r:id="rId5"/>
     <sheet name="海天味业" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId7"/>
+    <sheet name="永辉超市" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,6 +328,14 @@
   </si>
   <si>
     <t>5+5.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.12+0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -398,9 +407,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2559,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2722,34 +2728,40 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>20171101</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>5005</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>20171211</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>5.12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>5109.78</v>
       </c>
       <c r="J5">
         <f>I5-E5</f>
-        <v>-5005</v>
+        <v>104.77999999999975</v>
       </c>
       <c r="K5">
         <f>J5/E5</f>
-        <v>-1</v>
+        <v>2.0935064935064883E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -2910,7 +2922,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2954,20 +2966,101 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>20171114</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>52.66</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5271.11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2">
+        <v>5600</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>328.89000000000033</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20171114</v>
+        <v>20171218</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>52.66</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
+        <v>10.76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>5271.11</v>
+        <v>2157.04</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,26 @@
   </si>
   <si>
     <t>5+0.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别卖了两次100股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+1.25+5+1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.47+13.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2277,13 +2297,15 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
@@ -2390,11 +2412,11 @@
         <v>4205.78</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">I3-E3</f>
+        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
         <v>60.779999999999745</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">J3/E3</f>
+        <f t="shared" ref="K3:K8" si="1">J3/E3</f>
         <v>1.4663449939686308E-2</v>
       </c>
     </row>
@@ -2537,21 +2559,44 @@
         <v>1.0944008483563097</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>20171110</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>200</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>14.01</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>2807</v>
+      </c>
+      <c r="F8">
+        <v>20180110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>2537.4499999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-269.55000000000018</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-9.6027787673673023E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2847,15 +2892,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -2893,21 +2939,66 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>20171129</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>66.22</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5.3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>6627.3</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2-E2</f>
+        <v>-6627.3</v>
+      </c>
+      <c r="K2" s="3">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20180110</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>59.88</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5993</v>
+      </c>
+      <c r="F3">
+        <v>20180111</v>
+      </c>
+      <c r="G3">
+        <v>61.24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <v>6112.88</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>119.88000000000011</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>2.0003337226764575E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2919,15 +3010,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -2965,7 +3058,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>20171114</v>
       </c>
@@ -2981,14 +3074,46 @@
       <c r="E2" s="3">
         <v>5271.11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2">
-        <v>5600</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>328.89000000000033</v>
+      <c r="K2" s="3">
+        <f>J2/E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20180111</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>56.3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5635.11</v>
+      </c>
+      <c r="F3">
+        <v>20180111</v>
+      </c>
+      <c r="G3">
+        <v>56.76</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3">
+        <v>5665.21</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>30.100000000000364</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>5.341510635994748E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3002,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="科大讯飞" sheetId="6" r:id="rId5"/>
     <sheet name="海天味业" sheetId="7" r:id="rId6"/>
     <sheet name="永辉超市" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId8"/>
+    <sheet name="兆日科技" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +357,46 @@
   </si>
   <si>
     <t>5+5.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+3.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录到2018-01-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.08+6.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+3.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+3.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+1.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +778,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,7 +894,7 @@
         <v>14.579999999999927</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K31" si="0">J3/E3</f>
+        <f t="shared" ref="K3:K34" si="0">J3/E3</f>
         <v>6.341749853200203E-3</v>
       </c>
       <c r="O3" t="s">
@@ -889,7 +930,7 @@
         <v>2413.5100000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J30" si="1">I4-E4</f>
+        <f t="shared" ref="J4:J31" si="1">I4-E4</f>
         <v>-3.5399999999999636</v>
       </c>
       <c r="K4">
@@ -1891,12 +1932,12 @@
         <v>7480.36</v>
       </c>
       <c r="J31">
-        <f>I31-E29</f>
-        <v>4834.3099999999995</v>
+        <f t="shared" si="1"/>
+        <v>4931.3099999999995</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1.8965143877130692</v>
+        <v>1.93456778015339</v>
       </c>
       <c r="L31" t="s">
         <v>39</v>
@@ -1918,17 +1959,105 @@
       <c r="E32">
         <v>3089.06</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <v>20180118</v>
+      </c>
+      <c r="G32">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="H32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32">
+        <v>3253.67</v>
+      </c>
+      <c r="J32">
+        <f>I32-E32</f>
+        <v>164.61000000000013</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>5.328805526600329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>20180115</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>31.92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>3197.06</v>
+      </c>
+      <c r="F33">
+        <v>20180115</v>
+      </c>
+      <c r="G33">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>3214.72</v>
+      </c>
+      <c r="J33">
+        <f>I33-E33</f>
+        <v>17.659999999999854</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>5.5238250142317803E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>20180117</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>32.35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>3240.06</v>
+      </c>
+      <c r="F34">
+        <v>20180117</v>
+      </c>
+      <c r="G34">
+        <v>32.89</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34">
+        <v>3280.64</v>
+      </c>
+      <c r="J34">
+        <f>I34-E34</f>
+        <v>40.579999999999927</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>1.2524459423590898E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36"/>
     </row>
   </sheetData>
@@ -2892,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2939,29 +3068,41 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>20171129</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>66.22</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>5.3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>6627.3</v>
       </c>
-      <c r="J2" s="3">
+      <c r="F2">
+        <v>20180124</v>
+      </c>
+      <c r="G2">
+        <v>62.17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2">
+        <v>6205.78</v>
+      </c>
+      <c r="J2">
         <f>I2-E2</f>
-        <v>-6627.3</v>
-      </c>
-      <c r="K2" s="3">
+        <v>-421.52000000000044</v>
+      </c>
+      <c r="K2">
         <f>J2/E2</f>
-        <v>-1</v>
+        <v>-6.3603579134791005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -2999,6 +3140,43 @@
       <c r="K3">
         <f>J3/E3</f>
         <v>2.0003337226764575E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20180117</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>60.43</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>6048</v>
+      </c>
+      <c r="F4">
+        <v>20180117</v>
+      </c>
+      <c r="G4">
+        <v>63.46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <v>6334.57</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>286.56999999999971</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>4.7382605820105769E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3010,10 +3188,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3058,25 +3236,41 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>20171114</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>52.66</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>5271.11</v>
       </c>
-      <c r="K2" s="3">
+      <c r="F2">
+        <v>20180119</v>
+      </c>
+      <c r="G2">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>5589.29</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>318.18000000000029</v>
+      </c>
+      <c r="K2">
         <f>J2/E2</f>
-        <v>0</v>
+        <v>6.0362997547006289E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -3114,6 +3308,43 @@
       <c r="K3">
         <f>J3/E3</f>
         <v>5.341510635994748E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20180116</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>58.76</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5881.12</v>
+      </c>
+      <c r="F4">
+        <v>20180116</v>
+      </c>
+      <c r="G4">
+        <v>59.42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4">
+        <v>5930.94</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>49.819999999999709</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>8.471175558396991E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3359,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3191,15 +3422,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20180123</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>8.73</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1751</v>
+      </c>
+      <c r="F2">
+        <v>20180124</v>
+      </c>
+      <c r="G2">
+        <v>9.11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2">
+        <v>1815.18</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>64.180000000000064</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>3.6653340948029731E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3295,6 +3620,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,16 @@
     <sheet name="海天味业" sheetId="7" r:id="rId6"/>
     <sheet name="永辉超市" sheetId="8" r:id="rId7"/>
     <sheet name="兆日科技" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId9"/>
+    <sheet name="华谊兄弟" sheetId="10" r:id="rId9"/>
+    <sheet name="360" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记录到2018-01-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.08+6.35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -397,6 +395,82 @@
   </si>
   <si>
     <t>5+6.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原是价格46多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖了300股,给20171031日买的100股卖掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有100股票给20180202日买的卖掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录到2018-03-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+6.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+6.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+1.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,15 +849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
@@ -894,7 +968,7 @@
         <v>14.579999999999927</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K34" si="0">J3/E3</f>
+        <f t="shared" ref="K3:K36" si="0">J3/E3</f>
         <v>6.341749853200203E-3</v>
       </c>
       <c r="O3" t="s">
@@ -1966,7 +2040,7 @@
         <v>32.619999999999997</v>
       </c>
       <c r="H32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32">
         <v>3253.67</v>
@@ -2040,7 +2114,7 @@
         <v>32.89</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34">
         <v>3280.64</v>
@@ -2055,10 +2129,279 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35"/>
+      <c r="A35">
+        <v>20180314</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+      <c r="C35">
+        <v>30.32</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>6069.12</v>
+      </c>
+      <c r="F35">
+        <v>20180319</v>
+      </c>
+      <c r="G35">
+        <v>30.64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35">
+        <v>6116.75</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J36" si="3">I35-E35</f>
+        <v>47.630000000000109</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>7.8479252346304092E-3</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36"/>
+      <c r="A36">
+        <v>20180316</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+      <c r="C36">
+        <v>30.4</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>6085.12</v>
+      </c>
+      <c r="F36">
+        <v>20180316</v>
+      </c>
+      <c r="G36">
+        <v>30.63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36">
+        <v>6114.75</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>29.630000000000109</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>4.8692548380311496E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>20180326</v>
+      </c>
+      <c r="B37" s="3">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3">
+        <v>29.85</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5975.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>20180326</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3">
+        <v>39.69</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3974.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1">
+        <v>12010</v>
+      </c>
+      <c r="O1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20170907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20170907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>590</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2423,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="J10" sqref="J10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2541,11 +2884,11 @@
         <v>4205.78</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
+        <f t="shared" ref="J3:J18" si="0">I3-E3</f>
         <v>60.779999999999745</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="1">J3/E3</f>
+        <f t="shared" ref="K3:K19" si="1">J3/E3</f>
         <v>1.4663449939686308E-2</v>
       </c>
     </row>
@@ -2650,6 +2993,9 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
+      <c r="L6" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -2726,6 +3072,250 @@
       </c>
       <c r="L8" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>20180202</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>12.63</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2531</v>
+      </c>
+      <c r="F9">
+        <v>20180315</v>
+      </c>
+      <c r="G9">
+        <v>13.49</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9">
+        <v>4037.95</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1506.9499999999998</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.59539707625444482</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20180207</v>
+      </c>
+      <c r="B10">
+        <v>400</v>
+      </c>
+      <c r="C10">
+        <v>12.04</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4821</v>
+      </c>
+      <c r="F10">
+        <v>20180228</v>
+      </c>
+      <c r="G10">
+        <v>12.74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10">
+        <v>5085.8999999999996</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>264.89999999999964</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>5.4947106409458546E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20180301</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>12.4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4965</v>
+      </c>
+      <c r="F11">
+        <v>20180301</v>
+      </c>
+      <c r="G11">
+        <v>12.57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11">
+        <v>5017.97</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>52.970000000000255</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1.0668680765357553E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20180302</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
+      </c>
+      <c r="C12">
+        <v>12.51</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5009</v>
+      </c>
+      <c r="F12">
+        <v>20180302</v>
+      </c>
+      <c r="G12">
+        <v>12.84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>5125.8599999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>116.85999999999967</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2.3330005989219339E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20180322</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>14.03</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1408</v>
+      </c>
+      <c r="F13">
+        <v>20180322</v>
+      </c>
+      <c r="G13">
+        <v>13.96</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>1389.6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-18.400000000000091</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-1.3068181818181883E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="K19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2737,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3012,6 +3602,23 @@
         <v>6.7917888563049427E-3</v>
       </c>
     </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>20180326</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.62</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4625</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3021,16 +3628,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -3091,17 +3699,17 @@
         <v>62.17</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2">
         <v>6205.78</v>
       </c>
       <c r="J2">
-        <f>I2-E2</f>
+        <f t="shared" ref="J2:J10" si="0">I2-E2</f>
         <v>-421.52000000000044</v>
       </c>
       <c r="K2">
-        <f>J2/E2</f>
+        <f t="shared" ref="K2:K10" si="1">J2/E2</f>
         <v>-6.3603579134791005E-2</v>
       </c>
     </row>
@@ -3134,11 +3742,11 @@
         <v>6112.88</v>
       </c>
       <c r="J3">
-        <f>I3-E3</f>
+        <f t="shared" si="0"/>
         <v>119.88000000000011</v>
       </c>
       <c r="K3">
-        <f>J3/E3</f>
+        <f t="shared" si="1"/>
         <v>2.0003337226764575E-2</v>
       </c>
     </row>
@@ -3165,18 +3773,248 @@
         <v>63.46</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>6334.57</v>
       </c>
       <c r="J4">
-        <f>I4-E4</f>
+        <f t="shared" si="0"/>
         <v>286.56999999999971</v>
       </c>
       <c r="K4">
-        <f>J4/E4</f>
+        <f t="shared" si="1"/>
         <v>4.7382605820105769E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>20180125</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>61.71</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6176</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-6176</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20180202</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>53.44</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5349</v>
+      </c>
+      <c r="F6">
+        <v>20180313</v>
+      </c>
+      <c r="G6">
+        <v>61.45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6">
+        <v>6133.85</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>784.85000000000036</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.14672836044120402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20180301</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>56.47</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5652</v>
+      </c>
+      <c r="F7">
+        <v>20180301</v>
+      </c>
+      <c r="G7">
+        <v>57.02</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7">
+        <v>5691.3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>39.300000000000182</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>6.953290870488355E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>20180312</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>60.59</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>6064</v>
+      </c>
+      <c r="F8">
+        <v>20180312</v>
+      </c>
+      <c r="G8">
+        <v>61.2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8">
+        <v>6108.88</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>44.880000000000109</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>7.4010554089709944E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>20180315</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>61.07</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6112</v>
+      </c>
+      <c r="F9">
+        <v>20180316</v>
+      </c>
+      <c r="G9">
+        <v>62.06</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9">
+        <v>6194.79</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>82.789999999999964</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.3545484293193711E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20180319</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>62.92</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>6297</v>
+      </c>
+      <c r="F10">
+        <v>20180319</v>
+      </c>
+      <c r="G10">
+        <v>63.46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10">
+        <v>6334.57</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>37.569999999999709</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>5.9663331745275069E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>20180321</v>
+      </c>
+      <c r="B11" s="3">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3">
+        <v>61.07</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6112</v>
+      </c>
+      <c r="F11" s="3">
+        <v>20180322</v>
       </c>
     </row>
   </sheetData>
@@ -3191,7 +4029,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3259,7 +4097,7 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <v>5589.29</v>
@@ -3359,7 +4197,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3418,6 +4256,22 @@
       <c r="E2">
         <v>2157.04</v>
       </c>
+      <c r="F2">
+        <v>20180125</v>
+      </c>
+      <c r="G2">
+        <v>11.75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2">
+        <v>2342.6</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>185.55999999999995</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3428,10 +4282,168 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>20180123</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>8.73</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1751</v>
+      </c>
+      <c r="F2">
+        <v>20180124</v>
+      </c>
+      <c r="G2">
+        <v>9.11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>1815.18</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>64.180000000000064</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>3.6653340948029731E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>20180126</v>
+      </c>
+      <c r="B3" s="3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1799</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
+        <v>-1799</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20180202</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>7.73</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3097</v>
+      </c>
+      <c r="F4">
+        <v>20180309</v>
+      </c>
+      <c r="G4">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4">
+        <v>3243.75</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>146.75</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4.7384565708750402E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3477,39 +4489,35 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>20180123</v>
+        <v>20180125</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2">
-        <v>8.73</v>
+        <v>10.46</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1751</v>
+        <v>4189</v>
       </c>
       <c r="F2">
-        <v>20180124</v>
+        <v>20180126</v>
       </c>
       <c r="G2">
-        <v>9.11</v>
+        <v>10.33</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2">
-        <v>1815.18</v>
+        <v>4122.87</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>64.180000000000064</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>3.6653340948029731E-2</v>
+        <v>-66.130000000000109</v>
       </c>
     </row>
   </sheetData>
@@ -3517,117 +4525,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1">
-        <v>12010</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>20170907</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20170907</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>590</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
   <si>
     <t>股票数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,10 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>记录到2018-03-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5+6.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +467,50 @@
   </si>
   <si>
     <t>5+1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+4.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录到2018-04-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.72</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,15 +889,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
@@ -968,7 +1008,7 @@
         <v>14.579999999999927</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K36" si="0">J3/E3</f>
+        <f t="shared" ref="K3:K38" si="0">J3/E3</f>
         <v>6.341749853200203E-3</v>
       </c>
       <c r="O3" t="s">
@@ -2151,13 +2191,13 @@
         <v>30.64</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35">
         <v>6116.75</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J36" si="3">I35-E35</f>
+        <f t="shared" ref="J35:J38" si="3">I35-E35</f>
         <v>47.630000000000109</v>
       </c>
       <c r="K35">
@@ -2188,7 +2228,7 @@
         <v>30.63</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36">
         <v>6114.75</v>
@@ -2202,22 +2242,138 @@
         <v>4.8692548380311496E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>20180326</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>200</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>29.85</v>
       </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
         <v>5975.12</v>
       </c>
+      <c r="F37">
+        <v>20180410</v>
+      </c>
+      <c r="G37">
+        <v>29.87</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37">
+        <v>5962.91</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>-12.210000000000036</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>-2.0434736038774178E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>20180329</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+      <c r="C38">
+        <v>28.64</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>5733.11</v>
+      </c>
+      <c r="F38">
+        <v>20180329</v>
+      </c>
+      <c r="G38">
+        <v>29.32</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38">
+        <v>5853.02</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>119.91000000000076</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>2.091534960954888E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>20180416</v>
+      </c>
+      <c r="B39" s="3">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>5825.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2228,15 +2384,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="A6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
@@ -2274,26 +2431,212 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
         <v>20180326</v>
       </c>
-      <c r="B2" s="3">
-        <v>100</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
         <v>39.69</v>
       </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>3974.08</v>
+      </c>
+      <c r="F2">
+        <v>20180330</v>
+      </c>
+      <c r="G2">
+        <v>41.86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2">
+        <v>4176.7299999999996</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>202.64999999999964</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>5.0992934213704717E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>20180327</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>41.76</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4181</v>
+      </c>
+      <c r="F3">
+        <v>20180327</v>
+      </c>
+      <c r="G3">
+        <v>42.03</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3">
+        <v>4193.72</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>12.720000000000255</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>3.0423343697680589E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>20180403</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>39.89</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3994.08</v>
+      </c>
+      <c r="F4">
+        <v>20180404</v>
+      </c>
+      <c r="G4">
+        <v>42.35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>4225.68</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="0">I4-E4</f>
+        <v>231.60000000000036</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="1">J4/E4</f>
+        <v>5.7985819012138055E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>20180409</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>39.67</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3972.08</v>
+      </c>
+      <c r="F5">
+        <v>20180410</v>
+      </c>
+      <c r="G5">
+        <v>40.78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5">
+        <v>4068.84</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>96.760000000000218</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.4360033030553317E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20180416</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4007.08</v>
+      </c>
+      <c r="F6">
+        <v>20180417</v>
+      </c>
+      <c r="G6">
+        <v>41.19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6">
+        <v>4109.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>102.72000000000025</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.5634626710722086E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20180423</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>40.17</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4022.08</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2302,7 +2645,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2400,7 +2743,7 @@
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2758,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J2" sqref="J2:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3248,7 +3591,7 @@
         <v>13.96</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13">
         <v>1389.6</v>
@@ -3330,7 +3673,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3628,16 +3971,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3705,11 +4048,11 @@
         <v>6205.78</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J10" si="0">I2-E2</f>
+        <f t="shared" ref="J2:J13" si="0">I2-E2</f>
         <v>-421.52000000000044</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K10" si="1">J2/E2</f>
+        <f t="shared" ref="K2:K13" si="1">J2/E2</f>
         <v>-6.3603579134791005E-2</v>
       </c>
     </row>
@@ -3946,7 +4289,7 @@
         <v>62.06</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I9">
         <v>6194.79</v>
@@ -3983,7 +4326,7 @@
         <v>63.46</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10">
         <v>6334.57</v>
@@ -3997,24 +4340,115 @@
         <v>5.9663331745275069E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>20180321</v>
       </c>
-      <c r="B11" s="3">
-        <v>100</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
         <v>61.07</v>
       </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>6112</v>
       </c>
-      <c r="F11" s="3">
-        <v>20180322</v>
+      <c r="F11">
+        <v>20180327</v>
+      </c>
+      <c r="G11">
+        <v>58.86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11">
+        <v>5875.11</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-236.89000000000033</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-3.8758180628272305E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20180403</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>59.08</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5913</v>
+      </c>
+      <c r="F12">
+        <v>20180423</v>
+      </c>
+      <c r="G12">
+        <v>58.05</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12">
+        <v>5794.19</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-118.8100000000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-2.009301538981911E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20180424</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>55.3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5535</v>
+      </c>
+      <c r="F13">
+        <v>20180424</v>
+      </c>
+      <c r="G13">
+        <v>57.21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13">
+        <v>5710.28</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>175.27999999999975</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>3.1667570009033377E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4285,7 +4719,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4369,29 +4803,41 @@
         <v>3.6653340948029731E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>20180126</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>8.9700000000000006</v>
       </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>1799</v>
+      </c>
+      <c r="F3">
+        <v>20180420</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3">
+        <v>1993</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" si="0">I3-E3</f>
-        <v>-1799</v>
+        <v>194</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" si="1">J3/E3</f>
-        <v>-1</v>
+        <v>0.10783768760422457</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -16,523 +16,606 @@
     <sheet name="永辉超市" sheetId="8" r:id="rId7"/>
     <sheet name="兆日科技" sheetId="9" r:id="rId8"/>
     <sheet name="华谊兄弟" sheetId="10" r:id="rId9"/>
-    <sheet name="360" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId11"/>
+    <sheet name="乐视" sheetId="12" r:id="rId10"/>
+    <sheet name="360" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="191">
+  <si>
+    <t>买入时间</t>
+  </si>
   <si>
     <t>股票数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入手续费</t>
   </si>
   <si>
     <t>购买总价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出时间</t>
   </si>
   <si>
     <t>卖出价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出手续费</t>
   </si>
   <si>
     <t>卖出总价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出手续费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入手续费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>比例</t>
+  </si>
+  <si>
+    <t>5+0.05</t>
+  </si>
+  <si>
+    <t>5+2.42+0.05</t>
+  </si>
+  <si>
+    <t>5+2.32+0.05</t>
+  </si>
+  <si>
+    <t>手续费0说明跟以前的股票一起卖掉的,手续费记录在以前的股票上了</t>
+  </si>
+  <si>
+    <t>5+2.41+0.05</t>
+  </si>
+  <si>
+    <t>5+2.36+0.05</t>
+  </si>
+  <si>
+    <t>5+2.38+0.05</t>
+  </si>
+  <si>
+    <t>5+4.78+0.10</t>
   </si>
   <si>
     <t>5.59+0.14</t>
   </si>
   <si>
-    <t>5+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.38+0.05</t>
-  </si>
-  <si>
-    <t>收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.36+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.41+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.42+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.32+0.05</t>
-  </si>
-  <si>
-    <t>手续费0说明跟以前的股票一起卖掉的,手续费记录在以前的股票上了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5.66+7.07+0.14</t>
+  </si>
+  <si>
+    <t>5+2.49+0.05</t>
   </si>
   <si>
     <t>5+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.42+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.66+7.07+0.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.78+0.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+4.94+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+2.5+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+2.48+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.49+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+5.07+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.49+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5.11+0.1</t>
+  </si>
+  <si>
+    <t>5+5.15+0.1</t>
   </si>
   <si>
     <t>5+5.04+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.11+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+2.64+0.05</t>
+  </si>
+  <si>
+    <t>5+2.66+0.05</t>
+  </si>
+  <si>
+    <t>分别两天卖掉的</t>
   </si>
   <si>
     <t>5+5.18+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.15+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+2.59+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5+2.62+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.64+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别两天卖掉的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.66+0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6+7.49+0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一次割肉卖掉300股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+0.06</t>
+  </si>
+  <si>
+    <t>5+3.26</t>
+  </si>
+  <si>
+    <t>5+3.22</t>
+  </si>
+  <si>
+    <t>5+3.29</t>
+  </si>
+  <si>
+    <t>5+6.13</t>
+  </si>
+  <si>
+    <t>6+6.13</t>
+  </si>
+  <si>
+    <t>5+5.97</t>
+  </si>
+  <si>
+    <t>5+5.86</t>
+  </si>
+  <si>
+    <t>5+6</t>
+  </si>
+  <si>
+    <t>5+5.98+0.12</t>
+  </si>
+  <si>
+    <t>5+5.85</t>
+  </si>
+  <si>
+    <t>5+5.74</t>
+  </si>
+  <si>
+    <t>5+5.83</t>
+  </si>
+  <si>
+    <t>6.94+8.68</t>
+  </si>
+  <si>
+    <t>5+5.78</t>
+  </si>
+  <si>
+    <t>5+5.75</t>
+  </si>
+  <si>
+    <t>5+5.46</t>
+  </si>
+  <si>
+    <t>6.46+8.07</t>
+  </si>
+  <si>
+    <t>不对，卖了300股，多了100股出来</t>
+  </si>
+  <si>
+    <t>5+5.4</t>
+  </si>
+  <si>
+    <t>5+5.24</t>
+  </si>
+  <si>
+    <t>5+5.21</t>
+  </si>
+  <si>
+    <t>5+5.37</t>
+  </si>
+  <si>
+    <t>5+2.88</t>
+  </si>
+  <si>
+    <t>和20180720多卖一股合在一起</t>
+  </si>
+  <si>
+    <t>600股分红</t>
+  </si>
+  <si>
+    <t>5+5.19</t>
+  </si>
+  <si>
+    <t>5+5.65</t>
+  </si>
+  <si>
+    <t>5+5.58</t>
+  </si>
+  <si>
+    <t>5+5.57</t>
+  </si>
+  <si>
+    <t>5+5.54</t>
+  </si>
+  <si>
+    <t>5+5.92</t>
+  </si>
+  <si>
+    <t>5+6.03</t>
+  </si>
+  <si>
+    <t>5.89+7.37</t>
+  </si>
+  <si>
+    <t>5.91+7.39</t>
+  </si>
+  <si>
+    <t>5.99+7.5</t>
+  </si>
+  <si>
+    <t>5.97+7.46</t>
+  </si>
+  <si>
+    <t>5.92+7.4</t>
+  </si>
+  <si>
+    <t>6.17+7.71</t>
+  </si>
+  <si>
+    <t>5+1.89</t>
+  </si>
+  <si>
+    <t>5+2.08</t>
+  </si>
+  <si>
+    <t>5+3.46</t>
+  </si>
+  <si>
+    <t>曝丑闻股价大跌,抄底失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
+  </si>
+  <si>
+    <t>5+5.71</t>
+  </si>
+  <si>
+    <t>5+4.22</t>
+  </si>
+  <si>
+    <t>5+4.17</t>
+  </si>
+  <si>
+    <t>该股票同一天20171107一起卖了,因此该记录没有内容</t>
+  </si>
+  <si>
+    <t>5+1.4</t>
+  </si>
+  <si>
+    <t>有100股票给20180202日买的卖掉了</t>
+  </si>
+  <si>
+    <t>5+5.94</t>
+  </si>
+  <si>
+    <t>12.47+13.03</t>
+  </si>
+  <si>
+    <t>5+1.25+5+1.3</t>
+  </si>
+  <si>
+    <t>分别卖了两次100股</t>
+  </si>
+  <si>
+    <t>5+4</t>
+  </si>
+  <si>
+    <t>卖了300股,给20171031日买的100股卖掉</t>
+  </si>
+  <si>
+    <t>5+5.1</t>
+  </si>
+  <si>
+    <t>5+5.03</t>
+  </si>
+  <si>
+    <t>5+5.14</t>
+  </si>
+  <si>
+    <t>5+3.23</t>
+  </si>
+  <si>
+    <t>5+3.21</t>
+  </si>
+  <si>
+    <t>5+2.82</t>
+  </si>
+  <si>
+    <t>卖了200,少卖了100,保留了</t>
+  </si>
+  <si>
+    <t>该行用于日后卖这100股</t>
+  </si>
+  <si>
+    <t>5+2.79</t>
+  </si>
+  <si>
+    <t>5+2.77</t>
+  </si>
+  <si>
+    <t>分红</t>
+  </si>
+  <si>
+    <t>5+3.88</t>
+  </si>
+  <si>
+    <t>5+4.95</t>
+  </si>
+  <si>
+    <t>6+7.5</t>
+  </si>
+  <si>
+    <t>6+7.52</t>
+  </si>
+  <si>
+    <t>5+4.03</t>
+  </si>
+  <si>
+    <t>5+6.12</t>
+  </si>
+  <si>
+    <t>6.04+7.55</t>
+  </si>
+  <si>
+    <t>5+6.14</t>
+  </si>
+  <si>
+    <t>软件中盈利</t>
+  </si>
+  <si>
+    <t>7.89+9.86</t>
+  </si>
+  <si>
+    <t>5+4.99</t>
+  </si>
+  <si>
+    <t>5+4.96</t>
+  </si>
+  <si>
+    <t>5+5.12+0.1</t>
+  </si>
+  <si>
+    <t>5+5.11</t>
+  </si>
+  <si>
+    <t>5+5.16</t>
+  </si>
+  <si>
+    <t>5+4.59</t>
+  </si>
+  <si>
+    <t>5+6.22</t>
+  </si>
+  <si>
+    <t>5.08+6.35</t>
+  </si>
+  <si>
+    <t>5+3.83</t>
+  </si>
+  <si>
+    <t>因为20180426分红,因此本金就变小了,数据异常</t>
+  </si>
+  <si>
+    <t>5+6.15</t>
+  </si>
+  <si>
+    <t>5+5.7</t>
+  </si>
+  <si>
+    <t>5+6.21</t>
+  </si>
+  <si>
+    <t>5+6.35</t>
+  </si>
+  <si>
+    <t>5+5.89</t>
+  </si>
+  <si>
+    <t>5+5.81</t>
+  </si>
+  <si>
+    <t>5+5.72</t>
+  </si>
+  <si>
+    <t>6.16+7.7</t>
+  </si>
+  <si>
+    <t>卖出下面分后的100股,即200股</t>
+  </si>
+  <si>
+    <t>分红20元+100股</t>
+  </si>
+  <si>
+    <t>5+3.09</t>
+  </si>
+  <si>
+    <t>5+3.12</t>
+  </si>
+  <si>
+    <t>5+3.16</t>
+  </si>
+  <si>
+    <t>5+3.19</t>
+  </si>
+  <si>
+    <t>5+3.24</t>
+  </si>
+  <si>
+    <t>5+6.34</t>
+  </si>
+  <si>
+    <t>卖了两手</t>
+  </si>
+  <si>
+    <t>5+2.99</t>
+  </si>
+  <si>
+    <t>5+2.87</t>
+  </si>
+  <si>
+    <t>5+3.14</t>
+  </si>
+  <si>
+    <t>5+2.96</t>
+  </si>
+  <si>
+    <t>5+4.39</t>
+  </si>
+  <si>
+    <t>5+5.6</t>
+  </si>
+  <si>
+    <t>5+5.68</t>
+  </si>
+  <si>
+    <t>5+0.04</t>
+  </si>
+  <si>
+    <t>5+2.35</t>
+  </si>
+  <si>
+    <t>原是价格46多</t>
+  </si>
+  <si>
+    <t>5+1.82</t>
+  </si>
+  <si>
+    <t>5+2</t>
+  </si>
+  <si>
+    <t>5+3.25</t>
+  </si>
+  <si>
+    <t>5+1.33</t>
+  </si>
+  <si>
+    <t>原价46的股票卖掉，亏本卖了，原因是贸易战导致他的股票涨了好久，我估计未来要跌，就卖了</t>
+  </si>
+  <si>
+    <t>5+2.57</t>
+  </si>
+  <si>
+    <t>5+4.13</t>
+  </si>
+  <si>
+    <t>5+2.24</t>
+  </si>
+  <si>
+    <t>因为崔永元的事儿,因此提前卖出300</t>
+  </si>
+  <si>
+    <t>5+4.34</t>
+  </si>
+  <si>
+    <t>肯定是亏了,印象里是6000的本钱</t>
+  </si>
+  <si>
+    <t>5+0.88</t>
+  </si>
+  <si>
+    <t>5+4.2</t>
+  </si>
+  <si>
+    <t>5+4.24</t>
+  </si>
+  <si>
+    <t>5+4.08</t>
+  </si>
+  <si>
+    <t>5+4.12</t>
+  </si>
+  <si>
+    <t>5+3.59+0.07</t>
+  </si>
+  <si>
+    <t>5+3.52</t>
+  </si>
+  <si>
+    <t>5+3.89</t>
+  </si>
+  <si>
+    <t>5+3.43</t>
+  </si>
+  <si>
+    <t>5+3.65</t>
+  </si>
+  <si>
+    <t>5+2.94</t>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期(天)</t>
+  </si>
+  <si>
+    <t>利率%</t>
+  </si>
+  <si>
+    <t>加息%</t>
   </si>
   <si>
     <t>其他优惠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期时间</t>
+  </si>
+  <si>
+    <t>预计收益</t>
+  </si>
+  <si>
+    <t>一共投资</t>
+  </si>
+  <si>
+    <t>235,半年</t>
+  </si>
+  <si>
+    <t>财富</t>
   </si>
   <si>
     <t>新手返8元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利率%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加息%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20171101左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一共投资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>235,半年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.89+7.37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.91+7.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.99+7.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
-  </si>
-  <si>
-    <t>5.97+7.46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.92+7.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件中盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.89+9.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.17+7.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该股票同一天一起卖了,因此该记录没有内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+1.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.12+0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+0.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分别卖了两次100股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+1.25+5+1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.47+13.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+0.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+3.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.08+6.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+3.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+3.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+1.82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原是价格46多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+3.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖了300股,给20171031日买的100股卖掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有100股票给20180202日买的卖掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6+6.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+6.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+4.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录到2018-04-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+5.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证券转入2万</t>
+  </si>
+  <si>
+    <t>该记录到2018-10-22.即那天已经结束</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -540,12 +623,155 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,10 +781,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -566,37 +973,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -645,7 +1338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -680,7 +1373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,63 +1576,63 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="9">
         <v>20170626</v>
       </c>
       <c r="B2">
@@ -949,34 +1642,34 @@
         <v>23.68</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>2373.0500000000002</v>
-      </c>
-      <c r="F2" s="2">
+        <v>2373.05</v>
+      </c>
+      <c r="F2" s="9">
         <v>20170711</v>
       </c>
       <c r="G2">
         <v>24.16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>2408.5300000000002</v>
+        <v>2408.53</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>35.480000000000018</v>
+        <v>35.48</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>1.4951223109500438E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+        <v>0.0149512231095004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9">
         <v>20170627</v>
       </c>
       <c r="B3">
@@ -986,37 +1679,37 @@
         <v>22.94</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>2299.0500000000002</v>
-      </c>
-      <c r="F3" s="2">
+        <v>2299.05</v>
+      </c>
+      <c r="F3" s="9">
         <v>20170627</v>
       </c>
       <c r="G3">
         <v>23.21</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>2313.63</v>
       </c>
       <c r="J3">
         <f>I3-E3</f>
-        <v>14.579999999999927</v>
+        <v>14.5799999999999</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K38" si="0">J3/E3</f>
-        <v>6.341749853200203E-3</v>
+        <f t="shared" ref="K3:K66" si="0">J3/E3</f>
+        <v>0.0063417498532002</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9">
         <v>20170628</v>
       </c>
       <c r="B4">
@@ -1026,34 +1719,34 @@
         <v>24.12</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>2417.0500000000002</v>
-      </c>
-      <c r="F4" s="2">
+        <v>2417.05</v>
+      </c>
+      <c r="F4" s="9">
         <v>20170629</v>
       </c>
       <c r="G4">
         <v>24.21</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>2413.5100000000002</v>
+        <v>2413.51</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J31" si="1">I4-E4</f>
-        <v>-3.5399999999999636</v>
+        <f t="shared" ref="J4:J34" si="1">I4-E4</f>
+        <v>-3.53999999999996</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-1.4645952710949147E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+        <v>-0.00146459527109491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9">
         <v>20170629</v>
       </c>
       <c r="B5">
@@ -1063,34 +1756,34 @@
         <v>23.91</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>2396.0500000000002</v>
-      </c>
-      <c r="F5" s="2">
+        <v>2396.05</v>
+      </c>
+      <c r="F5" s="9">
         <v>20170629</v>
       </c>
       <c r="G5">
         <v>24.21</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I5">
-        <v>2413.5100000000002</v>
+        <v>2413.51</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>17.460000000000036</v>
+        <v>17.46</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>7.2869931762692911E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+        <v>0.00728699317626929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9">
         <v>20170630</v>
       </c>
       <c r="B6">
@@ -1100,34 +1793,34 @@
         <v>23.81</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>2386.0500000000002</v>
-      </c>
-      <c r="F6" s="2">
+        <v>2386.05</v>
+      </c>
+      <c r="F6" s="9">
         <v>20170630</v>
       </c>
       <c r="G6">
         <v>24.11</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>2403.54</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>17.489999999999782</v>
+        <v>17.4899999999998</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>7.3301062425346411E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+        <v>0.00733010624253464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9">
         <v>20170703</v>
       </c>
       <c r="B7">
@@ -1137,34 +1830,34 @@
         <v>23.51</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>2356.0500000000002</v>
-      </c>
-      <c r="F7" s="2">
+        <v>2356.05</v>
+      </c>
+      <c r="F7" s="9">
         <v>20170705</v>
       </c>
       <c r="G7">
         <v>23.61</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <v>2353.59</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>-2.4600000000000364</v>
+        <v>-2.46000000000004</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>-1.0441204558477265E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+        <v>-0.00104412045584773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9">
         <v>20170706</v>
       </c>
       <c r="B8">
@@ -1174,34 +1867,34 @@
         <v>23.41</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>2346.0500000000002</v>
-      </c>
-      <c r="F8" s="2">
+        <v>2346.05</v>
+      </c>
+      <c r="F8" s="9">
         <v>20170706</v>
       </c>
       <c r="G8">
         <v>23.83</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I8">
-        <v>2375.5700000000002</v>
+        <v>2375.57</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>29.519999999999982</v>
+        <v>29.52</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1.2582852027876635E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+        <v>0.0125828520278766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9">
         <v>20170707</v>
       </c>
       <c r="B9">
@@ -1211,34 +1904,34 @@
         <v>23.76</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>2381.0500000000002</v>
-      </c>
-      <c r="F9" s="2">
+        <v>2381.05</v>
+      </c>
+      <c r="F9" s="9">
         <v>20170711</v>
       </c>
       <c r="G9">
         <v>23.92</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>4774.12</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>2393.0699999999997</v>
+        <v>2393.07</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1.0050481930240858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+        <v>1.00504819302409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9">
         <v>20170707</v>
       </c>
       <c r="B10">
@@ -1248,12 +1941,12 @@
         <v>23.51</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>2356.0500000000002</v>
-      </c>
-      <c r="F10" s="2">
+        <v>2356.05</v>
+      </c>
+      <c r="F10" s="9">
         <v>20170711</v>
       </c>
       <c r="G10">
@@ -1267,15 +1960,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>-2356.0500000000002</v>
+        <v>-2356.05</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+    <row r="11" spans="1:11">
+      <c r="A11" s="9">
         <v>20170710</v>
       </c>
       <c r="B11">
@@ -1285,12 +1978,12 @@
         <v>23.29</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>6992.73</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>20170711</v>
       </c>
       <c r="G11">
@@ -1304,15 +1997,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>68.400000000000546</v>
+        <v>68.4000000000005</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>9.78158744867892E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+        <v>0.00978158744867892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9">
         <v>20170711</v>
       </c>
       <c r="B12">
@@ -1322,34 +2015,34 @@
         <v>23.72</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>2377.0500000000002</v>
-      </c>
-      <c r="F12" s="2">
+        <v>2377.05</v>
+      </c>
+      <c r="F12" s="9">
         <v>20170717</v>
       </c>
       <c r="G12">
         <v>24.91</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>2483.46</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>106.40999999999985</v>
+        <v>106.41</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>4.4765570770492771E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+        <v>0.0447655707704928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9">
         <v>20170711</v>
       </c>
       <c r="B13">
@@ -1359,34 +2052,34 @@
         <v>24.06</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>4817.1000000000004</v>
-      </c>
-      <c r="F13" s="2">
+        <v>4817.1</v>
+      </c>
+      <c r="F13" s="9">
         <v>20170712</v>
       </c>
       <c r="G13">
         <v>24.69</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>4927.96</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>110.85999999999967</v>
+        <v>110.86</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>2.3013846505158635E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+        <v>0.0230138465051586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9">
         <v>20170712</v>
       </c>
       <c r="B14">
@@ -1396,34 +2089,34 @@
         <v>24.24</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>2429.0500000000002</v>
-      </c>
-      <c r="F14" s="2">
+        <v>2429.05</v>
+      </c>
+      <c r="F14" s="9">
         <v>20170713</v>
       </c>
       <c r="G14">
         <v>24.95</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>2487.4499999999998</v>
+        <v>2487.45</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>58.399999999999636</v>
+        <v>58.3999999999996</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>2.4042321072023892E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+        <v>0.0240423210720239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9">
         <v>20170713</v>
       </c>
       <c r="B15">
@@ -1433,34 +2126,34 @@
         <v>24.67</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>2427.0500000000002</v>
-      </c>
-      <c r="F15" s="2">
+        <v>2427.05</v>
+      </c>
+      <c r="F15" s="9">
         <v>20170713</v>
       </c>
       <c r="G15">
         <v>24.95</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>2487.4499999999998</v>
+        <v>2487.45</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>60.399999999999636</v>
+        <v>60.3999999999996</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>2.4886178694299512E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+        <v>0.0248861786942995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9">
         <v>20170714</v>
       </c>
       <c r="B16">
@@ -1470,34 +2163,34 @@
         <v>25.08</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>2513.0500000000002</v>
-      </c>
-      <c r="F16" s="2">
+        <v>2513.05</v>
+      </c>
+      <c r="F16" s="9">
         <v>20170714</v>
       </c>
       <c r="G16">
         <v>24.83</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16">
-        <v>2475.4699999999998</v>
+        <v>2475.47</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>-37.580000000000382</v>
+        <v>-37.5800000000004</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>-1.495394043095059E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+        <v>-0.0149539404309506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9">
         <v>20170717</v>
       </c>
       <c r="B17">
@@ -1507,12 +2200,12 @@
         <v>25.02</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>5009.1000000000004</v>
-      </c>
-      <c r="F17" s="2">
+        <v>5009.1</v>
+      </c>
+      <c r="F17" s="9">
         <v>20170719</v>
       </c>
       <c r="G17">
@@ -1526,15 +2219,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>50.729999999999563</v>
+        <v>50.7299999999996</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1.0127567826555581E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+        <v>0.0101275678265556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="9">
         <v>20170718</v>
       </c>
       <c r="B18">
@@ -1544,34 +2237,34 @@
         <v>24.25</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>2430.0500000000002</v>
-      </c>
-      <c r="F18" s="2">
+        <v>2430.05</v>
+      </c>
+      <c r="F18" s="9">
         <v>20170719</v>
       </c>
       <c r="G18">
         <v>24.85</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <v>2477.46</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>47.409999999999854</v>
+        <v>47.4099999999999</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1.9509886627847101E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+        <v>0.0195098866278471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="9">
         <v>20170720</v>
       </c>
       <c r="B19">
@@ -1581,19 +2274,19 @@
         <v>25.12</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>5029.1000000000004</v>
-      </c>
-      <c r="F19" s="2">
+        <v>5029.1</v>
+      </c>
+      <c r="F19" s="9">
         <v>20170724</v>
       </c>
       <c r="G19">
         <v>25.54</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19">
         <v>5097.79</v>
@@ -1604,11 +2297,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1.3658507486428903E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+        <v>0.0136585074864289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="9">
         <v>20170720</v>
       </c>
       <c r="B20">
@@ -1618,19 +2311,19 @@
         <v>24.9</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>2495.0500000000002</v>
-      </c>
-      <c r="F20" s="2">
+        <v>2495.05</v>
+      </c>
+      <c r="F20" s="9">
         <v>20170727</v>
       </c>
       <c r="G20">
         <v>25.76</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I20">
         <v>5141.75</v>
@@ -1641,11 +2334,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1.0607803450832647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+        <v>1.06078034508326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="9">
         <v>20170721</v>
       </c>
       <c r="B21">
@@ -1655,12 +2348,12 @@
         <v>24.71</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>2476.0500000000002</v>
-      </c>
-      <c r="F21" s="2">
+        <v>2476.05</v>
+      </c>
+      <c r="F21" s="9">
         <v>20170727</v>
       </c>
       <c r="G21">
@@ -1674,15 +2367,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>-2476.0500000000002</v>
+        <v>-2476.05</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+    <row r="22" spans="1:11">
+      <c r="A22" s="9">
         <v>20170724</v>
       </c>
       <c r="B22">
@@ -1692,12 +2385,12 @@
         <v>24.89</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>4983.1000000000004</v>
-      </c>
-      <c r="F22" s="2">
+        <v>4983.1</v>
+      </c>
+      <c r="F22" s="9">
         <v>20170724</v>
       </c>
       <c r="G22">
@@ -1707,19 +2400,19 @@
         <v>29</v>
       </c>
       <c r="I22">
-        <v>5029.8599999999997</v>
+        <v>5029.86</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>46.759999999999309</v>
+        <v>46.7599999999993</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>9.3837169633359373E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23">
+        <v>0.00938371696333594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="8">
         <v>20170725</v>
       </c>
       <c r="B23">
@@ -1729,34 +2422,34 @@
         <v>25.8</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>5165.1000000000004</v>
-      </c>
-      <c r="F23">
+        <v>5165.1</v>
+      </c>
+      <c r="F23" s="8">
         <v>20170802</v>
       </c>
       <c r="G23">
         <v>26.44</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <v>2636.31</v>
       </c>
       <c r="J23">
         <f t="shared" ref="J23" si="2">I23-E23</f>
-        <v>-2528.7900000000004</v>
+        <v>-2528.79</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>-0.48959168263925196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24">
+        <v>-0.489591682639252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="8">
         <v>20170725</v>
       </c>
       <c r="B24">
@@ -1771,14 +2464,14 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="8">
         <v>20170803</v>
       </c>
       <c r="G24">
         <v>26.61</v>
       </c>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I24">
         <v>2653.29</v>
@@ -1792,11 +2485,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="8">
         <v>20170726</v>
       </c>
       <c r="B25">
@@ -1806,34 +2499,34 @@
         <v>25.54</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>5113.1000000000004</v>
-      </c>
-      <c r="F25" s="2">
+        <v>5113.1</v>
+      </c>
+      <c r="F25" s="9">
         <v>20170726</v>
       </c>
       <c r="G25">
         <v>25.89</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I25">
         <v>5167.72</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>54.619999999999891</v>
+        <v>54.6199999999999</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1.06823649058301E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26">
+        <v>0.0106823649058301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8">
         <v>20170731</v>
       </c>
       <c r="B26">
@@ -1843,34 +2536,34 @@
         <v>25.46</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>5097.1000000000004</v>
-      </c>
-      <c r="F26">
+        <v>5097.1</v>
+      </c>
+      <c r="F26" s="8">
         <v>20170731</v>
       </c>
       <c r="G26">
         <v>25.76</v>
       </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I26">
         <v>5141.75</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>44.649999999999636</v>
+        <v>44.6499999999996</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>8.7598830707656568E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27">
+        <v>0.00875988307076566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8">
         <v>20170801</v>
       </c>
       <c r="B27">
@@ -1880,34 +2573,34 @@
         <v>25.4</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>2545.0500000000002</v>
-      </c>
-      <c r="F27">
+        <v>2545.05</v>
+      </c>
+      <c r="F27" s="8">
         <v>20170801</v>
       </c>
       <c r="G27">
         <v>25.89</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27">
         <v>2581.36</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>36.309999999999945</v>
+        <v>36.3099999999999</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1.4266910276811828E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28">
+        <v>0.0142669102768118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="8">
         <v>20170801</v>
       </c>
       <c r="B28">
@@ -1917,34 +2610,34 @@
         <v>25.78</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>2583.0500000000002</v>
-      </c>
-      <c r="F28">
+        <v>2583.05</v>
+      </c>
+      <c r="F28" s="8">
         <v>20170801</v>
       </c>
       <c r="G28">
         <v>26.15</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>2607.33</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>24.279999999999745</v>
+        <v>24.2799999999997</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>9.3997406167127019E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29">
+        <v>0.0093997406167127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="8">
         <v>20170803</v>
       </c>
       <c r="B29">
@@ -1954,12 +2647,12 @@
         <v>26.41</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>2646.05</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="8">
         <v>20170811</v>
       </c>
       <c r="G29">
@@ -1980,8 +2673,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" spans="1:11">
+      <c r="A30" s="8">
         <v>20170804</v>
       </c>
       <c r="B30">
@@ -1991,12 +2684,12 @@
         <v>25.95</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>2600.0500000000002</v>
-      </c>
-      <c r="F30">
+        <v>2600.05</v>
+      </c>
+      <c r="F30" s="8">
         <v>20170811</v>
       </c>
       <c r="G30">
@@ -2010,15 +2703,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>-2600.0500000000002</v>
+        <v>-2600.05</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" spans="1:12">
+      <c r="A31" s="8">
         <v>20170810</v>
       </c>
       <c r="B31">
@@ -2028,37 +2721,37 @@
         <v>25.44</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>2549.0500000000002</v>
-      </c>
-      <c r="F31">
+        <v>2549.05</v>
+      </c>
+      <c r="F31" s="8">
         <v>20170811</v>
       </c>
       <c r="G31">
         <v>24.98</v>
       </c>
       <c r="H31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>7480.36</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>4931.3099999999995</v>
+        <v>4931.31</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
         <v>1.93456778015339</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8">
         <v>20171121</v>
       </c>
       <c r="B32">
@@ -2068,34 +2761,34 @@
         <v>30.84</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>3089.06</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <v>20180118</v>
       </c>
       <c r="G32">
-        <v>32.619999999999997</v>
+        <v>32.62</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="I32">
         <v>3253.67</v>
       </c>
       <c r="J32">
-        <f>I32-E32</f>
-        <v>164.61000000000013</v>
+        <f t="shared" si="1"/>
+        <v>164.61</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>5.328805526600329E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33">
+        <v>0.0532880552660033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="8">
         <v>20180115</v>
       </c>
       <c r="B33">
@@ -2105,34 +2798,34 @@
         <v>31.92</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>3197.06</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="8">
         <v>20180115</v>
       </c>
       <c r="G33">
-        <v>32.229999999999997</v>
+        <v>32.23</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="I33">
         <v>3214.72</v>
       </c>
       <c r="J33">
-        <f>I33-E33</f>
-        <v>17.659999999999854</v>
+        <f t="shared" si="1"/>
+        <v>17.6599999999999</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>5.5238250142317803E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34">
+        <v>0.00552382501423178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="8">
         <v>20180117</v>
       </c>
       <c r="B34">
@@ -2142,34 +2835,34 @@
         <v>32.35</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>3240.06</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="8">
         <v>20180117</v>
       </c>
       <c r="G34">
         <v>32.89</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I34">
         <v>3280.64</v>
       </c>
       <c r="J34">
-        <f>I34-E34</f>
-        <v>40.579999999999927</v>
+        <f t="shared" si="1"/>
+        <v>40.5799999999999</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1.2524459423590898E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35">
+        <v>0.0125244594235909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="8">
         <v>20180314</v>
       </c>
       <c r="B35">
@@ -2184,29 +2877,29 @@
       <c r="E35">
         <v>6069.12</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="8">
         <v>20180319</v>
       </c>
       <c r="G35">
         <v>30.64</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="I35">
         <v>6116.75</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J38" si="3">I35-E35</f>
-        <v>47.630000000000109</v>
+        <f t="shared" ref="J35:J72" si="3">I35-E35</f>
+        <v>47.6300000000001</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>7.8479252346304092E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36">
+        <v>0.00784792523463041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="8">
         <v>20180316</v>
       </c>
       <c r="B36">
@@ -2221,29 +2914,29 @@
       <c r="E36">
         <v>6085.12</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="8">
         <v>20180316</v>
       </c>
       <c r="G36">
         <v>30.63</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="I36">
         <v>6114.75</v>
       </c>
       <c r="J36">
         <f t="shared" si="3"/>
-        <v>29.630000000000109</v>
+        <v>29.6300000000001</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>4.8692548380311496E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37">
+        <v>0.00486925483803115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="8">
         <v>20180326</v>
       </c>
       <c r="B37">
@@ -2258,29 +2951,29 @@
       <c r="E37">
         <v>5975.12</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="8">
         <v>20180410</v>
       </c>
       <c r="G37">
         <v>29.87</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="I37">
         <v>5962.91</v>
       </c>
       <c r="J37">
         <f t="shared" si="3"/>
-        <v>-12.210000000000036</v>
+        <v>-12.21</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>-2.0434736038774178E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38">
+        <v>-0.00204347360387742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="8">
         <v>20180329</v>
       </c>
       <c r="B38">
@@ -2295,412 +2988,1820 @@
       <c r="E38">
         <v>5733.11</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="8">
         <v>20180329</v>
       </c>
       <c r="G38">
         <v>29.32</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="I38">
         <v>5853.02</v>
       </c>
       <c r="J38">
         <f t="shared" si="3"/>
-        <v>119.91000000000076</v>
+        <v>119.910000000001</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>2.091534960954888E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+        <v>0.0209153496095489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="8">
         <v>20180416</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>200</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>29.1</v>
       </c>
-      <c r="D39" s="3">
-        <v>5</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
         <v>5825.12</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53"/>
+      <c r="F39" s="8">
+        <v>20180511</v>
+      </c>
+      <c r="G39">
+        <v>29.98</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39">
+        <v>5984.88</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>159.76</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0.0274260444420029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="8">
+        <v>20180502</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40">
+        <v>29.51</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>5907</v>
+      </c>
+      <c r="F40" s="8">
+        <v>20180502</v>
+      </c>
+      <c r="G40">
+        <v>29.86</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>5960.92</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>53.9200000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0.00912815303876758</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="8">
+        <v>20180508</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+      <c r="C41">
+        <v>29.65</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>5935.12</v>
+      </c>
+      <c r="F41" s="8">
+        <v>20180508</v>
+      </c>
+      <c r="G41">
+        <v>29.88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41">
+        <v>5964.9</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>29.7799999999997</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0.00501759020879102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="8">
+        <v>20180524</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+      <c r="C42">
+        <v>29.1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>5825.12</v>
+      </c>
+      <c r="F42" s="8">
+        <v>20180604</v>
+      </c>
+      <c r="G42">
+        <v>29.23</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42">
+        <v>5835</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>9.88000000000011</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0.00169610239789053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="8">
+        <v>20180529</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+      <c r="C43">
+        <v>28.44</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>5693.11</v>
+      </c>
+      <c r="F43" s="8">
+        <v>20180529</v>
+      </c>
+      <c r="G43">
+        <v>28.68</v>
+      </c>
+      <c r="H43" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43">
+        <v>5725.15</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>32.04</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>0.00562785542524208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="8">
+        <v>20180606</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="C44">
+        <v>28.85</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>5775.12</v>
+      </c>
+      <c r="F44" s="8">
+        <v>20180607</v>
+      </c>
+      <c r="G44">
+        <v>29.15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44">
+        <v>5819</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>43.8800000000001</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0.00759811051545251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="8">
+        <v>20180607</v>
+      </c>
+      <c r="B45">
+        <v>300</v>
+      </c>
+      <c r="C45">
+        <v>28.85</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>8662</v>
+      </c>
+      <c r="F45" s="8">
+        <v>20180615</v>
+      </c>
+      <c r="G45">
+        <v>28.93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45">
+        <v>8663.21</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>1.20999999999913</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0.000139690602632086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="8">
+        <v>20180608</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+      <c r="C46">
+        <v>28.39</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>5693.11</v>
+      </c>
+      <c r="F46" s="8">
+        <v>20180619</v>
+      </c>
+      <c r="G46">
+        <v>28.91</v>
+      </c>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46">
+        <v>5771.1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>77.9900000000007</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>0.0136990151253007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="8">
+        <v>20180620</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+      <c r="C47">
+        <v>28.53</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>5711.11</v>
+      </c>
+      <c r="F47" s="8">
+        <v>20180622</v>
+      </c>
+      <c r="G47">
+        <v>28.75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47">
+        <v>5739.13</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>28.0200000000004</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0.00490622663545273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="8">
+        <v>20180621</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+      <c r="C48">
+        <v>28.61</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>5727.11</v>
+      </c>
+      <c r="F48" s="8">
+        <v>20180621</v>
+      </c>
+      <c r="G48">
+        <v>28.92</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>5773.1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48" si="4">I48-E48</f>
+        <v>45.9900000000007</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0.00803022816045103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="8">
+        <v>20180625</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+      <c r="C49">
+        <v>27.73</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>5551.11</v>
+      </c>
+      <c r="F49" s="8">
+        <v>20180720</v>
+      </c>
+      <c r="G49">
+        <v>27.31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49">
+        <v>5451.43</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>-99.6799999999994</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>-0.0179567690065589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="8">
+        <v>20180625</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <v>28.36</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5677.11</v>
+      </c>
+      <c r="F50" s="8">
+        <v>20180720</v>
+      </c>
+      <c r="G50">
+        <v>26.91</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50">
+        <v>8058.31</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>2381.2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0.419438763737183</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="8">
+        <v>20180626</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+      <c r="C51">
+        <v>26.93</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>5391.11</v>
+      </c>
+      <c r="F51" s="8">
+        <v>20180709</v>
+      </c>
+      <c r="G51">
+        <v>26.98</v>
+      </c>
+      <c r="H51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51">
+        <v>5385.49</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>-5.61999999999989</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>-0.00104245693372977</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="8">
+        <v>20180627</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
+        <v>26.3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>5265.11</v>
+      </c>
+      <c r="F52" s="8">
+        <v>20180629</v>
+      </c>
+      <c r="G52">
+        <v>26.21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52">
+        <v>5231.66</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>-33.4499999999998</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>-0.00635314361903167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8">
+        <v>20180702</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+      <c r="C53">
+        <v>25.47</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>5099.11</v>
+      </c>
+      <c r="F53" s="8">
+        <v>20180706</v>
+      </c>
+      <c r="G53">
+        <v>26.03</v>
+      </c>
+      <c r="H53" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53">
+        <v>5195.69</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>96.5799999999999</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0.0189405602154101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="8">
+        <v>20180710</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+      <c r="C54">
+        <v>26.65</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>5335.11</v>
+      </c>
+      <c r="F54" s="8">
+        <v>20180709</v>
+      </c>
+      <c r="G54">
+        <v>26.84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54">
+        <v>5357.52</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>22.4100000000008</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0.00420047571652708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>20180709</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>26.98</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>5385.49</v>
+      </c>
+      <c r="F55">
+        <v>20180828</v>
+      </c>
+      <c r="G55">
+        <v>28.78</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55">
+        <v>2870.06</v>
+      </c>
+      <c r="J55">
+        <f t="shared" ref="J55" si="5">I55-E55</f>
+        <v>-2515.43</v>
+      </c>
+      <c r="K55">
+        <f t="shared" ref="K55" si="6">J55/E55</f>
+        <v>-0.467075419321176</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="8"/>
+      <c r="F56" s="8">
+        <v>20180711</v>
+      </c>
+      <c r="J56">
+        <v>404</v>
+      </c>
+      <c r="K56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="8">
+        <v>20180716</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+      <c r="C57">
+        <v>25.67</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>5139.1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>20180720</v>
+      </c>
+      <c r="G57">
+        <v>25.93</v>
+      </c>
+      <c r="H57" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57">
+        <v>5175.71</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>36.6099999999997</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0.00712381545406777</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="8">
+        <v>20180724</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>27.92</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>5589.11</v>
+      </c>
+      <c r="F58" s="8">
+        <v>20180725</v>
+      </c>
+      <c r="G58">
+        <v>28.25</v>
+      </c>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58">
+        <v>5639.24</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>50.1300000000001</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>0.00896922765878648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="8">
+        <v>20180905</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+      <c r="C59">
+        <v>28.06</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>5617.11</v>
+      </c>
+      <c r="F59" s="8">
+        <v>20180921</v>
+      </c>
+      <c r="G59">
+        <v>28.88</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59">
+        <v>5765.1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>147.990000000001</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0.0263462883938539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="8">
+        <v>20180906</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+      <c r="C60">
+        <v>27.59</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>5523.11</v>
+      </c>
+      <c r="F60" s="8">
+        <v>20180914</v>
+      </c>
+      <c r="G60">
+        <v>27.93</v>
+      </c>
+      <c r="H60" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60">
+        <v>5575.3</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>52.1900000000005</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0.00944938630590383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="8">
+        <v>20180913</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="C61">
+        <v>27.885</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>5582.12</v>
+      </c>
+      <c r="F61" s="8">
+        <v>20180918</v>
+      </c>
+      <c r="G61">
+        <v>27.85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61">
+        <v>5559.32</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>-22.8000000000002</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>-0.00408446969968402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="8">
+        <v>20180917</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+      <c r="C62">
+        <v>27.39</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>5483.11</v>
+      </c>
+      <c r="F62" s="8">
+        <v>20180917</v>
+      </c>
+      <c r="G62">
+        <v>27.72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62">
+        <v>5533.35</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>50.2400000000007</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0.00916268322174837</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>20180920</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+      <c r="C63">
+        <v>28.45</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5695.11</v>
+      </c>
+      <c r="F63" s="8">
+        <v>20180920</v>
+      </c>
+      <c r="G63">
+        <v>28.72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63">
+        <v>5733.15</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>38.04</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>0.00667941444502388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="8">
+        <v>20181015</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>29.14</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>5833.12</v>
+      </c>
+      <c r="F64" s="8">
+        <v>20181016</v>
+      </c>
+      <c r="G64">
+        <v>29.58</v>
+      </c>
+      <c r="H64" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64">
+        <v>5904.96</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>71.8400000000001</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>0.012315878980717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="8">
+        <v>20181016</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+      <c r="C65">
+        <v>28.94</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>5793.12</v>
+      </c>
+      <c r="F65" s="8">
+        <v>20181022</v>
+      </c>
+      <c r="G65">
+        <v>30.15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>6018.85</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>225.73</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0.038965186289944</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K66" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K67" t="e">
+        <f t="shared" ref="K67:K69" si="7">J67/E67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K68" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K69" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="A6:K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>20180326</v>
-      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>39.69</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>3974.08</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>20180330</v>
+        <v>20180509</v>
       </c>
       <c r="G2">
-        <v>41.86</v>
+        <v>4.42</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="I2">
-        <v>4176.7299999999996</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>202.64999999999964</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>5.0992934213704717E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>20180327</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>41.76</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>4181</v>
-      </c>
-      <c r="F3">
-        <v>20180327</v>
-      </c>
-      <c r="G3">
-        <v>42.03</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3">
-        <v>4193.72</v>
-      </c>
-      <c r="J3">
-        <f>I3-E3</f>
-        <v>12.720000000000255</v>
-      </c>
-      <c r="K3">
-        <f>J3/E3</f>
-        <v>3.0423343697680589E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>20180403</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>39.89</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>3994.08</v>
-      </c>
-      <c r="F4">
-        <v>20180404</v>
-      </c>
-      <c r="G4">
-        <v>42.35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4">
-        <v>4225.68</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J6" si="0">I4-E4</f>
-        <v>231.60000000000036</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K6" si="1">J4/E4</f>
-        <v>5.7985819012138055E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>20180409</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>39.67</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>3972.08</v>
-      </c>
-      <c r="F5">
-        <v>20180410</v>
-      </c>
-      <c r="G5">
-        <v>40.78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5">
-        <v>4068.84</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>96.760000000000218</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>2.4360033030553317E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>20180416</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>40.020000000000003</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>4007.08</v>
-      </c>
-      <c r="F6">
-        <v>20180417</v>
-      </c>
-      <c r="G6">
-        <v>41.19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6">
-        <v>4109.8</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>102.72000000000025</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>2.5634626710722086E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>20180423</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>40.17</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>4022.08</v>
+        <v>878.12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20180326</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>39.69</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3974.08</v>
+      </c>
+      <c r="F2">
+        <v>20180330</v>
+      </c>
+      <c r="G2">
+        <v>41.86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2">
+        <v>4176.73</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>202.65</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0509929342137047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20180327</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>41.76</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4181</v>
+      </c>
+      <c r="F3">
+        <v>20180327</v>
+      </c>
+      <c r="G3">
+        <v>42.03</v>
+      </c>
+      <c r="H3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3">
+        <v>4193.72</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>12.7200000000003</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>0.00304233436976806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20180403</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>39.89</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3994.08</v>
+      </c>
+      <c r="F4">
+        <v>20180404</v>
+      </c>
+      <c r="G4">
+        <v>42.35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4">
+        <v>4225.68</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J16" si="0">I4-E4</f>
+        <v>231.6</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K17" si="1">J4/E4</f>
+        <v>0.0579858190121381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20180409</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>39.67</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>3972.08</v>
+      </c>
+      <c r="F5">
+        <v>20180410</v>
+      </c>
+      <c r="G5">
+        <v>40.78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5">
+        <v>4068.84</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>96.7600000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.0243600330305533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20180416</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>40.02</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4007.08</v>
+      </c>
+      <c r="F6">
+        <v>20180417</v>
+      </c>
+      <c r="G6">
+        <v>41.19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6">
+        <v>4109.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>102.72</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0256346267107221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20180423</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>40.17</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4022.08</v>
+      </c>
+      <c r="F7">
+        <v>20180607</v>
+      </c>
+      <c r="G7">
+        <v>35.86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7">
+        <v>3577.34</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-444.74</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-0.110574628053147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20180427</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>39.38</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>3943</v>
+      </c>
+      <c r="F8">
+        <v>20180529</v>
+      </c>
+      <c r="G8">
+        <v>35.23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8">
+        <v>3514.41</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-428.59</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-0.108696424042607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20180517</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>37.14</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3719.07</v>
+      </c>
+      <c r="F9">
+        <v>20180516</v>
+      </c>
+      <c r="G9">
+        <v>38.85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9">
+        <v>3876.03</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>156.96</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.0422040994119498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20180531</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>33.9</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3395</v>
+      </c>
+      <c r="F10">
+        <v>20180604</v>
+      </c>
+      <c r="G10">
+        <v>34.26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10">
+        <v>3417.5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.00662739322533137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>20180608</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>35.56</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3561.07</v>
+      </c>
+      <c r="F11">
+        <v>20180626</v>
+      </c>
+      <c r="G11">
+        <v>27.93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11">
+        <v>2785.15</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-775.92</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-0.217889566899836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>20180611</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>35.96</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>3601.07</v>
+      </c>
+      <c r="F12">
+        <v>20180611</v>
+      </c>
+      <c r="G12">
+        <v>36.54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12">
+        <v>3645.28</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>44.21</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.012276906586098</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:11">
+      <c r="A13" s="1">
+        <v>20180613</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33.91</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3396.07</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>-3396.07</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>20180731</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>26.71</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2676.05</v>
+      </c>
+      <c r="F14">
+        <v>20180830</v>
+      </c>
+      <c r="G14">
+        <v>25.7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14">
+        <v>2562.38</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>-113.67</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-0.0424767848134377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>20180905</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>28.45</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2850</v>
+      </c>
+      <c r="F15">
+        <v>20180906</v>
+      </c>
+      <c r="G15">
+        <v>29.36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15">
+        <v>2931</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.0284210526315789</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>20180907</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>29.17</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2922.06</v>
+      </c>
+      <c r="F16">
+        <v>20180910</v>
+      </c>
+      <c r="G16">
+        <v>28.23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16">
+        <v>2815.12</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-106.94</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-0.0365974689089204</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="N1">
         <v>12010</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20170907</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -2715,21 +4816,21 @@
         <v>2.5</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="J2">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>20170907</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>590</v>
@@ -2741,71 +4842,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20180913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
       <c r="G21" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J9"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
         <v>20171012</v>
       </c>
       <c r="B2">
@@ -2820,29 +4930,29 @@
       <c r="E2">
         <v>7221.77</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>20171016</v>
       </c>
       <c r="G2">
-        <v>18.420000000000002</v>
+        <v>18.42</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <v>7354.74</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" si="0">I2-E2</f>
-        <v>132.96999999999935</v>
+        <f t="shared" ref="J2:J10" si="0">I2-E2</f>
+        <v>132.969999999999</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" si="1">J2/E2</f>
-        <v>1.8412383667715717E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+        <f t="shared" ref="K2:K10" si="1">J2/E2</f>
+        <v>0.0184123836677157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4">
         <v>20171016</v>
       </c>
       <c r="B3">
@@ -2857,29 +4967,29 @@
       <c r="E3">
         <v>7305.84</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>20171018</v>
       </c>
       <c r="G3">
         <v>18.47</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>7374.7</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>68.859999999999673</v>
+        <v>68.8599999999997</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>9.4253364431741826E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+        <v>0.00942533644317418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4">
         <v>20171018</v>
       </c>
       <c r="B4">
@@ -2894,29 +5004,29 @@
       <c r="E4">
         <v>7393.91</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>20171019</v>
       </c>
       <c r="G4">
         <v>18.73</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I4">
         <v>7478.51</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>84.600000000000364</v>
+        <v>84.6000000000004</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>1.1441848764726696E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+        <v>0.0114418487647267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
         <v>20171020</v>
       </c>
       <c r="B5">
@@ -2931,36 +5041,36 @@
       <c r="E5">
         <v>7393.91</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>20171023</v>
       </c>
       <c r="G5">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>7446.57</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>52.659999999999854</v>
+        <v>52.6599999999999</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>7.1220774935047701E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+        <v>0.00712207749350477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4">
         <v>20171023</v>
       </c>
       <c r="B6">
         <v>400</v>
       </c>
       <c r="C6">
-        <v>18.309999999999999</v>
+        <v>18.31</v>
       </c>
       <c r="D6">
         <v>5.86</v>
@@ -2968,29 +5078,29 @@
       <c r="E6">
         <v>7329.86</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>20171025</v>
       </c>
       <c r="G6">
-        <v>18.489999999999998</v>
+        <v>18.49</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I6">
         <v>7382.68</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>52.820000000000618</v>
+        <v>52.8200000000006</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>7.2061403628446681E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+        <v>0.00720614036284467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
         <v>20171026</v>
       </c>
       <c r="B7">
@@ -3005,28 +5115,28 @@
       <c r="E7">
         <v>7586.06</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>20171031</v>
       </c>
       <c r="G7">
         <v>19.27</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <v>7694.12</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>108.05999999999949</v>
+        <v>108.059999999999</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>1.4244548553531014E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.014244548553531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20171031</v>
       </c>
@@ -3049,7 +5159,7 @@
         <v>18.91</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8">
         <v>1884.11</v>
@@ -3060,11 +5170,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>-1.0965879265091917E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+        <v>-0.0109658792650919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
         <v>20171107</v>
       </c>
       <c r="B9">
@@ -3079,89 +5189,147 @@
       <c r="E9">
         <v>2041</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>20171107</v>
       </c>
       <c r="G9">
         <v>20.78</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I9">
         <v>2070.92</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>29.920000000000073</v>
+        <v>29.9200000000001</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1.4659480646741829E-2</v>
+        <v>0.0146594806467418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>20180731</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>19.54</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3913</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20180802</v>
+      </c>
+      <c r="G10">
+        <v>17.3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>3451.54</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-461.46</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-0.117929976999744</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="6">
+        <v>20180829</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3483</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J13"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
       <c r="O1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20171018</v>
       </c>
@@ -3184,21 +5352,21 @@
         <v>14.27</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>5697.29</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>48.289999999999964</v>
+        <v>48.29</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>8.5484156487873903E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.00854841564878739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20171019</v>
       </c>
@@ -3221,21 +5389,21 @@
         <v>14.05</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>4205.78</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J18" si="0">I3-E3</f>
-        <v>60.779999999999745</v>
+        <f t="shared" ref="J3:J33" si="0">I3-E3</f>
+        <v>60.7799999999997</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K19" si="1">J3/E3</f>
-        <v>1.4663449939686308E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+        <f t="shared" ref="K3:K35" si="1">J3/E3</f>
+        <v>0.0146634499396863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20171025</v>
       </c>
@@ -3258,21 +5426,21 @@
         <v>14.89</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>4157.83</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>57.829999999999927</v>
+        <v>57.8299999999999</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>1.410487804878047E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0141048780487805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>20171026</v>
       </c>
@@ -3301,46 +5469,58 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>I5-E5</f>
+        <f t="shared" si="0"/>
         <v>-2893</v>
       </c>
       <c r="K5">
-        <f>J5/E5</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>20171031</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>200</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>14.86</v>
       </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>2977</v>
       </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>-2977</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>20180515</v>
+      </c>
+      <c r="G6">
+        <v>13.95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>1388.6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-1588.4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-0.533557272421901</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20171102</v>
       </c>
@@ -3363,21 +5543,21 @@
         <v>14.84</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I7">
         <v>5925.06</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>3096.0600000000004</v>
+        <v>3096.06</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>1.0944008483563097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+        <v>1.09440084835631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>20171110</v>
       </c>
@@ -3397,27 +5577,27 @@
         <v>20180110</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I8">
-        <v>2537.4499999999998</v>
+        <v>2537.45</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>-269.55000000000018</v>
+        <v>-269.55</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>-9.6027787673673023E-2</v>
+        <v>-0.096027787673673</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>20180202</v>
       </c>
@@ -3440,24 +5620,24 @@
         <v>13.49</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I9">
         <v>4037.95</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>1506.9499999999998</v>
+        <v>1506.95</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.59539707625444482</v>
+        <v>0.595397076254445</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20180207</v>
       </c>
@@ -3480,21 +5660,21 @@
         <v>12.74</v>
       </c>
       <c r="H10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I10">
-        <v>5085.8999999999996</v>
+        <v>5085.9</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>264.89999999999964</v>
+        <v>264.9</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>5.4947106409458546E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0549471064094585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>20180301</v>
       </c>
@@ -3517,21 +5697,21 @@
         <v>12.57</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I11">
         <v>5017.97</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>52.970000000000255</v>
+        <v>52.9700000000003</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>1.0668680765357553E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0106686807653576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>20180302</v>
       </c>
@@ -3554,21 +5734,21 @@
         <v>12.84</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I12">
-        <v>5125.8599999999997</v>
+        <v>5125.86</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>116.85999999999967</v>
+        <v>116.86</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>2.3330005989219339E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+        <v>0.0233300059892193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>20180322</v>
       </c>
@@ -3591,137 +5771,713 @@
         <v>13.96</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I13">
         <v>1389.6</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>-18.400000000000091</v>
+        <v>-18.4000000000001</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>-1.3068181818181883E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-0.0130681818181819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>20180531</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3205</v>
+      </c>
+      <c r="F14">
+        <v>20180607</v>
+      </c>
+      <c r="G14">
+        <v>16.15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>3221.77</v>
+      </c>
       <c r="J14">
         <f t="shared" si="0"/>
+        <v>16.77</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.00523244929797191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>20180606</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>15.79</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3163</v>
+      </c>
+      <c r="F15">
+        <v>20180605</v>
+      </c>
+      <c r="G15">
+        <v>16.05</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15">
+        <v>3201.79</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>38.79</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0.0122636737274739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>20180607</v>
+      </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
+      <c r="C16">
+        <v>15.82</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4751</v>
+      </c>
+      <c r="F16">
+        <v>20180622</v>
+      </c>
+      <c r="G16">
+        <v>14.08</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16">
+        <v>2808.18</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-1942.82</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-0.408928646600716</v>
+      </c>
+      <c r="L16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="2:12">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
-      <c r="K14" t="e">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J15">
+      <c r="L17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>20180627</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <v>13.68</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2741</v>
+      </c>
+      <c r="F18">
+        <v>20180629</v>
+      </c>
+      <c r="G18">
+        <v>13.94</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18">
+        <v>2780.21</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>39.21</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.0143049981758482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20180703</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <v>13.36</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2677</v>
+      </c>
+      <c r="F19">
+        <v>20180725</v>
+      </c>
+      <c r="G19">
+        <v>13.83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19">
+        <v>2758.23</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>81.23</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.0303436682853941</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12">
+      <c r="F20">
+        <v>20180704</v>
+      </c>
+      <c r="J20">
+        <v>26</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:11">
+      <c r="A21" s="1">
+        <v>20180727</v>
+      </c>
+      <c r="B21" s="1">
+        <v>200</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2701</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>-2701</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20180802</v>
+      </c>
+      <c r="B22">
+        <v>300</v>
+      </c>
+      <c r="C22">
+        <v>12.98</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3899</v>
+      </c>
+      <c r="F22">
+        <v>20180921</v>
+      </c>
+      <c r="G22">
+        <v>12.92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>3867.12</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>-31.8800000000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-0.00817645550141065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>20180817</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <v>12.13</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>4857</v>
+      </c>
+      <c r="F23">
+        <v>20180828</v>
+      </c>
+      <c r="G23">
+        <v>12.37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23">
+        <v>4938.05</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>81.0500000000002</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.016687255507515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>20180913</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+      <c r="C24">
+        <v>12.28</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>7373.89</v>
+      </c>
+      <c r="F24">
+        <v>20180913</v>
+      </c>
+      <c r="G24">
+        <v>12.5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24">
+        <v>7486.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>112.61</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.0152714510251712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20180913</v>
+      </c>
+      <c r="B25">
+        <v>600</v>
+      </c>
+      <c r="C25">
+        <v>12.32</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>7397.91</v>
+      </c>
+      <c r="F25">
+        <v>20180914</v>
+      </c>
+      <c r="G25">
+        <v>12.53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25">
+        <v>7504.47</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>106.56</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.0144040681760119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>20180926</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+      <c r="C26">
+        <v>13.16</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3953</v>
+      </c>
+      <c r="F26">
+        <v>20180928</v>
+      </c>
+      <c r="G26">
+        <v>13.43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <v>4019.97</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>66.9699999999998</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.0169415633695927</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="1">
+        <v>20181008</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3920</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>-3920</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>20181012</v>
+      </c>
+      <c r="B28">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <v>11.87</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5940</v>
+      </c>
+      <c r="F28">
+        <v>20181012</v>
+      </c>
+      <c r="G28">
+        <v>12.24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28">
+        <v>6108.88</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>168.88</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.0284309764309764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>20181016</v>
+      </c>
+      <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="C29">
+        <v>11.94</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>7169.73</v>
+      </c>
+      <c r="F29">
+        <v>20181022</v>
+      </c>
+      <c r="G29">
+        <v>12.59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29">
+        <v>7540.41</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>370.68</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.0517006916578449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>20181019</v>
+      </c>
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>11.69</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5850</v>
+      </c>
+      <c r="F30">
+        <v>20181022</v>
+      </c>
+      <c r="G30">
+        <v>12.28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I30">
+        <v>6128.86</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>278.86</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.047668376068376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>20181022</v>
+      </c>
+      <c r="B31" s="1">
+        <v>600</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7475.98</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>-7475.98</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" t="e">
+      <c r="K32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="J16">
+    <row r="33" spans="10:11">
+      <c r="J33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" t="e">
+      <c r="K33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" t="e">
+    <row r="34" spans="11:11">
+      <c r="K34" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" t="e">
+    <row r="35" spans="11:11">
+      <c r="K35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="K19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
       <c r="L1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
         <v>20171017</v>
       </c>
       <c r="B2">
@@ -3736,31 +6492,31 @@
       <c r="E2">
         <v>9687.94</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>20171027</v>
       </c>
       <c r="G2">
         <v>4.93</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="I2">
-        <v>9842.0499999999993</v>
+        <v>9842.05</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>154.10999999999876</v>
+        <v>154.109999999999</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>1.5907406528116272E-2</v>
+        <v>0.0159074065281163</v>
       </c>
       <c r="L2">
         <v>144.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>20171027</v>
       </c>
@@ -3768,13 +6524,13 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4945.1000000000004</v>
+        <v>4945.1</v>
       </c>
       <c r="F3">
         <v>20171108</v>
@@ -3783,22 +6539,22 @@
         <v>4.99</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>4979.91</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">I3-E3</f>
-        <v>34.809999999999491</v>
+        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
+        <v>34.8099999999995</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" si="1">J3/E3</f>
-        <v>7.0392914197891831E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+        <f t="shared" ref="K3:K8" si="1">J3/E3</f>
+        <v>0.00703929141978918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
         <v>20171030</v>
       </c>
       <c r="B4">
@@ -3811,30 +6567,30 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>4885.1000000000004</v>
-      </c>
-      <c r="F4" s="2">
+        <v>4885.1</v>
+      </c>
+      <c r="F4" s="4">
         <v>20171030</v>
       </c>
       <c r="G4">
         <v>4.96</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="I4">
-        <v>4949.9399999999996</v>
+        <v>4949.94</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>64.839999999999236</v>
+        <v>64.8399999999992</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>1.3273013858467428E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.0132730138584674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>20171101</v>
       </c>
@@ -3857,21 +6613,21 @@
         <v>5.12</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="I5">
         <v>5109.78</v>
       </c>
       <c r="J5">
-        <f>I5-E5</f>
-        <v>104.77999999999975</v>
+        <f t="shared" si="0"/>
+        <v>104.78</v>
       </c>
       <c r="K5">
-        <f>J5/E5</f>
-        <v>2.0935064935064883E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>0.0209350649350649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>20171110</v>
       </c>
@@ -3879,36 +6635,36 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5065.1000000000004</v>
+        <v>5065.1</v>
       </c>
       <c r="F6">
         <v>20171110</v>
       </c>
       <c r="G6">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I6">
         <v>5099</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>33.899999999999636</v>
+        <v>33.8999999999996</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>6.6928589761307052E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.00669285897613071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20171204</v>
       </c>
@@ -3916,7 +6672,7 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3931,95 +6687,116 @@
         <v>5.16</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="I7">
         <v>5149.74</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>34.739999999999782</v>
+        <v>34.7399999999998</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>6.7917888563049427E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+        <v>0.00679178885630494</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="1">
         <v>20180326</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>4.62</v>
       </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>4625</v>
       </c>
+      <c r="F8" s="1">
+        <v>20180507</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4580.32</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>-44.6800000000003</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.0096605405405406</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20171129</v>
       </c>
@@ -4042,21 +6819,21 @@
         <v>62.17</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="I2">
         <v>6205.78</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J13" si="0">I2-E2</f>
-        <v>-421.52000000000044</v>
+        <f t="shared" ref="J2:J14" si="0">I2-E2</f>
+        <v>-421.52</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K13" si="1">J2/E2</f>
-        <v>-6.3603579134791005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <f t="shared" ref="K2:K27" si="1">J2/E2</f>
+        <v>-0.063603579134791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20180110</v>
       </c>
@@ -4079,21 +6856,21 @@
         <v>61.24</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="I3">
         <v>6112.88</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>119.88000000000011</v>
+        <v>119.88</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>2.0003337226764575E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.0200033372267646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20180117</v>
       </c>
@@ -4116,46 +6893,61 @@
         <v>63.46</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="I4">
         <v>6334.57</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>286.56999999999971</v>
+        <v>286.57</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>4.7382605820105769E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+        <v>0.0473826058201058</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
+      <c r="A5">
         <v>20180125</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>61.71</v>
       </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>6176</v>
       </c>
+      <c r="F5">
+        <v>20180515</v>
+      </c>
+      <c r="G5">
+        <v>38.25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5">
+        <v>3816.17</v>
+      </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>-6176</v>
+        <v>-2359.83</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>-0.38209682642487</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:11">
       <c r="A6">
         <v>20180202</v>
       </c>
@@ -4178,21 +6970,21 @@
         <v>61.45</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>6133.85</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>784.85000000000036</v>
+        <v>784.85</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>0.14672836044120402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.146728360441204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>20180301</v>
       </c>
@@ -4215,21 +7007,21 @@
         <v>57.02</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="I7">
         <v>5691.3</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>39.300000000000182</v>
+        <v>39.3000000000002</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>6.953290870488355E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.00695329087048835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>20180312</v>
       </c>
@@ -4252,21 +7044,21 @@
         <v>61.2</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I8">
         <v>6108.88</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>44.880000000000109</v>
+        <v>44.8800000000001</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>7.4010554089709944E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.00740105540897099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>20180315</v>
       </c>
@@ -4289,21 +7081,21 @@
         <v>62.06</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="I9">
         <v>6194.79</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>82.789999999999964</v>
+        <v>82.79</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1.3545484293193711E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.0135454842931937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20180319</v>
       </c>
@@ -4326,21 +7118,21 @@
         <v>63.46</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I10">
         <v>6334.57</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>37.569999999999709</v>
+        <v>37.5699999999997</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>5.9663331745275069E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.00596633317452751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>20180321</v>
       </c>
@@ -4363,21 +7155,21 @@
         <v>58.86</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="I11">
         <v>5875.11</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>-236.89000000000033</v>
+        <v>-236.89</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>-3.8758180628272305E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-0.0387581806282723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>20180403</v>
       </c>
@@ -4400,21 +7192,21 @@
         <v>58.05</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="I12">
         <v>5794.19</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>-118.8100000000004</v>
+        <v>-118.81</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>-2.009301538981911E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>-0.0200930153898191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>20180424</v>
       </c>
@@ -4437,78 +7229,663 @@
         <v>57.21</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I13">
         <v>5710.28</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>175.27999999999975</v>
+        <v>175.28</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>3.1667570009033377E-2</v>
+        <v>0.0316675700090334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>20180426</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>56.8</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5685</v>
+      </c>
+      <c r="F14">
+        <v>20180514</v>
+      </c>
+      <c r="G14">
+        <v>38.49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14">
+        <v>7684.14</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1999.14</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.351651715039578</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>20180511</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>20180620</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>31.66</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>3171</v>
+      </c>
+      <c r="F16">
+        <v>20180622</v>
+      </c>
+      <c r="G16">
+        <v>30.92</v>
+      </c>
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16">
+        <v>3083.91</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J30" si="2">I16-E16</f>
+        <v>-87.0900000000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>-0.0274645222327342</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A17">
+        <v>20180621</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>30.82</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3087</v>
+      </c>
+      <c r="F17">
+        <v>20180626</v>
+      </c>
+      <c r="G17">
+        <v>31.18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17">
+        <v>3109.88</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>22.8800000000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.0074117265954001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>20180622</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>30.45</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3050</v>
+      </c>
+      <c r="F18">
+        <v>20180629</v>
+      </c>
+      <c r="G18">
+        <v>31.64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18">
+        <v>3155.84</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>105.84</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.0347016393442623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20180706</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>31.05</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3110</v>
+      </c>
+      <c r="F19">
+        <v>20180709</v>
+      </c>
+      <c r="G19">
+        <v>31.87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19">
+        <v>3178.81</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>68.8099999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.0221254019292604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>20180719</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>31.66</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3171</v>
+      </c>
+      <c r="F20">
+        <v>20180723</v>
+      </c>
+      <c r="G20">
+        <v>32.41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20">
+        <v>3232.76</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>61.7600000000002</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.0194765058341218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20180801</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>31.56</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>3161</v>
+      </c>
+      <c r="F21">
+        <v>20180830</v>
+      </c>
+      <c r="G21">
+        <v>31.71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21">
+        <v>6330.59</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>3169.59</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1.00271749446378</v>
+      </c>
+      <c r="L21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20180802</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>30.59</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>3064</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>-3064</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>20180802</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>29.48</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2953</v>
+      </c>
+      <c r="F23">
+        <v>20180810</v>
+      </c>
+      <c r="G23">
+        <v>29.92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23">
+        <v>2984.01</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>31.0100000000002</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.010501185235354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>20180806</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>28.25</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2830</v>
+      </c>
+      <c r="F24">
+        <v>20180809</v>
+      </c>
+      <c r="G24">
+        <v>28.73</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24">
+        <v>2865.13</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>35.1300000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.0124134275618375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20180903</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>30.08</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3085</v>
+      </c>
+      <c r="F25">
+        <v>20180904</v>
+      </c>
+      <c r="G25">
+        <v>31.41</v>
+      </c>
+      <c r="H25" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25">
+        <v>3132.86</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>47.8600000000001</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.0155137763371151</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:11">
+      <c r="A26" s="1">
+        <v>20180910</v>
+      </c>
+      <c r="B26" s="1">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30.23</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30.28</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>-30.28</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>20180917</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>29.07</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2912</v>
+      </c>
+      <c r="F27">
+        <v>20180917</v>
+      </c>
+      <c r="G27">
+        <v>29.56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27">
+        <v>2946.04</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>34.04</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.0116895604395604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>20180926</v>
+      </c>
+      <c r="B28" s="1">
+        <v>100</v>
+      </c>
+      <c r="C28" s="1">
+        <v>29.04</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2909</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <f t="shared" si="2"/>
+        <v>-2909</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>20180928</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28.49</v>
+      </c>
+      <c r="D29" s="1">
+        <v>5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2854</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>-2854</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>20181022</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <v>21.69</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>4343</v>
+      </c>
+      <c r="F30">
+        <v>20181022</v>
+      </c>
+      <c r="G30">
+        <v>21.95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I30">
+        <v>4380.61</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>37.6099999999997</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20171114</v>
       </c>
@@ -4531,21 +7908,21 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="I2">
         <v>5589.29</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>318.18000000000029</v>
+        <v>318.18</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>6.0362997547006289E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.0603629975470063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20180111</v>
       </c>
@@ -4568,21 +7945,21 @@
         <v>56.76</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I3">
         <v>5665.21</v>
       </c>
       <c r="J3">
         <f>I3-E3</f>
-        <v>30.100000000000364</v>
+        <v>30.1000000000004</v>
       </c>
       <c r="K3">
         <f>J3/E3</f>
-        <v>5.341510635994748E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>0.00534151063599475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20180116</v>
       </c>
@@ -4605,76 +7982,77 @@
         <v>59.42</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>5930.94</v>
       </c>
       <c r="J4">
         <f>I4-E4</f>
-        <v>49.819999999999709</v>
+        <v>49.8199999999997</v>
       </c>
       <c r="K4">
         <f>J4/E4</f>
-        <v>8.471175558396991E-3</v>
+        <v>0.00847117555839699</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20171218</v>
       </c>
@@ -4685,7 +8063,7 @@
         <v>10.76</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="E2">
         <v>2157.04</v>
@@ -4697,76 +8075,77 @@
         <v>11.75</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="I2">
         <v>2342.6</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>185.55999999999995</v>
+        <v>185.56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="J1" sqref="J$1:J$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
       <c r="M1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20180123</v>
       </c>
@@ -4789,21 +8168,21 @@
         <v>9.11</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="I2">
         <v>1815.18</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>64.180000000000064</v>
+        <v>64.1800000000001</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>3.6653340948029731E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+        <v>0.0366533409480297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>20180126</v>
       </c>
@@ -4811,7 +8190,7 @@
         <v>200</v>
       </c>
       <c r="C3">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -4826,21 +8205,21 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="I3">
         <v>1993</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J4" si="0">I3-E3</f>
+        <f t="shared" ref="J3:J26" si="0">I3-E3</f>
         <v>194</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K4" si="1">J3/E3</f>
-        <v>0.10783768760422457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="K3:K26" si="1">J3/E3</f>
+        <v>0.107837687604225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>20180202</v>
       </c>
@@ -4860,10 +8239,10 @@
         <v>20180309</v>
       </c>
       <c r="G4">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="I4">
         <v>3243.75</v>
@@ -4874,66 +8253,359 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>4.7384565708750402E-2</v>
+        <v>0.0473845657087504</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="6:12">
+      <c r="F5" s="1">
+        <v>20180426</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13.26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1319.67</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1319.67</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20180822</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>8.33</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2504</v>
+      </c>
+      <c r="F6">
+        <v>20180828</v>
+      </c>
+      <c r="G6">
+        <v>8.56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6">
+        <v>2560.43</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>56.4299999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0225359424920127</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="1">
+        <v>20180829</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2507</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>-2507</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:11">
+      <c r="A8" s="1">
+        <v>20180907</v>
+      </c>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.08</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2429</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>-2429</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20180125</v>
       </c>
@@ -4956,19 +8628,83 @@
         <v>10.33</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="I2">
         <v>4122.87</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-66.130000000000109</v>
+        <v>-66.1300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>20180523</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12">
+      <c r="F4">
+        <v>20180604</v>
+      </c>
+      <c r="G4">
+        <v>7.47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4">
+        <v>2233.76</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>2233.76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>20180605</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>7.38</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4433</v>
+      </c>
+      <c r="F5">
+        <v>20180607</v>
+      </c>
+      <c r="G5">
+        <v>7.24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5">
+        <v>4334.66</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="736" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,25 @@
     <sheet name="海康" sheetId="14" r:id="rId13"/>
     <sheet name="比亚迪" sheetId="15" r:id="rId14"/>
     <sheet name="五粮液" sheetId="16" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId16"/>
+    <sheet name="中国平安" sheetId="17" r:id="rId16"/>
+    <sheet name="平安银行" sheetId="20" r:id="rId17"/>
+    <sheet name="人寿" sheetId="18" r:id="rId18"/>
+    <sheet name="宁波银行" sheetId="19" r:id="rId19"/>
+    <sheet name="京东方" sheetId="22" r:id="rId20"/>
+    <sheet name="药明康德" sheetId="23" r:id="rId21"/>
+    <sheet name="华东医药" sheetId="24" r:id="rId22"/>
+    <sheet name="智飞生物" sheetId="25" r:id="rId23"/>
+    <sheet name="乐普医疗" sheetId="26" r:id="rId24"/>
+    <sheet name="温氏股份" sheetId="27" r:id="rId25"/>
+    <sheet name="芯片基金" sheetId="21" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="213">
   <si>
     <t>买入时间</t>
   </si>
@@ -244,6 +255,12 @@
     <t>5+6.03</t>
   </si>
   <si>
+    <t>当天分红,并且牛市高峰期到43元,想进去得个分红,可能还会涨,但被套牢了</t>
+  </si>
+  <si>
+    <t>分红</t>
+  </si>
+  <si>
     <t>5.89+7.37</t>
   </si>
   <si>
@@ -278,9 +295,6 @@
   </si>
   <si>
     <t>卖出1200股,多卖200股不知道哪里来的</t>
-  </si>
-  <si>
-    <t>分红</t>
   </si>
   <si>
     <t xml:space="preserve"> 截至到2017-10-18,两年了还赔264</t>
@@ -383,6 +397,9 @@
   </si>
   <si>
     <t>900哪里来的</t>
+  </si>
+  <si>
+    <t>最后100股清仓,因为跌的太惨了,没必要在保留</t>
   </si>
   <si>
     <t>软件中盈利</t>
@@ -574,6 +591,47 @@
     <t>20190417卖出3000股</t>
   </si>
   <si>
+    <t>一直买,一直跌.一直补</t>
+  </si>
+  <si>
+    <t>在低价的时候做了一次T,手里平安太多了</t>
+  </si>
+  <si>
+    <t>做T</t>
+  </si>
+  <si>
+    <t>没钱了,想拿点钱回来做T,所以是先卖了几天后再买的</t>
+  </si>
+  <si>
+    <t>牛市高点出货</t>
+  </si>
+  <si>
+    <t>套牢,因为此时在回落,此时还有1100股,股本就是79,感觉还有回落趋势,因此割肉卖出一部分。</t>
+  </si>
+  <si>
+    <t>做T,多卖了100股</t>
+  </si>
+  <si>
+    <t>牛市高点清盘</t>
+  </si>
+  <si>
+    <t>不是按照买的数量卖的,但好在后面有这个数量买的,所以记录成一行了</t>
+  </si>
+  <si>
+    <t>此时牛市疯长,好几个涨停板,
+已经属于高估值阶段,高点卖出</t>
+  </si>
+  <si>
+    <t>牛市高点卖出</t>
+  </si>
+  <si>
+    <t>涨幅有30%,因此追加仓位</t>
+  </si>
+  <si>
+    <t>疫情原因,一直跌,一直买
+清仓</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -630,16 +688,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,8 +846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,20 +861,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -817,31 +907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,25 +931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,25 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,12 +1076,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,10 +1192,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1126,144 +1204,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="7" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1271,13 +1362,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="32" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="32" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1626,24 +1716,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="O70" sqref="O70"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.25" style="14" customWidth="1"/>
+    <col min="1" max="1" width="44.25" style="22" customWidth="1"/>
     <col min="5" max="5" width="9.375"/>
-    <col min="6" max="6" width="10.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="23" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1658,7 +1748,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1678,7 +1768,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16">
+      <c r="A2" s="24">
         <v>20170626</v>
       </c>
       <c r="B2">
@@ -1693,7 +1783,7 @@
       <c r="E2">
         <v>2373.05</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="24">
         <v>20170711</v>
       </c>
       <c r="G2">
@@ -1715,7 +1805,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16">
+      <c r="A3" s="24">
         <v>20170627</v>
       </c>
       <c r="B3">
@@ -1730,7 +1820,7 @@
       <c r="E3">
         <v>2299.05</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="24">
         <v>20170627</v>
       </c>
       <c r="G3">
@@ -1747,7 +1837,7 @@
         <v>14.5799999999999</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">J3/E3</f>
+        <f t="shared" ref="K3:K67" si="0">J3/E3</f>
         <v>0.00634174985320019</v>
       </c>
       <c r="O3" t="s">
@@ -1755,7 +1845,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16">
+      <c r="A4" s="24">
         <v>20170628</v>
       </c>
       <c r="B4">
@@ -1770,7 +1860,7 @@
       <c r="E4">
         <v>2417.05</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="24">
         <v>20170629</v>
       </c>
       <c r="G4">
@@ -1792,7 +1882,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16">
+      <c r="A5" s="24">
         <v>20170629</v>
       </c>
       <c r="B5">
@@ -1807,7 +1897,7 @@
       <c r="E5">
         <v>2396.05</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="24">
         <v>20170629</v>
       </c>
       <c r="G5">
@@ -1829,7 +1919,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16">
+      <c r="A6" s="24">
         <v>20170630</v>
       </c>
       <c r="B6">
@@ -1844,7 +1934,7 @@
       <c r="E6">
         <v>2386.05</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="24">
         <v>20170630</v>
       </c>
       <c r="G6">
@@ -1866,7 +1956,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16">
+      <c r="A7" s="24">
         <v>20170703</v>
       </c>
       <c r="B7">
@@ -1881,7 +1971,7 @@
       <c r="E7">
         <v>2356.05</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="24">
         <v>20170705</v>
       </c>
       <c r="G7">
@@ -1903,7 +1993,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="16">
+      <c r="A8" s="24">
         <v>20170706</v>
       </c>
       <c r="B8">
@@ -1918,7 +2008,7 @@
       <c r="E8">
         <v>2346.05</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="24">
         <v>20170706</v>
       </c>
       <c r="G8">
@@ -1940,7 +2030,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16">
+      <c r="A9" s="24">
         <v>20170707</v>
       </c>
       <c r="B9">
@@ -1955,7 +2045,7 @@
       <c r="E9">
         <v>2381.05</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="24">
         <v>20170711</v>
       </c>
       <c r="G9">
@@ -1977,7 +2067,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="16">
+      <c r="A10" s="24">
         <v>20170707</v>
       </c>
       <c r="B10">
@@ -1992,7 +2082,7 @@
       <c r="E10">
         <v>2356.05</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="24">
         <v>20170711</v>
       </c>
       <c r="G10">
@@ -2014,7 +2104,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="16">
+      <c r="A11" s="24">
         <v>20170710</v>
       </c>
       <c r="B11">
@@ -2029,7 +2119,7 @@
       <c r="E11">
         <v>6992.73</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="24">
         <v>20170711</v>
       </c>
       <c r="G11">
@@ -2051,7 +2141,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="16">
+      <c r="A12" s="24">
         <v>20170711</v>
       </c>
       <c r="B12">
@@ -2066,7 +2156,7 @@
       <c r="E12">
         <v>2377.05</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="24">
         <v>20170717</v>
       </c>
       <c r="G12">
@@ -2088,7 +2178,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="16">
+      <c r="A13" s="24">
         <v>20170711</v>
       </c>
       <c r="B13">
@@ -2103,7 +2193,7 @@
       <c r="E13">
         <v>4817.1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="24">
         <v>20170712</v>
       </c>
       <c r="G13">
@@ -2125,7 +2215,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="16">
+      <c r="A14" s="24">
         <v>20170712</v>
       </c>
       <c r="B14">
@@ -2140,7 +2230,7 @@
       <c r="E14">
         <v>2429.05</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="24">
         <v>20170713</v>
       </c>
       <c r="G14">
@@ -2162,7 +2252,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="16">
+      <c r="A15" s="24">
         <v>20170713</v>
       </c>
       <c r="B15">
@@ -2177,7 +2267,7 @@
       <c r="E15">
         <v>2427.05</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="24">
         <v>20170713</v>
       </c>
       <c r="G15">
@@ -2199,7 +2289,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="16">
+      <c r="A16" s="24">
         <v>20170714</v>
       </c>
       <c r="B16">
@@ -2214,7 +2304,7 @@
       <c r="E16">
         <v>2513.05</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="24">
         <v>20170714</v>
       </c>
       <c r="G16">
@@ -2236,7 +2326,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="16">
+      <c r="A17" s="24">
         <v>20170717</v>
       </c>
       <c r="B17">
@@ -2251,7 +2341,7 @@
       <c r="E17">
         <v>5009.1</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="24">
         <v>20170719</v>
       </c>
       <c r="G17">
@@ -2273,7 +2363,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="16">
+      <c r="A18" s="24">
         <v>20170718</v>
       </c>
       <c r="B18">
@@ -2288,7 +2378,7 @@
       <c r="E18">
         <v>2430.05</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="24">
         <v>20170719</v>
       </c>
       <c r="G18">
@@ -2310,7 +2400,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="16">
+      <c r="A19" s="24">
         <v>20170720</v>
       </c>
       <c r="B19">
@@ -2325,7 +2415,7 @@
       <c r="E19">
         <v>5029.1</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="24">
         <v>20170724</v>
       </c>
       <c r="G19">
@@ -2347,7 +2437,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="16">
+      <c r="A20" s="24">
         <v>20170720</v>
       </c>
       <c r="B20">
@@ -2362,7 +2452,7 @@
       <c r="E20">
         <v>2495.05</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="24">
         <v>20170727</v>
       </c>
       <c r="G20">
@@ -2384,7 +2474,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="16">
+      <c r="A21" s="24">
         <v>20170721</v>
       </c>
       <c r="B21">
@@ -2399,7 +2489,7 @@
       <c r="E21">
         <v>2476.05</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="24">
         <v>20170727</v>
       </c>
       <c r="G21">
@@ -2421,7 +2511,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="16">
+      <c r="A22" s="24">
         <v>20170724</v>
       </c>
       <c r="B22">
@@ -2436,7 +2526,7 @@
       <c r="E22">
         <v>4983.1</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="24">
         <v>20170724</v>
       </c>
       <c r="G22">
@@ -2458,7 +2548,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="15">
+      <c r="A23" s="23">
         <v>20170725</v>
       </c>
       <c r="B23">
@@ -2473,7 +2563,7 @@
       <c r="E23">
         <v>5165.1</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="23">
         <v>20170802</v>
       </c>
       <c r="G23">
@@ -2495,7 +2585,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15">
+      <c r="A24" s="23">
         <v>20170725</v>
       </c>
       <c r="B24">
@@ -2510,7 +2600,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="23">
         <v>20170803</v>
       </c>
       <c r="G24">
@@ -2535,7 +2625,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15">
+      <c r="A25" s="23">
         <v>20170726</v>
       </c>
       <c r="B25">
@@ -2550,7 +2640,7 @@
       <c r="E25">
         <v>5113.1</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="24">
         <v>20170726</v>
       </c>
       <c r="G25">
@@ -2572,7 +2662,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15">
+      <c r="A26" s="23">
         <v>20170731</v>
       </c>
       <c r="B26">
@@ -2587,7 +2677,7 @@
       <c r="E26">
         <v>5097.1</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="23">
         <v>20170731</v>
       </c>
       <c r="G26">
@@ -2609,7 +2699,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="15">
+      <c r="A27" s="23">
         <v>20170801</v>
       </c>
       <c r="B27">
@@ -2624,7 +2714,7 @@
       <c r="E27">
         <v>2545.05</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="23">
         <v>20170801</v>
       </c>
       <c r="G27">
@@ -2646,7 +2736,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="15">
+      <c r="A28" s="23">
         <v>20170801</v>
       </c>
       <c r="B28">
@@ -2661,7 +2751,7 @@
       <c r="E28">
         <v>2583.05</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="23">
         <v>20170801</v>
       </c>
       <c r="G28">
@@ -2683,7 +2773,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="15">
+      <c r="A29" s="23">
         <v>20170803</v>
       </c>
       <c r="B29">
@@ -2698,7 +2788,7 @@
       <c r="E29">
         <v>2646.05</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="23">
         <v>20170811</v>
       </c>
       <c r="G29">
@@ -2720,7 +2810,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="15">
+      <c r="A30" s="23">
         <v>20170804</v>
       </c>
       <c r="B30">
@@ -2735,7 +2825,7 @@
       <c r="E30">
         <v>2600.05</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="23">
         <v>20170811</v>
       </c>
       <c r="G30">
@@ -2757,7 +2847,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="15">
+      <c r="A31" s="23">
         <v>20170810</v>
       </c>
       <c r="B31">
@@ -2772,7 +2862,7 @@
       <c r="E31">
         <v>2549.05</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="23">
         <v>20170811</v>
       </c>
       <c r="G31">
@@ -2797,7 +2887,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="15">
+      <c r="A32" s="23">
         <v>20171121</v>
       </c>
       <c r="B32">
@@ -2812,7 +2902,7 @@
       <c r="E32">
         <v>3089.06</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="23">
         <v>20180118</v>
       </c>
       <c r="G32">
@@ -2834,7 +2924,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="15">
+      <c r="A33" s="23">
         <v>20180115</v>
       </c>
       <c r="B33">
@@ -2849,7 +2939,7 @@
       <c r="E33">
         <v>3197.06</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="23">
         <v>20180115</v>
       </c>
       <c r="G33">
@@ -2871,7 +2961,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15">
+      <c r="A34" s="23">
         <v>20180117</v>
       </c>
       <c r="B34">
@@ -2886,7 +2976,7 @@
       <c r="E34">
         <v>3240.06</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="23">
         <v>20180117</v>
       </c>
       <c r="G34">
@@ -2908,7 +2998,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15">
+      <c r="A35" s="23">
         <v>20180314</v>
       </c>
       <c r="B35">
@@ -2923,7 +3013,7 @@
       <c r="E35">
         <v>6069.12</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="23">
         <v>20180319</v>
       </c>
       <c r="G35">
@@ -2945,7 +3035,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="15">
+      <c r="A36" s="23">
         <v>20180316</v>
       </c>
       <c r="B36">
@@ -2960,7 +3050,7 @@
       <c r="E36">
         <v>6085.12</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="23">
         <v>20180316</v>
       </c>
       <c r="G36">
@@ -2982,7 +3072,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="15">
+      <c r="A37" s="23">
         <v>20180326</v>
       </c>
       <c r="B37">
@@ -2997,7 +3087,7 @@
       <c r="E37">
         <v>5975.12</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="23">
         <v>20180410</v>
       </c>
       <c r="G37">
@@ -3019,7 +3109,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="15">
+      <c r="A38" s="23">
         <v>20180329</v>
       </c>
       <c r="B38">
@@ -3034,7 +3124,7 @@
       <c r="E38">
         <v>5733.11</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="23">
         <v>20180329</v>
       </c>
       <c r="G38">
@@ -3056,7 +3146,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="15">
+      <c r="A39" s="23">
         <v>20180416</v>
       </c>
       <c r="B39">
@@ -3071,7 +3161,7 @@
       <c r="E39">
         <v>5825.12</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="23">
         <v>20180511</v>
       </c>
       <c r="G39">
@@ -3093,7 +3183,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="15">
+      <c r="A40" s="23">
         <v>20180502</v>
       </c>
       <c r="B40">
@@ -3108,7 +3198,7 @@
       <c r="E40">
         <v>5907</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="23">
         <v>20180502</v>
       </c>
       <c r="G40">
@@ -3130,7 +3220,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="15">
+      <c r="A41" s="23">
         <v>20180508</v>
       </c>
       <c r="B41">
@@ -3145,7 +3235,7 @@
       <c r="E41">
         <v>5935.12</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="23">
         <v>20180508</v>
       </c>
       <c r="G41">
@@ -3167,7 +3257,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="15">
+      <c r="A42" s="23">
         <v>20180524</v>
       </c>
       <c r="B42">
@@ -3182,7 +3272,7 @@
       <c r="E42">
         <v>5825.12</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="23">
         <v>20180604</v>
       </c>
       <c r="G42">
@@ -3204,7 +3294,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="15">
+      <c r="A43" s="23">
         <v>20180529</v>
       </c>
       <c r="B43">
@@ -3219,7 +3309,7 @@
       <c r="E43">
         <v>5693.11</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="23">
         <v>20180529</v>
       </c>
       <c r="G43">
@@ -3241,7 +3331,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="15">
+      <c r="A44" s="23">
         <v>20180606</v>
       </c>
       <c r="B44">
@@ -3256,7 +3346,7 @@
       <c r="E44">
         <v>5775.12</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="23">
         <v>20180607</v>
       </c>
       <c r="G44">
@@ -3278,7 +3368,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="15">
+      <c r="A45" s="23">
         <v>20180607</v>
       </c>
       <c r="B45">
@@ -3293,7 +3383,7 @@
       <c r="E45">
         <v>8662</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="23">
         <v>20180615</v>
       </c>
       <c r="G45">
@@ -3315,7 +3405,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="15">
+      <c r="A46" s="23">
         <v>20180608</v>
       </c>
       <c r="B46">
@@ -3330,7 +3420,7 @@
       <c r="E46">
         <v>5693.11</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="23">
         <v>20180619</v>
       </c>
       <c r="G46">
@@ -3352,7 +3442,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="15">
+      <c r="A47" s="23">
         <v>20180620</v>
       </c>
       <c r="B47">
@@ -3367,7 +3457,7 @@
       <c r="E47">
         <v>5711.11</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="23">
         <v>20180622</v>
       </c>
       <c r="G47">
@@ -3389,7 +3479,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="15">
+      <c r="A48" s="23">
         <v>20180621</v>
       </c>
       <c r="B48">
@@ -3404,7 +3494,7 @@
       <c r="E48">
         <v>5727.11</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="23">
         <v>20180621</v>
       </c>
       <c r="G48">
@@ -3426,7 +3516,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="15">
+      <c r="A49" s="23">
         <v>20180625</v>
       </c>
       <c r="B49">
@@ -3441,7 +3531,7 @@
       <c r="E49">
         <v>5551.11</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="23">
         <v>20180720</v>
       </c>
       <c r="G49">
@@ -3463,7 +3553,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="15">
+      <c r="A50" s="23">
         <v>20180625</v>
       </c>
       <c r="B50">
@@ -3478,7 +3568,7 @@
       <c r="E50">
         <v>5677.11</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="23">
         <v>20180720</v>
       </c>
       <c r="G50">
@@ -3498,12 +3588,12 @@
         <f t="shared" si="0"/>
         <v>0.419438763737183</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="15">
+      <c r="A51" s="23">
         <v>20180626</v>
       </c>
       <c r="B51">
@@ -3518,7 +3608,7 @@
       <c r="E51">
         <v>5391.11</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="23">
         <v>20180709</v>
       </c>
       <c r="G51">
@@ -3540,7 +3630,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="15">
+      <c r="A52" s="23">
         <v>20180627</v>
       </c>
       <c r="B52">
@@ -3555,7 +3645,7 @@
       <c r="E52">
         <v>5265.11</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="23">
         <v>20180629</v>
       </c>
       <c r="G52">
@@ -3577,7 +3667,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="15">
+      <c r="A53" s="23">
         <v>20180702</v>
       </c>
       <c r="B53">
@@ -3592,7 +3682,7 @@
       <c r="E53">
         <v>5099.11</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="23">
         <v>20180706</v>
       </c>
       <c r="G53">
@@ -3614,7 +3704,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="15">
+      <c r="A54" s="23">
         <v>20180710</v>
       </c>
       <c r="B54">
@@ -3629,7 +3719,7 @@
       <c r="E54">
         <v>5335.11</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="23">
         <v>20180709</v>
       </c>
       <c r="G54">
@@ -3686,13 +3776,13 @@
         <f t="shared" ref="K55" si="6">J55/E55</f>
         <v>-0.467075419321176</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="15"/>
-      <c r="F56" s="15">
+      <c r="A56" s="23"/>
+      <c r="F56" s="23">
         <v>20180711</v>
       </c>
       <c r="J56">
@@ -3707,7 +3797,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="15">
+      <c r="A57" s="23">
         <v>20180716</v>
       </c>
       <c r="B57">
@@ -3722,7 +3812,7 @@
       <c r="E57">
         <v>5139.1</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="23">
         <v>20180720</v>
       </c>
       <c r="G57">
@@ -3744,7 +3834,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="15">
+      <c r="A58" s="23">
         <v>20180724</v>
       </c>
       <c r="B58">
@@ -3759,7 +3849,7 @@
       <c r="E58">
         <v>5589.11</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="23">
         <v>20180725</v>
       </c>
       <c r="G58">
@@ -3781,7 +3871,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="15">
+      <c r="A59" s="23">
         <v>20180905</v>
       </c>
       <c r="B59">
@@ -3796,7 +3886,7 @@
       <c r="E59">
         <v>5617.11</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="23">
         <v>20180921</v>
       </c>
       <c r="G59">
@@ -3818,7 +3908,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="15">
+      <c r="A60" s="23">
         <v>20180906</v>
       </c>
       <c r="B60">
@@ -3833,7 +3923,7 @@
       <c r="E60">
         <v>5523.11</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="23">
         <v>20180914</v>
       </c>
       <c r="G60">
@@ -3855,7 +3945,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="15">
+      <c r="A61" s="23">
         <v>20180913</v>
       </c>
       <c r="B61">
@@ -3870,7 +3960,7 @@
       <c r="E61">
         <v>5582.12</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="23">
         <v>20180918</v>
       </c>
       <c r="G61">
@@ -3892,7 +3982,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="15">
+      <c r="A62" s="23">
         <v>20180917</v>
       </c>
       <c r="B62">
@@ -3907,7 +3997,7 @@
       <c r="E62">
         <v>5483.11</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="23">
         <v>20180917</v>
       </c>
       <c r="G62">
@@ -3929,7 +4019,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="15">
+      <c r="A63" s="23">
         <v>20180920</v>
       </c>
       <c r="B63">
@@ -3944,7 +4034,7 @@
       <c r="E63">
         <v>5695.11</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="23">
         <v>20180920</v>
       </c>
       <c r="G63">
@@ -3966,7 +4056,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="15">
+      <c r="A64" s="23">
         <v>20181015</v>
       </c>
       <c r="B64">
@@ -3981,7 +4071,7 @@
       <c r="E64">
         <v>5833.12</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="23">
         <v>20181016</v>
       </c>
       <c r="G64">
@@ -4003,7 +4093,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="15">
+      <c r="A65" s="23">
         <v>20181016</v>
       </c>
       <c r="B65">
@@ -4018,7 +4108,7 @@
       <c r="E65">
         <v>5793.12</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="23">
         <v>20181022</v>
       </c>
       <c r="G65">
@@ -4097,7 +4187,7 @@
         <v>166.240000000001</v>
       </c>
       <c r="K67">
-        <f>J67/E67</f>
+        <f t="shared" si="0"/>
         <v>0.0309738388071049</v>
       </c>
     </row>
@@ -4114,7 +4204,7 @@
       <c r="E68">
         <v>17038.96</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="23">
         <v>20191009</v>
       </c>
       <c r="G68">
@@ -4124,7 +4214,7 @@
         <v>17587.93</v>
       </c>
       <c r="J68">
-        <f>I68-E68</f>
+        <f t="shared" si="3"/>
         <v>548.970000000001</v>
       </c>
       <c r="K68">
@@ -4132,29 +4222,77 @@
         <v>0.0322185156840559</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69"/>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>20200709</v>
+      </c>
+      <c r="B69">
+        <v>600</v>
+      </c>
+      <c r="C69">
+        <v>39.95</v>
+      </c>
+      <c r="E69">
+        <v>23939.32</v>
+      </c>
       <c r="J69">
-        <f>I69-E69</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-23939.32</v>
+      </c>
+      <c r="K69">
+        <f>J69/E69</f>
+        <v>-1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:12">
       <c r="A70"/>
+      <c r="B70">
+        <v>600</v>
+      </c>
+      <c r="F70">
+        <v>20200709</v>
+      </c>
+      <c r="I70">
+        <v>720</v>
+      </c>
       <c r="J70">
-        <f>I70-E70</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>720</v>
+      </c>
+      <c r="K70" t="e">
+        <f>J70/E70</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L70" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:11">
       <c r="A71"/>
       <c r="J71">
-        <f>I71-E71</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="K71" t="e">
+        <f>J71/E71</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:11">
       <c r="A72"/>
+      <c r="K72" t="e">
+        <f>J72/E72</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" t="e">
+        <f>J73/E73</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4212,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -4226,7 +4364,7 @@
         <v>4.42</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I2">
         <v>878.12</v>
@@ -4312,7 +4450,7 @@
         <v>41.86</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I2">
         <v>4176.73</v>
@@ -4349,7 +4487,7 @@
         <v>42.03</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I3">
         <v>4193.72</v>
@@ -4386,7 +4524,7 @@
         <v>42.35</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I4">
         <v>4225.68</v>
@@ -4423,7 +4561,7 @@
         <v>40.78</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I5">
         <v>4068.84</v>
@@ -4460,7 +4598,7 @@
         <v>41.19</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I6">
         <v>4109.8</v>
@@ -4497,7 +4635,7 @@
         <v>35.86</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I7">
         <v>3577.34</v>
@@ -4534,7 +4672,7 @@
         <v>35.23</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I8">
         <v>3514.41</v>
@@ -4571,7 +4709,7 @@
         <v>38.85</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I9">
         <v>3876.03</v>
@@ -4608,7 +4746,7 @@
         <v>34.26</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I10">
         <v>3417.5</v>
@@ -4645,7 +4783,7 @@
         <v>27.93</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I11">
         <v>2785.15</v>
@@ -4682,7 +4820,7 @@
         <v>36.54</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I12">
         <v>3645.28</v>
@@ -4696,37 +4834,37 @@
         <v>0.012276906586098</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:11">
-      <c r="A13" s="5">
+    <row r="13" s="13" customFormat="1" spans="1:11">
+      <c r="A13" s="14">
         <v>20180613</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="14">
         <v>100</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="14">
         <v>33.91</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="14">
         <v>5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="14">
         <v>3396.07</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="14">
         <v>20190308</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="14">
         <v>27.38</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
         <v>2730.21</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="14">
         <f t="shared" si="0"/>
         <v>-665.86</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="14">
         <f t="shared" si="1"/>
         <v>-0.196067807789592</v>
       </c>
@@ -4754,7 +4892,7 @@
         <v>25.7</v>
       </c>
       <c r="H14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I14">
         <v>2562.38</v>
@@ -4791,7 +4929,7 @@
         <v>29.36</v>
       </c>
       <c r="H15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I15">
         <v>2931</v>
@@ -4828,7 +4966,7 @@
         <v>28.23</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16">
         <v>2815.12</v>
@@ -5002,7 +5140,6 @@
       <c r="C2">
         <v>6.74</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>10118.29</v>
       </c>
@@ -5012,22 +5149,21 @@
       <c r="G2">
         <v>6.65</v>
       </c>
-      <c r="H2"/>
-      <c r="I2" s="3">
+      <c r="I2" s="12">
         <v>19913.69</v>
       </c>
-      <c r="J2" s="3">
-        <f>I2-E2</f>
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J7" si="0">I2-E2</f>
         <v>9795.4</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="12">
         <f>J2/E2</f>
         <v>0.968088481354062</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="3"/>
+      <c r="L2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
@@ -5052,11 +5188,11 @@
         <v>9762.2</v>
       </c>
       <c r="J3">
-        <f>I3-E3</f>
+        <f t="shared" si="0"/>
         <v>109.290000000001</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K16" si="0">J3/E3</f>
+        <f t="shared" ref="K3:K16" si="1">J3/E3</f>
         <v>0.0113219744097895</v>
       </c>
     </row>
@@ -5083,11 +5219,11 @@
         <v>9747.22</v>
       </c>
       <c r="J4">
-        <f>I4-E4</f>
+        <f t="shared" si="0"/>
         <v>64.2899999999991</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.00663951923642937</v>
       </c>
     </row>
@@ -5110,21 +5246,21 @@
       <c r="G5">
         <v>6.65</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="12">
         <v>0</v>
       </c>
-      <c r="J5" s="3">
-        <f>I5-E5</f>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
         <v>-9697.94</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
+      <c r="K5" s="12">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="3"/>
+      <c r="L5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -5149,11 +5285,11 @@
         <v>19404.62</v>
       </c>
       <c r="J6">
-        <f>I6-E6</f>
+        <f t="shared" si="0"/>
         <v>-441.630000000001</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.022252566605782</v>
       </c>
     </row>
@@ -5180,11 +5316,11 @@
         <v>9567.55</v>
       </c>
       <c r="J7">
-        <f>I7-E7</f>
+        <f t="shared" si="0"/>
         <v>380.029999999999</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0413637194803384</v>
       </c>
     </row>
@@ -5211,87 +5347,87 @@
         <v>7876.64</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J15" si="1">I8-E8</f>
+        <f t="shared" ref="J8:J15" si="2">I8-E8</f>
         <v>343.47</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.0455943513819548</v>
       </c>
     </row>
     <row r="9" spans="10:11">
       <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="10:11">
       <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="10:11">
       <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="10:11">
       <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="10:11">
       <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="10:11">
       <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="10:11">
       <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5307,7 +5443,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K2"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5363,7 +5499,6 @@
       <c r="C2">
         <v>25.47</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>10196.15</v>
       </c>
@@ -5373,7 +5508,6 @@
       <c r="G2">
         <v>26.65</v>
       </c>
-      <c r="H2"/>
       <c r="I2">
         <v>10640.81</v>
       </c>
@@ -5385,8 +5519,8 @@
         <f>J2/E2</f>
         <v>0.0436105785026701</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="10:11">
       <c r="J3">
@@ -5673,15 +5807,18 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="11" max="11" width="13.75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5719,7 +5856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>20190926</v>
       </c>
@@ -5729,9 +5866,98 @@
       <c r="C2">
         <v>48.54</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>9715.77</v>
+      </c>
+      <c r="F2">
+        <v>20191014</v>
+      </c>
+      <c r="G2">
+        <v>49.15</v>
+      </c>
+      <c r="I2">
+        <v>9810</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>94.2299999999996</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.00969866515983803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20191015</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>48.49</v>
+      </c>
+      <c r="E3">
+        <v>9705.76</v>
+      </c>
+      <c r="F3">
+        <v>20191220</v>
+      </c>
+      <c r="G3">
+        <v>46.16</v>
+      </c>
+      <c r="I3">
+        <v>9217.76</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
+        <v>-488</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>-0.0502794217042251</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="e">
+        <f>J4/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f>J5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
+        <f>J6/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="10:10">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="10:10">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5743,17 +5969,19 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="5" max="6" width="9.375"/>
     <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5791,56 +6019,359 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="A2" s="11">
         <v>20190930</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>129.62</v>
       </c>
-      <c r="D2"/>
-      <c r="E2">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11">
         <v>12972.37</v>
       </c>
+      <c r="F2" s="11">
+        <v>20191015</v>
+      </c>
+      <c r="G2" s="11">
+        <v>132.68</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11">
+        <v>13244.12</v>
+      </c>
+      <c r="J2" s="11">
+        <f>I2-E2</f>
+        <v>271.75</v>
+      </c>
+      <c r="K2" s="11">
+        <f>J2/E2</f>
+        <v>0.0209483694960905</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+    <row r="3" spans="1:11">
+      <c r="A3" s="11">
         <v>20191008</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>132.68</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11">
         <v>13278.61</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>20191008</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>134.48</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11">
         <v>13423.79</v>
       </c>
+      <c r="J3" s="11">
+        <f>I3-E3</f>
+        <v>145.18</v>
+      </c>
+      <c r="K3" s="11">
+        <f>J3/E3</f>
+        <v>0.0109333732973557</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:11">
+      <c r="A4" s="11">
         <v>20191009</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>100</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>131.58</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11">
         <v>13168.53</v>
+      </c>
+      <c r="F4" s="11">
+        <v>20191031</v>
+      </c>
+      <c r="G4" s="11">
+        <v>134.52</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11">
+        <v>13427.79</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J22" si="0">I4-E4</f>
+        <v>259.26</v>
+      </c>
+      <c r="K4" s="11">
+        <f t="shared" ref="K4:K27" si="1">J4/E4</f>
+        <v>0.0196878467072635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="11">
+        <v>20191016</v>
+      </c>
+      <c r="B5" s="11">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11">
+        <v>129.65</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>12975.37</v>
+      </c>
+      <c r="F5" s="11">
+        <v>20191029</v>
+      </c>
+      <c r="G5" s="11">
+        <v>131.89</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <v>13165.26</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>189.889999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="1"/>
+        <v>0.0146346501101702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11">
+        <v>20191031</v>
+      </c>
+      <c r="B6" s="11">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11">
+        <v>133.51</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11">
+        <v>13361.68</v>
+      </c>
+      <c r="F6" s="11">
+        <v>20191113</v>
+      </c>
+      <c r="G6" s="11">
+        <v>133.13</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
+        <v>13294.52</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>-67.1599999999999</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>-0.00502631405631626</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -5852,121 +6383,1430 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>181</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10">
+        <v>20191018</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>89.8</v>
+      </c>
+      <c r="E2">
+        <v>17974.73</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-17974.73</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="10">
+        <v>20191112</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>88.35</v>
+      </c>
+      <c r="E3">
+        <v>17676.86</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="0">I3-E3</f>
+        <v>-17676.86</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="1">J3/E3</f>
+        <v>-1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10">
+        <v>20200106</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>86.19</v>
+      </c>
+      <c r="E4">
+        <v>17244.7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-17244.7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="10">
+        <v>20200108</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>85.56</v>
+      </c>
+      <c r="E5">
+        <v>17118.65</v>
+      </c>
+      <c r="F5">
+        <v>20200113</v>
+      </c>
+      <c r="G5">
+        <v>86.29</v>
+      </c>
+      <c r="I5">
+        <v>17234.03</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>115.379999999997</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.00674001746633043</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10">
+        <v>20200109</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>84.83</v>
+      </c>
+      <c r="E6">
+        <v>16972.6</v>
+      </c>
+      <c r="F6">
+        <v>20200113</v>
+      </c>
+      <c r="G6">
+        <v>85.6</v>
+      </c>
+      <c r="I6">
+        <v>17096.23</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>123.630000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.00728409318548726</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20200116</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>86.33</v>
+      </c>
+      <c r="E7">
+        <v>34545.42</v>
+      </c>
+      <c r="F7">
+        <v>20200117</v>
+      </c>
+      <c r="G7">
+        <v>86.85</v>
+      </c>
+      <c r="I7">
+        <v>34691.76</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>146.340000000004</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.00423616213089908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>20200302</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>78.35</v>
+      </c>
+      <c r="E8">
+        <v>39190.22</v>
+      </c>
+      <c r="F8">
+        <v>20200305</v>
+      </c>
+      <c r="G8">
+        <v>81.5</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>40693.41</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1503.19</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.0383562531672443</v>
+      </c>
+      <c r="L8" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20200309</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>78.9</v>
+      </c>
+      <c r="E9">
+        <v>39465.34</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-39465.34</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>20200424</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>70.38</v>
+      </c>
+      <c r="E10">
+        <v>35203.67</v>
+      </c>
+      <c r="F10">
+        <v>20200424</v>
+      </c>
+      <c r="G10">
+        <v>71.02</v>
+      </c>
+      <c r="I10">
+        <v>35460.69</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>257.020000000004</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.00730094333914629</v>
+      </c>
+      <c r="L10" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11">
+        <v>1100</v>
+      </c>
+      <c r="F11">
+        <v>20200507</v>
+      </c>
+      <c r="I11">
+        <v>1430</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1430</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>20200612</v>
+      </c>
+      <c r="B12">
+        <v>500</v>
+      </c>
+      <c r="C12">
+        <v>73.2</v>
+      </c>
+      <c r="E12">
+        <v>36614.22</v>
+      </c>
+      <c r="F12">
+        <v>20200605</v>
+      </c>
+      <c r="G12">
+        <v>74.83</v>
+      </c>
+      <c r="I12">
+        <v>37363.05</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>748.830000000002</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.0204518900033922</v>
+      </c>
+      <c r="L12" t="s">
         <v>186</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>20200629</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13">
+        <v>71.54</v>
+      </c>
+      <c r="E13">
+        <v>35783.91</v>
+      </c>
+      <c r="F13">
+        <v>20200701</v>
+      </c>
+      <c r="G13">
+        <v>72.98</v>
+      </c>
+      <c r="I13">
+        <v>36439.33</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>655.419999999998</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.0183160532205675</v>
+      </c>
+      <c r="L13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>20200703</v>
+      </c>
+      <c r="B14">
+        <v>1100</v>
+      </c>
+      <c r="C14">
+        <v>76.2</v>
+      </c>
+      <c r="E14">
+        <v>83852.58</v>
+      </c>
+      <c r="F14">
+        <v>20200707</v>
+      </c>
+      <c r="G14">
+        <v>83.94</v>
+      </c>
+      <c r="I14">
+        <v>92205.78</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>8353.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.0996176861821067</v>
+      </c>
+      <c r="L14" t="s">
         <v>187</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>20200709</v>
+      </c>
+      <c r="B15">
+        <v>1100</v>
+      </c>
+      <c r="C15">
+        <v>86.01</v>
+      </c>
+      <c r="E15">
+        <v>94647.77</v>
+      </c>
+      <c r="F15">
+        <v>20200716</v>
+      </c>
+      <c r="G15">
+        <v>79.6</v>
+      </c>
+      <c r="I15">
+        <v>87438.4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>-7209.37000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-0.0761705215030424</v>
+      </c>
+      <c r="L15" t="s">
         <v>188</v>
       </c>
-      <c r="I1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="M1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N1">
-        <v>12010</v>
-      </c>
-      <c r="O1" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>20170907</v>
-      </c>
-      <c r="B2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
+    <row r="16" spans="11:11">
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20170907</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3">
-        <v>590</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
+    <row r="17" spans="11:11">
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>20180913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
+    <row r="18" spans="11:11">
+      <c r="K18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
-      <c r="G21" t="s">
-        <v>197</v>
+    <row r="19" spans="11:11">
+      <c r="K19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <mergeCells count="1">
+    <mergeCell ref="L2:M6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="8">
+        <v>20200218</v>
+      </c>
+      <c r="B2" s="9">
+        <v>3300</v>
+      </c>
+      <c r="C2" s="9">
+        <v>15.11</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>49882.38</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9">
+        <f>I2-E2</f>
+        <v>-49882.38</v>
+      </c>
+      <c r="K2" s="9">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>20200422</v>
+      </c>
+      <c r="B3">
+        <v>900</v>
+      </c>
+      <c r="C3">
+        <v>13.2</v>
+      </c>
+      <c r="E3">
+        <v>11885</v>
+      </c>
+      <c r="F3">
+        <v>20200422</v>
+      </c>
+      <c r="G3">
+        <v>13.36</v>
+      </c>
+      <c r="I3">
+        <v>13341.45</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="0">I3-E3</f>
+        <v>1456.45</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="1">J3/E3</f>
+        <v>0.122545225073622</v>
+      </c>
+      <c r="L3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>20200527</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>697.6</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>697.6</v>
+      </c>
+      <c r="K4" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9">
+        <v>20200629</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="9">
+        <v>12.96</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
+        <v>12965.04</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9">
+        <f t="shared" si="0"/>
+        <v>-12965.04</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20200703</v>
+      </c>
+      <c r="B6">
+        <v>2500</v>
+      </c>
+      <c r="C6">
+        <v>13.59</v>
+      </c>
+      <c r="E6">
+        <v>33988.21</v>
+      </c>
+      <c r="F6">
+        <v>20200703</v>
+      </c>
+      <c r="G6">
+        <v>13.93</v>
+      </c>
+      <c r="I6">
+        <v>34776.63</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>788.419999999998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0231968673843076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>4200</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>20200707</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15.93</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>66813.08</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>66813.08</v>
+      </c>
+      <c r="K7" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="8" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20191122</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>33.55</v>
+      </c>
+      <c r="E2">
+        <v>13425.27</v>
+      </c>
+      <c r="F2">
+        <v>20200102</v>
+      </c>
+      <c r="G2">
+        <v>35.138</v>
+      </c>
+      <c r="I2">
+        <v>14035.49</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>610.219999999999</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0454530895840456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20191226</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>34.68</v>
+      </c>
+      <c r="E3">
+        <v>13877.39</v>
+      </c>
+      <c r="F3">
+        <v>20191226</v>
+      </c>
+      <c r="G3">
+        <v>35.9</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>14340.06</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="0">I3-E3</f>
+        <v>462.67</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K14" si="1">J3/E3</f>
+        <v>0.0333398427225869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200108</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>34.46</v>
+      </c>
+      <c r="E4">
+        <v>13789.36</v>
+      </c>
+      <c r="F4">
+        <v>20200114</v>
+      </c>
+      <c r="G4">
+        <v>35.32</v>
+      </c>
+      <c r="I4">
+        <v>14108.38</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>319.019999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.0231352289011237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7">
+        <v>20200116</v>
+      </c>
+      <c r="B5" s="7">
+        <v>700</v>
+      </c>
+      <c r="C5" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>24159.38</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>-24159.38</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7">
+        <v>20200117</v>
+      </c>
+      <c r="B6" s="7">
+        <v>800</v>
+      </c>
+      <c r="C6" s="7">
+        <v>33.91</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>27138.54</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>-27138.54</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>20200120</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>34.14</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>34153.27</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>-34153.27</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>20200330</v>
+      </c>
+      <c r="B8">
+        <v>1200</v>
+      </c>
+      <c r="C8">
+        <v>26.22</v>
+      </c>
+      <c r="E8">
+        <v>31476.23</v>
+      </c>
+      <c r="F8">
+        <v>20200326</v>
+      </c>
+      <c r="G8">
+        <v>26.99</v>
+      </c>
+      <c r="I8">
+        <v>32343.02</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>866.790000000001</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.0275379230613069</v>
+      </c>
+      <c r="L8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20200422</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9">
+        <v>28.05</v>
+      </c>
+      <c r="E9">
+        <v>33673.08</v>
+      </c>
+      <c r="F9">
+        <v>20200422</v>
+      </c>
+      <c r="G9">
+        <v>27.73</v>
+      </c>
+      <c r="I9">
+        <v>33229.79</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-443.290000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-0.0131645219267142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20200604</v>
+      </c>
+      <c r="B10">
+        <v>600</v>
+      </c>
+      <c r="C10">
+        <v>27.817</v>
+      </c>
+      <c r="E10">
+        <v>16696.48</v>
+      </c>
+      <c r="F10">
+        <v>20200605</v>
+      </c>
+      <c r="G10">
+        <v>27.53</v>
+      </c>
+      <c r="I10">
+        <v>16495.06</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-201.419999999998</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-0.0120636205954787</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>20200624</v>
+      </c>
+      <c r="B11">
+        <v>1100</v>
+      </c>
+      <c r="C11">
+        <v>28.17</v>
+      </c>
+      <c r="E11">
+        <v>30999.04</v>
+      </c>
+      <c r="F11">
+        <v>20200629</v>
+      </c>
+      <c r="G11">
+        <v>28.04</v>
+      </c>
+      <c r="I11">
+        <v>30801.17</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-197.870000000003</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-0.00638310089602783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>20200702</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>29.69</v>
+      </c>
+      <c r="E12">
+        <v>32671.7</v>
+      </c>
+      <c r="F12">
+        <v>20200703</v>
+      </c>
+      <c r="G12">
+        <v>32.43</v>
+      </c>
+      <c r="I12">
+        <v>35623.47</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>2951.77</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.0903463854038817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7">
+        <v>1200</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>20200707</v>
+      </c>
+      <c r="G13" s="7">
+        <v>38.205</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>45782.33</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>45782.33</v>
+      </c>
+      <c r="K13" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <v>1300</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <v>20200707</v>
+      </c>
+      <c r="G14" s="7">
+        <v>36.85</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>47838.47</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14:J22" si="2">I14-E14</f>
+        <v>47838.47</v>
+      </c>
+      <c r="K14" s="7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L13:P14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>20200115</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>28.42</v>
+      </c>
+      <c r="E2">
+        <v>11373</v>
+      </c>
+      <c r="F2">
+        <v>20200707</v>
+      </c>
+      <c r="G2">
+        <v>30.94</v>
+      </c>
+      <c r="I2">
+        <v>12358.62</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>985.620000000001</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0866631495647587</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6026,7 +7866,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>20171012</v>
       </c>
       <c r="B2">
@@ -6041,14 +7881,14 @@
       <c r="E2">
         <v>7221.77</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="17">
         <v>20171016</v>
       </c>
       <c r="G2">
         <v>18.42</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>7354.74</v>
@@ -6063,7 +7903,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="8">
+      <c r="A3" s="17">
         <v>20171016</v>
       </c>
       <c r="B3">
@@ -6078,14 +7918,14 @@
       <c r="E3">
         <v>7305.84</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="17">
         <v>20171018</v>
       </c>
       <c r="G3">
         <v>18.47</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I3">
         <v>7374.7</v>
@@ -6100,7 +7940,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="8">
+      <c r="A4" s="17">
         <v>20171018</v>
       </c>
       <c r="B4">
@@ -6115,14 +7955,14 @@
       <c r="E4">
         <v>7393.91</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="17">
         <v>20171019</v>
       </c>
       <c r="G4">
         <v>18.73</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <v>7478.51</v>
@@ -6137,7 +7977,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8">
+      <c r="A5" s="17">
         <v>20171020</v>
       </c>
       <c r="B5">
@@ -6152,14 +7992,14 @@
       <c r="E5">
         <v>7393.91</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="17">
         <v>20171023</v>
       </c>
       <c r="G5">
         <v>18.65</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <v>7446.57</v>
@@ -6174,7 +8014,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8">
+      <c r="A6" s="17">
         <v>20171023</v>
       </c>
       <c r="B6">
@@ -6189,14 +8029,14 @@
       <c r="E6">
         <v>7329.86</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="17">
         <v>20171025</v>
       </c>
       <c r="G6">
         <v>18.49</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>7382.68</v>
@@ -6211,7 +8051,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="8">
+      <c r="A7" s="17">
         <v>20171026</v>
       </c>
       <c r="B7">
@@ -6226,14 +8066,14 @@
       <c r="E7">
         <v>7586.06</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="17">
         <v>20171031</v>
       </c>
       <c r="G7">
         <v>19.27</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7">
         <v>7694.12</v>
@@ -6270,7 +8110,7 @@
         <v>18.91</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8">
         <v>1884.11</v>
@@ -6285,7 +8125,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8">
+      <c r="A9" s="17">
         <v>20171107</v>
       </c>
       <c r="B9">
@@ -6300,14 +8140,14 @@
       <c r="E9">
         <v>2041</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="17">
         <v>20171107</v>
       </c>
       <c r="G9">
         <v>20.78</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9">
         <v>2070.92</v>
@@ -6337,14 +8177,14 @@
       <c r="E10">
         <v>3913</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="17">
         <v>20180802</v>
       </c>
       <c r="G10">
         <v>17.3</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I10">
         <v>3451.54</v>
@@ -6358,119 +8198,119 @@
         <v>-0.117929976999744</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:13">
-      <c r="A11" s="13">
+    <row r="11" s="13" customFormat="1" spans="1:13">
+      <c r="A11" s="21">
         <v>20180829</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="14">
         <v>200</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>17.39</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="14">
         <v>5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="14">
         <v>3483</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="15">
         <v>20190211</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="14">
         <v>16.59</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
         <v>6624</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="15">
         <f t="shared" ref="J11:J16" si="2">I11-E11</f>
         <v>3141</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="15">
         <f t="shared" ref="K11:K19" si="3">J11/E11</f>
         <v>0.901808785529716</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" s="5"/>
+      <c r="L11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6">
+      <c r="A12" s="15">
         <v>20181130</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="15">
         <v>200</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="15">
         <v>15.88</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
         <v>3181</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="15">
         <v>20181130</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="15">
         <v>16.24</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
         <v>3239.75</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="15">
         <f t="shared" si="2"/>
         <v>58.75</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="15">
         <f t="shared" si="3"/>
         <v>0.0184690348946872</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6">
+      <c r="A13" s="15">
         <v>20181214</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="15">
         <v>200</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="15">
         <v>16</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
         <v>3205</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="15">
         <v>20190211</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="14">
         <v>16.59</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="15"/>
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="15">
         <f t="shared" si="2"/>
         <v>-3205</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="15">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="6"/>
+      <c r="L13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -6498,15 +8338,15 @@
         <f t="shared" si="2"/>
         <v>216.34</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="12">
         <f t="shared" si="3"/>
         <v>0.0169277211190418</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="L14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="6:12">
       <c r="F15">
@@ -6524,7 +8364,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="11:11">
@@ -6543,6 +8383,1015 @@
       <c r="K19" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200330</v>
+      </c>
+      <c r="B2">
+        <v>2300</v>
+      </c>
+      <c r="C2">
+        <v>3.73</v>
+      </c>
+      <c r="E2">
+        <v>8584</v>
+      </c>
+      <c r="F2">
+        <v>20200403</v>
+      </c>
+      <c r="G2">
+        <v>3.86</v>
+      </c>
+      <c r="I2">
+        <v>8864.12</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>280.120000000001</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0326328052190122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200407</v>
+      </c>
+      <c r="B3">
+        <v>2500</v>
+      </c>
+      <c r="C3">
+        <v>3.93</v>
+      </c>
+      <c r="E3">
+        <v>9830</v>
+      </c>
+      <c r="F3">
+        <v>20200609</v>
+      </c>
+      <c r="G3">
+        <v>4.64</v>
+      </c>
+      <c r="I3">
+        <v>11583.4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="0">I3-E3</f>
+        <v>1753.4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="1">J3/E3</f>
+        <v>0.178372329603255</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="11:11">
+      <c r="K12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="11:11">
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="11:11">
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="11:11">
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200608</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>79.78</v>
+      </c>
+      <c r="E2">
+        <v>31924.41</v>
+      </c>
+      <c r="F2">
+        <v>20200611</v>
+      </c>
+      <c r="G2">
+        <v>81.2</v>
+      </c>
+      <c r="I2">
+        <v>32434.89</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>510.48</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0159902720206889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200702</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>25.65</v>
+      </c>
+      <c r="E2">
+        <v>10265</v>
+      </c>
+      <c r="F2">
+        <v>20200703</v>
+      </c>
+      <c r="G2">
+        <v>25.46</v>
+      </c>
+      <c r="I2">
+        <v>10168.82</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-96.1800000000003</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-0.00936970287384318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5">
+        <v>20200706</v>
+      </c>
+      <c r="B2" s="5">
+        <v>200</v>
+      </c>
+      <c r="C2" s="5">
+        <v>95.03</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>19013.39</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>I2-E2</f>
+        <v>-19013.39</v>
+      </c>
+      <c r="K2" s="5">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5">
+        <v>20200714</v>
+      </c>
+      <c r="B3" s="5">
+        <v>200</v>
+      </c>
+      <c r="C3" s="5">
+        <v>130</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>26010.11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20200715</v>
+      </c>
+      <c r="G3" s="5">
+        <v>133.08</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>53158.08</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3-E3</f>
+        <v>27147.97</v>
+      </c>
+      <c r="K3" s="5">
+        <f>J3/E3</f>
+        <v>1.04374683536517</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" t="e">
+        <f>J4/E4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <f>I5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f>J5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200706</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>41.58</v>
+      </c>
+      <c r="E2">
+        <v>24957.7</v>
+      </c>
+      <c r="F2">
+        <v>20200715</v>
+      </c>
+      <c r="G2">
+        <v>45.57</v>
+      </c>
+      <c r="I2">
+        <v>27304.03</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>2346.33</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0940122687587397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="5" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200706</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+      <c r="C2">
+        <v>23.69</v>
+      </c>
+      <c r="E2">
+        <v>21329.29</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-21329.29</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>20200717</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>24.24</v>
+      </c>
+      <c r="E3">
+        <v>24249.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>20200225</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>1.325</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-800</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>20200302</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>1.149</v>
+      </c>
+      <c r="E3">
+        <v>809.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>-809.3</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>-1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>20200326</v>
+      </c>
+      <c r="B4">
+        <v>1300</v>
+      </c>
+      <c r="C4">
+        <v>0.96</v>
+      </c>
+      <c r="E4">
+        <v>1253</v>
+      </c>
+      <c r="F4">
+        <v>20200717</v>
+      </c>
+      <c r="G4">
+        <v>1.272</v>
+      </c>
+      <c r="I4">
+        <v>3302.2</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>2049.2</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>1.63543495610535</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="11:15">
+      <c r="K5" t="e">
+        <f>J5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:N4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1">
+        <v>12010</v>
+      </c>
+      <c r="O1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20170907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20170907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3">
+        <v>590</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20180913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7">
+      <c r="G21" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6557,8 +9406,8 @@
   <sheetPr/>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6607,7 +9456,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6633,7 +9482,7 @@
         <v>14.27</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>5697.29</v>
@@ -6670,7 +9519,7 @@
         <v>14.05</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I3">
         <v>4205.78</v>
@@ -6707,7 +9556,7 @@
         <v>14.89</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I4">
         <v>4157.83</v>
@@ -6758,7 +9607,7 @@
         <v>-1</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6784,7 +9633,7 @@
         <v>13.95</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>1388.6</v>
@@ -6798,7 +9647,7 @@
         <v>-0.533557272421901</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6824,7 +9673,7 @@
         <v>14.84</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <v>5925.06</v>
@@ -6858,10 +9707,10 @@
         <v>20180110</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>2537.45</v>
@@ -6875,7 +9724,7 @@
         <v>-0.096027787673673</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6901,7 +9750,7 @@
         <v>13.49</v>
       </c>
       <c r="H9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9">
         <v>4037.95</v>
@@ -6915,7 +9764,7 @@
         <v>0.595397076254445</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6941,7 +9790,7 @@
         <v>12.74</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10">
         <v>5085.9</v>
@@ -6978,7 +9827,7 @@
         <v>12.57</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11">
         <v>5017.97</v>
@@ -7015,7 +9864,7 @@
         <v>12.84</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>5125.86</v>
@@ -7052,7 +9901,7 @@
         <v>13.96</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <v>1389.6</v>
@@ -7089,7 +9938,7 @@
         <v>16.15</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14">
         <v>3221.77</v>
@@ -7126,7 +9975,7 @@
         <v>16.05</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15">
         <v>3201.79</v>
@@ -7163,7 +10012,7 @@
         <v>14.08</v>
       </c>
       <c r="H16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16">
         <v>2808.18</v>
@@ -7177,32 +10026,32 @@
         <v>-0.408928646600716</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="2:12">
-      <c r="B17" s="4">
+    <row r="17" s="13" customFormat="1" spans="2:12">
+      <c r="B17" s="13">
         <v>0</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="4" t="e">
+      <c r="K17" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>104</v>
+      <c r="L17" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7228,7 +10077,7 @@
         <v>13.94</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18">
         <v>2780.21</v>
@@ -7265,7 +10114,7 @@
         <v>13.83</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19">
         <v>2758.23</v>
@@ -7291,45 +10140,45 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" spans="1:13">
-      <c r="A21" s="10">
+    <row r="21" s="13" customFormat="1" spans="1:13">
+      <c r="A21" s="19">
         <v>20180727</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="19">
         <v>200</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="19">
         <v>13.48</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="19">
         <v>5</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="19">
         <v>2701</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11">
+      <c r="F21" s="19"/>
+      <c r="G21" s="20">
         <v>12.75</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19">
         <v>0</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="20">
         <f t="shared" si="0"/>
         <v>-2701</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="10"/>
+      <c r="L21" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
@@ -7354,7 +10203,7 @@
         <v>12.92</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22">
         <v>3867.12</v>
@@ -7391,7 +10240,7 @@
         <v>12.37</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I23">
         <v>4938.05</v>
@@ -7428,7 +10277,7 @@
         <v>12.5</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24">
         <v>7486.5</v>
@@ -7465,7 +10314,7 @@
         <v>12.53</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25">
         <v>7504.47</v>
@@ -7502,7 +10351,7 @@
         <v>13.43</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I26">
         <v>4019.97</v>
@@ -7516,27 +10365,27 @@
         <v>0.0169415633695927</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" spans="1:11">
-      <c r="A27" s="4">
+    <row r="27" s="13" customFormat="1" spans="1:11">
+      <c r="A27" s="13">
         <v>20181008</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="13">
         <v>300</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="13">
         <v>13.05</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="13">
         <v>3920</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="13">
         <f t="shared" si="0"/>
         <v>-3920</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="13">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -7564,7 +10413,7 @@
         <v>12.24</v>
       </c>
       <c r="H28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I28">
         <v>6108.88</v>
@@ -7601,7 +10450,7 @@
         <v>12.59</v>
       </c>
       <c r="H29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I29">
         <v>7540.41</v>
@@ -7638,7 +10487,7 @@
         <v>12.28</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30">
         <v>6128.86</v>
@@ -7653,41 +10502,41 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="10">
+      <c r="A31" s="19">
         <v>20181022</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="19">
         <v>600</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="19">
         <v>12.45</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="19">
         <v>5</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="19">
         <v>7475.98</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="20">
         <v>20190304</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="20">
         <v>12.75</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20">
         <v>10181.64</v>
       </c>
-      <c r="J31" s="11">
-        <f>I31-E31</f>
+      <c r="J31" s="20">
+        <f t="shared" si="0"/>
         <v>2705.66</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="20">
         <f t="shared" si="1"/>
         <v>0.361913755788539</v>
       </c>
-      <c r="L31" s="12" t="s">
-        <v>107</v>
+      <c r="L31" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8054,19 +10903,19 @@
       <c r="G42">
         <v>12.26</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="12">
         <v>22028.28</v>
       </c>
-      <c r="J42" s="3">
-        <f t="shared" ref="J42:J48" si="5">I42-E42</f>
+      <c r="J42" s="12">
+        <f t="shared" ref="J42:J52" si="5">I42-E42</f>
         <v>9858.55</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="12">
         <f t="shared" ref="K42:K47" si="6">J42/E42</f>
         <v>0.810087816245718</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -8092,19 +10941,19 @@
       <c r="G43">
         <v>12.26</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="12">
         <v>0</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="12">
         <f t="shared" si="5"/>
         <v>-9799.83</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="12">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -8161,7 +11010,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -8234,7 +11083,7 @@
         <v>108</v>
       </c>
       <c r="J48">
-        <f>I48-E48</f>
+        <f t="shared" si="5"/>
         <v>108</v>
       </c>
       <c r="K48" t="e">
@@ -8242,7 +11091,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -8268,7 +11117,7 @@
         <v>9666.57</v>
       </c>
       <c r="J49">
-        <f>I49-E49</f>
+        <f t="shared" si="5"/>
         <v>533.57</v>
       </c>
       <c r="K49">
@@ -8276,29 +11125,62 @@
         <v>0.0584222051899704</v>
       </c>
     </row>
-    <row r="50" spans="10:11">
+    <row r="50" spans="6:12">
+      <c r="F50">
+        <v>20191129</v>
+      </c>
+      <c r="G50">
+        <v>9.8</v>
+      </c>
+      <c r="I50">
+        <v>975.02</v>
+      </c>
       <c r="J50">
-        <f>I50-E50</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>975.02</v>
       </c>
       <c r="K50" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L50" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="51" spans="10:11">
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>20200114</v>
+      </c>
+      <c r="B51">
+        <v>1000</v>
+      </c>
+      <c r="C51">
+        <v>10.71</v>
+      </c>
+      <c r="E51">
+        <v>10715</v>
+      </c>
+      <c r="F51">
+        <v>20200330</v>
+      </c>
+      <c r="G51">
+        <v>8.85</v>
+      </c>
+      <c r="I51">
+        <v>8836.15</v>
+      </c>
       <c r="J51">
-        <f>I51-E51</f>
-        <v>0</v>
-      </c>
-      <c r="K51" t="e">
+        <f t="shared" si="5"/>
+        <v>-1878.85</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.175347643490434</v>
       </c>
     </row>
     <row r="52" spans="10:11">
       <c r="J52">
-        <f>I52-E52</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" t="e">
@@ -8381,11 +11263,11 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7">
+      <c r="A2" s="16">
         <v>20171017</v>
       </c>
       <c r="B2">
@@ -8400,14 +11282,14 @@
       <c r="E2">
         <v>9687.94</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="17">
         <v>20171027</v>
       </c>
       <c r="G2">
         <v>4.93</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I2">
         <v>9842.05</v>
@@ -8425,7 +11307,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9">
+      <c r="A3" s="18">
         <v>20171027</v>
       </c>
       <c r="B3">
@@ -8447,7 +11329,7 @@
         <v>4.99</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3">
         <v>4979.91</v>
@@ -8462,7 +11344,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7">
+      <c r="A4" s="16">
         <v>20171030</v>
       </c>
       <c r="B4">
@@ -8477,14 +11359,14 @@
       <c r="E4">
         <v>4885.1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="17">
         <v>20171030</v>
       </c>
       <c r="G4">
         <v>4.96</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I4">
         <v>4949.94</v>
@@ -8521,7 +11403,7 @@
         <v>5.12</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I5">
         <v>5109.78</v>
@@ -8536,7 +11418,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9">
+      <c r="A6" s="18">
         <v>20171110</v>
       </c>
       <c r="B6">
@@ -8558,7 +11440,7 @@
         <v>5.11</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I6">
         <v>5099</v>
@@ -8595,7 +11477,7 @@
         <v>5.16</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7">
         <v>5149.74</v>
@@ -8609,39 +11491,39 @@
         <v>0.00679178885630494</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:11">
-      <c r="A8" s="4">
+    <row r="8" s="13" customFormat="1" spans="1:11">
+      <c r="A8" s="13">
         <v>20180326</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="13">
         <v>1000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="13">
         <v>4.62</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="13">
         <v>4625</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="13">
         <v>20180507</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="13">
         <v>4.59</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="13">
         <v>4580.32</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>-44.6800000000003</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="13">
         <f t="shared" si="1"/>
         <v>-0.0096605405405406</v>
       </c>
@@ -8728,7 +11610,7 @@
         <v>62.17</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I2">
         <v>6205.78</v>
@@ -8738,7 +11620,7 @@
         <v>-421.52</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K27" si="1">J2/E2</f>
+        <f t="shared" ref="K2:K31" si="1">J2/E2</f>
         <v>-0.0636035791347909</v>
       </c>
     </row>
@@ -8765,7 +11647,7 @@
         <v>61.24</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I3">
         <v>6112.88</v>
@@ -8802,7 +11684,7 @@
         <v>63.46</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I4">
         <v>6334.57</v>
@@ -8816,7 +11698,7 @@
         <v>0.0473826058201058</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:12">
+    <row r="5" s="13" customFormat="1" spans="1:12">
       <c r="A5">
         <v>20180125</v>
       </c>
@@ -8839,7 +11721,7 @@
         <v>38.25</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I5">
         <v>3816.17</v>
@@ -8852,11 +11734,11 @@
         <f t="shared" si="1"/>
         <v>-0.38209682642487</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>129</v>
+      <c r="L5" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:11">
+    <row r="6" s="13" customFormat="1" spans="1:11">
       <c r="A6">
         <v>20180202</v>
       </c>
@@ -8879,7 +11761,7 @@
         <v>61.45</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I6">
         <v>6133.85</v>
@@ -8916,7 +11798,7 @@
         <v>57.02</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I7">
         <v>5691.3</v>
@@ -8953,7 +11835,7 @@
         <v>61.2</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8">
         <v>6108.88</v>
@@ -8990,7 +11872,7 @@
         <v>62.06</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I9">
         <v>6194.79</v>
@@ -9027,7 +11909,7 @@
         <v>63.46</v>
       </c>
       <c r="H10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I10">
         <v>6334.57</v>
@@ -9064,7 +11946,7 @@
         <v>58.86</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I11">
         <v>5875.11</v>
@@ -9101,7 +11983,7 @@
         <v>58.05</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I12">
         <v>5794.19</v>
@@ -9138,7 +12020,7 @@
         <v>57.21</v>
       </c>
       <c r="H13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I13">
         <v>5710.28</v>
@@ -9175,7 +12057,7 @@
         <v>38.49</v>
       </c>
       <c r="H14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I14">
         <v>7684.14</v>
@@ -9189,7 +12071,7 @@
         <v>0.351651715039578</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9216,7 +12098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9242,7 +12124,7 @@
         <v>30.92</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I16">
         <v>3083.91</v>
@@ -9279,7 +12161,7 @@
         <v>31.18</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I17">
         <v>3109.88</v>
@@ -9316,7 +12198,7 @@
         <v>31.64</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I18">
         <v>3155.84</v>
@@ -9353,7 +12235,7 @@
         <v>31.87</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I19">
         <v>3178.81</v>
@@ -9390,7 +12272,7 @@
         <v>32.41</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I20">
         <v>3232.76</v>
@@ -9427,7 +12309,7 @@
         <v>31.71</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I21">
         <v>6330.59</v>
@@ -9441,7 +12323,7 @@
         <v>1.00271749446378</v>
       </c>
       <c r="L21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -9501,7 +12383,7 @@
         <v>29.92</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I23">
         <v>2984.01</v>
@@ -9538,7 +12420,7 @@
         <v>28.73</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I24">
         <v>2865.13</v>
@@ -9575,7 +12457,7 @@
         <v>31.41</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I25">
         <v>3132.86</v>
@@ -9589,161 +12471,161 @@
         <v>0.0155137763371151</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" spans="1:13">
-      <c r="A26" s="5">
+    <row r="26" s="13" customFormat="1" spans="1:13">
+      <c r="A26" s="14">
         <v>20180910</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="14">
         <v>100</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="14">
         <v>30.23</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="14">
         <v>5</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="14">
         <v>3028</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="14">
         <v>20190107</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="14">
         <v>29.23</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
         <v>8753.21</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="14">
         <f t="shared" si="2"/>
         <v>5725.21</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="14">
         <f t="shared" si="1"/>
         <v>1.89075627476882</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M26" s="5"/>
+      <c r="L26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6">
+      <c r="A27" s="15">
         <v>20180917</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="15">
         <v>100</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="15">
         <v>29.07</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="15">
         <v>5</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="15">
         <v>2912</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="15">
         <v>20180917</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="15">
         <v>29.56</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="H27" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" s="15">
         <v>2946.04</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="15">
         <f t="shared" si="2"/>
         <v>34.04</v>
       </c>
-      <c r="K27" s="5">
-        <f>J27/E27</f>
+      <c r="K27" s="14">
+        <f t="shared" si="1"/>
         <v>0.0116895604395604</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="5">
+      <c r="A28" s="14">
         <v>20180926</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="14">
         <v>100</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="14">
         <v>29.04</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="14">
         <v>5</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="14">
         <v>2909</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="14">
         <v>20190107</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="14">
         <v>29.23</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14">
         <v>0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="14">
         <f t="shared" si="2"/>
         <v>-2909</v>
       </c>
-      <c r="K28" s="5">
-        <f>J28/E28</f>
+      <c r="K28" s="14">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M28" s="6"/>
+      <c r="L28" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M28" s="15"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="5">
+      <c r="A29" s="14">
         <v>20180928</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="14">
         <v>100</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="14">
         <v>28.49</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="14">
         <v>5</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="14">
         <v>2854</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="14">
         <v>20190107</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="14">
         <v>29.23</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5">
+      <c r="H29" s="14"/>
+      <c r="I29" s="14">
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="14">
         <f t="shared" si="2"/>
         <v>-2854</v>
       </c>
-      <c r="K29" s="5">
-        <f>J29/E29</f>
+      <c r="K29" s="14">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M29" s="6"/>
+      <c r="L29" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -9768,7 +12650,7 @@
         <v>21.95</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I30">
         <v>4380.61</v>
@@ -9777,8 +12659,8 @@
         <f t="shared" si="2"/>
         <v>37.6099999999997</v>
       </c>
-      <c r="K30" s="4">
-        <f>J30/E30</f>
+      <c r="K30" s="13">
+        <f t="shared" si="1"/>
         <v>0.00865991250287812</v>
       </c>
     </row>
@@ -9808,8 +12690,8 @@
         <f t="shared" ref="J31:J44" si="3">I31-E31</f>
         <v>-52.2599999999993</v>
       </c>
-      <c r="K31" s="4">
-        <f>J31/E31</f>
+      <c r="K31" s="13">
+        <f t="shared" si="1"/>
         <v>-0.00702991953123099</v>
       </c>
     </row>
@@ -9972,7 +12854,7 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I2">
         <v>5589.29</v>
@@ -10009,7 +12891,7 @@
         <v>56.76</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I3">
         <v>5665.21</v>
@@ -10046,7 +12928,7 @@
         <v>59.42</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>5930.94</v>
@@ -10127,7 +13009,7 @@
         <v>10.76</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E2">
         <v>2157.04</v>
@@ -10139,7 +13021,7 @@
         <v>11.75</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I2">
         <v>2342.6</v>
@@ -10206,7 +13088,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10232,7 +13114,7 @@
         <v>9.11</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I2">
         <v>1815.18</v>
@@ -10269,7 +13151,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I3">
         <v>1993</v>
@@ -10306,7 +13188,7 @@
         <v>8.13</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I4">
         <v>3243.75</v>
@@ -10320,17 +13202,17 @@
         <v>0.0473845657087504</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="6:12">
-      <c r="F5" s="4">
+    <row r="5" s="13" customFormat="1" spans="6:12">
+      <c r="F5" s="13">
         <v>20180426</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="13">
         <v>13.26</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="13">
         <v>1319.67</v>
       </c>
       <c r="J5">
@@ -10341,8 +13223,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>162</v>
+      <c r="L5" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -10368,7 +13250,7 @@
         <v>8.56</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I6">
         <v>2560.43</v>
@@ -10382,7 +13264,7 @@
         <v>0.0225359424920127</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:16384">
+    <row r="7" s="13" customFormat="1" spans="1:16384">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -26790,7 +29672,7 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:16384">
+    <row r="8" s="13" customFormat="1" spans="1:16384">
       <c r="A8">
         <v>20180907</v>
       </c>
@@ -43217,7 +46099,6 @@
       <c r="G9">
         <v>7.9</v>
       </c>
-      <c r="H9"/>
       <c r="I9">
         <v>3151.84</v>
       </c>
@@ -43480,7 +46361,7 @@
         <v>10.33</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I2">
         <v>4122.87</v>
@@ -43498,7 +46379,7 @@
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="6:12">
@@ -43509,7 +46390,7 @@
         <v>7.47</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I4">
         <v>2233.76</v>
@@ -43519,7 +46400,7 @@
         <v>2233.76</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -43545,7 +46426,7 @@
         <v>7.24</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I5">
         <v>4334.66</v>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="736" firstSheet="12" activeTab="15"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="736" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -27,20 +27,24 @@
     <sheet name="人寿" sheetId="18" r:id="rId18"/>
     <sheet name="宁波银行" sheetId="19" r:id="rId19"/>
     <sheet name="京东方" sheetId="22" r:id="rId20"/>
-    <sheet name="药明康德" sheetId="23" r:id="rId21"/>
-    <sheet name="华东医药" sheetId="24" r:id="rId22"/>
-    <sheet name="智飞生物" sheetId="25" r:id="rId23"/>
-    <sheet name="乐普医疗" sheetId="26" r:id="rId24"/>
-    <sheet name="温氏股份" sheetId="27" r:id="rId25"/>
-    <sheet name="芯片基金" sheetId="21" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId27"/>
+    <sheet name="恒瑞医药" sheetId="29" r:id="rId21"/>
+    <sheet name="药明康德" sheetId="23" r:id="rId22"/>
+    <sheet name="华东医药" sheetId="24" r:id="rId23"/>
+    <sheet name="智飞生物" sheetId="25" r:id="rId24"/>
+    <sheet name="乐普医疗" sheetId="26" r:id="rId25"/>
+    <sheet name="温氏股份" sheetId="27" r:id="rId26"/>
+    <sheet name="立讯精密" sheetId="28" r:id="rId27"/>
+    <sheet name="亿联网络" sheetId="30" r:id="rId28"/>
+    <sheet name="芯片基金" sheetId="21" r:id="rId29"/>
+    <sheet name="上证50" sheetId="31" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="214">
   <si>
     <t>买入时间</t>
   </si>
@@ -628,6 +632,9 @@
     <t>涨幅有30%,因此追加仓位</t>
   </si>
   <si>
+    <t>卖出1200股清空</t>
+  </si>
+  <si>
     <t>疫情原因,一直跌,一直买
 清仓</t>
   </si>
@@ -680,7 +687,7 @@
     <t>证券转入2万</t>
   </si>
   <si>
-    <t>该记录到20191009.即那天已经结束</t>
+    <t>该记录到20200828.即那天已经结束</t>
   </si>
 </sst>
 </file>
@@ -688,11 +695,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -739,7 +746,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,22 +799,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,32 +821,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,23 +845,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,20 +870,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,7 +920,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,19 +986,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,13 +1040,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,79 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,25 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,6 +1093,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1107,38 +1144,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,25 +1180,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,10 +1199,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1204,7 +1211,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,10 +1220,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,116 +1232,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1344,7 +1351,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1716,24 +1722,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.25" style="22" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="21" customWidth="1"/>
     <col min="5" max="5" width="9.375"/>
-    <col min="6" max="6" width="10.5" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="22" customWidth="1"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1748,7 +1755,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1768,7 +1775,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="24">
+      <c r="A2" s="23">
         <v>20170626</v>
       </c>
       <c r="B2">
@@ -1783,7 +1790,7 @@
       <c r="E2">
         <v>2373.05</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>20170711</v>
       </c>
       <c r="G2">
@@ -1805,7 +1812,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="24">
+      <c r="A3" s="23">
         <v>20170627</v>
       </c>
       <c r="B3">
@@ -1820,7 +1827,7 @@
       <c r="E3">
         <v>2299.05</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>20170627</v>
       </c>
       <c r="G3">
@@ -1845,7 +1852,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>20170628</v>
       </c>
       <c r="B4">
@@ -1860,7 +1867,7 @@
       <c r="E4">
         <v>2417.05</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>20170629</v>
       </c>
       <c r="G4">
@@ -1882,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>20170629</v>
       </c>
       <c r="B5">
@@ -1897,7 +1904,7 @@
       <c r="E5">
         <v>2396.05</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>20170629</v>
       </c>
       <c r="G5">
@@ -1919,7 +1926,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>20170630</v>
       </c>
       <c r="B6">
@@ -1934,7 +1941,7 @@
       <c r="E6">
         <v>2386.05</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>20170630</v>
       </c>
       <c r="G6">
@@ -1956,7 +1963,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>20170703</v>
       </c>
       <c r="B7">
@@ -1971,7 +1978,7 @@
       <c r="E7">
         <v>2356.05</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>20170705</v>
       </c>
       <c r="G7">
@@ -1993,7 +2000,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24">
+      <c r="A8" s="23">
         <v>20170706</v>
       </c>
       <c r="B8">
@@ -2008,7 +2015,7 @@
       <c r="E8">
         <v>2346.05</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>20170706</v>
       </c>
       <c r="G8">
@@ -2030,7 +2037,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>20170707</v>
       </c>
       <c r="B9">
@@ -2045,7 +2052,7 @@
       <c r="E9">
         <v>2381.05</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>20170711</v>
       </c>
       <c r="G9">
@@ -2067,7 +2074,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24">
+      <c r="A10" s="23">
         <v>20170707</v>
       </c>
       <c r="B10">
@@ -2082,7 +2089,7 @@
       <c r="E10">
         <v>2356.05</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>20170711</v>
       </c>
       <c r="G10">
@@ -2104,7 +2111,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>20170710</v>
       </c>
       <c r="B11">
@@ -2119,7 +2126,7 @@
       <c r="E11">
         <v>6992.73</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>20170711</v>
       </c>
       <c r="G11">
@@ -2141,7 +2148,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24">
+      <c r="A12" s="23">
         <v>20170711</v>
       </c>
       <c r="B12">
@@ -2156,7 +2163,7 @@
       <c r="E12">
         <v>2377.05</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>20170717</v>
       </c>
       <c r="G12">
@@ -2178,7 +2185,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>20170711</v>
       </c>
       <c r="B13">
@@ -2193,7 +2200,7 @@
       <c r="E13">
         <v>4817.1</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>20170712</v>
       </c>
       <c r="G13">
@@ -2215,7 +2222,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>20170712</v>
       </c>
       <c r="B14">
@@ -2230,7 +2237,7 @@
       <c r="E14">
         <v>2429.05</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>20170713</v>
       </c>
       <c r="G14">
@@ -2252,7 +2259,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24">
+      <c r="A15" s="23">
         <v>20170713</v>
       </c>
       <c r="B15">
@@ -2267,7 +2274,7 @@
       <c r="E15">
         <v>2427.05</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>20170713</v>
       </c>
       <c r="G15">
@@ -2289,7 +2296,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24">
+      <c r="A16" s="23">
         <v>20170714</v>
       </c>
       <c r="B16">
@@ -2304,7 +2311,7 @@
       <c r="E16">
         <v>2513.05</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>20170714</v>
       </c>
       <c r="G16">
@@ -2326,7 +2333,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>20170717</v>
       </c>
       <c r="B17">
@@ -2341,7 +2348,7 @@
       <c r="E17">
         <v>5009.1</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>20170719</v>
       </c>
       <c r="G17">
@@ -2363,7 +2370,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24">
+      <c r="A18" s="23">
         <v>20170718</v>
       </c>
       <c r="B18">
@@ -2378,7 +2385,7 @@
       <c r="E18">
         <v>2430.05</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>20170719</v>
       </c>
       <c r="G18">
@@ -2400,7 +2407,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24">
+      <c r="A19" s="23">
         <v>20170720</v>
       </c>
       <c r="B19">
@@ -2415,7 +2422,7 @@
       <c r="E19">
         <v>5029.1</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>20170724</v>
       </c>
       <c r="G19">
@@ -2437,7 +2444,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>20170720</v>
       </c>
       <c r="B20">
@@ -2452,7 +2459,7 @@
       <c r="E20">
         <v>2495.05</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>20170727</v>
       </c>
       <c r="G20">
@@ -2474,7 +2481,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24">
+      <c r="A21" s="23">
         <v>20170721</v>
       </c>
       <c r="B21">
@@ -2489,7 +2496,7 @@
       <c r="E21">
         <v>2476.05</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>20170727</v>
       </c>
       <c r="G21">
@@ -2511,7 +2518,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24">
+      <c r="A22" s="23">
         <v>20170724</v>
       </c>
       <c r="B22">
@@ -2526,7 +2533,7 @@
       <c r="E22">
         <v>4983.1</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>20170724</v>
       </c>
       <c r="G22">
@@ -2548,7 +2555,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>20170725</v>
       </c>
       <c r="B23">
@@ -2563,7 +2570,7 @@
       <c r="E23">
         <v>5165.1</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>20170802</v>
       </c>
       <c r="G23">
@@ -2585,7 +2592,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>20170725</v>
       </c>
       <c r="B24">
@@ -2600,7 +2607,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>20170803</v>
       </c>
       <c r="G24">
@@ -2625,7 +2632,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>20170726</v>
       </c>
       <c r="B25">
@@ -2640,7 +2647,7 @@
       <c r="E25">
         <v>5113.1</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>20170726</v>
       </c>
       <c r="G25">
@@ -2662,7 +2669,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="23">
+      <c r="A26" s="22">
         <v>20170731</v>
       </c>
       <c r="B26">
@@ -2677,7 +2684,7 @@
       <c r="E26">
         <v>5097.1</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>20170731</v>
       </c>
       <c r="G26">
@@ -2699,7 +2706,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>20170801</v>
       </c>
       <c r="B27">
@@ -2714,7 +2721,7 @@
       <c r="E27">
         <v>2545.05</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>20170801</v>
       </c>
       <c r="G27">
@@ -2736,7 +2743,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>20170801</v>
       </c>
       <c r="B28">
@@ -2751,7 +2758,7 @@
       <c r="E28">
         <v>2583.05</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="22">
         <v>20170801</v>
       </c>
       <c r="G28">
@@ -2773,7 +2780,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="23">
+      <c r="A29" s="22">
         <v>20170803</v>
       </c>
       <c r="B29">
@@ -2788,7 +2795,7 @@
       <c r="E29">
         <v>2646.05</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <v>20170811</v>
       </c>
       <c r="G29">
@@ -2810,7 +2817,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>20170804</v>
       </c>
       <c r="B30">
@@ -2825,7 +2832,7 @@
       <c r="E30">
         <v>2600.05</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="22">
         <v>20170811</v>
       </c>
       <c r="G30">
@@ -2847,7 +2854,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>20170810</v>
       </c>
       <c r="B31">
@@ -2862,7 +2869,7 @@
       <c r="E31">
         <v>2549.05</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="22">
         <v>20170811</v>
       </c>
       <c r="G31">
@@ -2887,7 +2894,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>20171121</v>
       </c>
       <c r="B32">
@@ -2902,7 +2909,7 @@
       <c r="E32">
         <v>3089.06</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="22">
         <v>20180118</v>
       </c>
       <c r="G32">
@@ -2924,7 +2931,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="23">
+      <c r="A33" s="22">
         <v>20180115</v>
       </c>
       <c r="B33">
@@ -2939,7 +2946,7 @@
       <c r="E33">
         <v>3197.06</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>20180115</v>
       </c>
       <c r="G33">
@@ -2961,7 +2968,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>20180117</v>
       </c>
       <c r="B34">
@@ -2976,7 +2983,7 @@
       <c r="E34">
         <v>3240.06</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="22">
         <v>20180117</v>
       </c>
       <c r="G34">
@@ -2998,7 +3005,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>20180314</v>
       </c>
       <c r="B35">
@@ -3013,7 +3020,7 @@
       <c r="E35">
         <v>6069.12</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="22">
         <v>20180319</v>
       </c>
       <c r="G35">
@@ -3035,7 +3042,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>20180316</v>
       </c>
       <c r="B36">
@@ -3050,7 +3057,7 @@
       <c r="E36">
         <v>6085.12</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="22">
         <v>20180316</v>
       </c>
       <c r="G36">
@@ -3072,7 +3079,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="23">
+      <c r="A37" s="22">
         <v>20180326</v>
       </c>
       <c r="B37">
@@ -3087,7 +3094,7 @@
       <c r="E37">
         <v>5975.12</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="22">
         <v>20180410</v>
       </c>
       <c r="G37">
@@ -3109,7 +3116,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>20180329</v>
       </c>
       <c r="B38">
@@ -3124,7 +3131,7 @@
       <c r="E38">
         <v>5733.11</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <v>20180329</v>
       </c>
       <c r="G38">
@@ -3146,7 +3153,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>20180416</v>
       </c>
       <c r="B39">
@@ -3161,7 +3168,7 @@
       <c r="E39">
         <v>5825.12</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <v>20180511</v>
       </c>
       <c r="G39">
@@ -3183,7 +3190,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="23">
+      <c r="A40" s="22">
         <v>20180502</v>
       </c>
       <c r="B40">
@@ -3198,7 +3205,7 @@
       <c r="E40">
         <v>5907</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="22">
         <v>20180502</v>
       </c>
       <c r="G40">
@@ -3220,7 +3227,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="23">
+      <c r="A41" s="22">
         <v>20180508</v>
       </c>
       <c r="B41">
@@ -3235,7 +3242,7 @@
       <c r="E41">
         <v>5935.12</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="22">
         <v>20180508</v>
       </c>
       <c r="G41">
@@ -3257,7 +3264,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="23">
+      <c r="A42" s="22">
         <v>20180524</v>
       </c>
       <c r="B42">
@@ -3272,7 +3279,7 @@
       <c r="E42">
         <v>5825.12</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="22">
         <v>20180604</v>
       </c>
       <c r="G42">
@@ -3294,7 +3301,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="23">
+      <c r="A43" s="22">
         <v>20180529</v>
       </c>
       <c r="B43">
@@ -3309,7 +3316,7 @@
       <c r="E43">
         <v>5693.11</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="22">
         <v>20180529</v>
       </c>
       <c r="G43">
@@ -3331,7 +3338,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="23">
+      <c r="A44" s="22">
         <v>20180606</v>
       </c>
       <c r="B44">
@@ -3346,7 +3353,7 @@
       <c r="E44">
         <v>5775.12</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="22">
         <v>20180607</v>
       </c>
       <c r="G44">
@@ -3368,7 +3375,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>20180607</v>
       </c>
       <c r="B45">
@@ -3383,7 +3390,7 @@
       <c r="E45">
         <v>8662</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="22">
         <v>20180615</v>
       </c>
       <c r="G45">
@@ -3405,7 +3412,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="23">
+      <c r="A46" s="22">
         <v>20180608</v>
       </c>
       <c r="B46">
@@ -3420,7 +3427,7 @@
       <c r="E46">
         <v>5693.11</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="22">
         <v>20180619</v>
       </c>
       <c r="G46">
@@ -3442,7 +3449,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>20180620</v>
       </c>
       <c r="B47">
@@ -3457,7 +3464,7 @@
       <c r="E47">
         <v>5711.11</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="22">
         <v>20180622</v>
       </c>
       <c r="G47">
@@ -3479,7 +3486,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="23">
+      <c r="A48" s="22">
         <v>20180621</v>
       </c>
       <c r="B48">
@@ -3494,7 +3501,7 @@
       <c r="E48">
         <v>5727.11</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="22">
         <v>20180621</v>
       </c>
       <c r="G48">
@@ -3516,7 +3523,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="23">
+      <c r="A49" s="22">
         <v>20180625</v>
       </c>
       <c r="B49">
@@ -3531,7 +3538,7 @@
       <c r="E49">
         <v>5551.11</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="22">
         <v>20180720</v>
       </c>
       <c r="G49">
@@ -3553,7 +3560,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="23">
+      <c r="A50" s="22">
         <v>20180625</v>
       </c>
       <c r="B50">
@@ -3568,7 +3575,7 @@
       <c r="E50">
         <v>5677.11</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="22">
         <v>20180720</v>
       </c>
       <c r="G50">
@@ -3588,12 +3595,12 @@
         <f t="shared" si="0"/>
         <v>0.419438763737183</v>
       </c>
-      <c r="L50" s="13" t="s">
+      <c r="L50" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="23">
+      <c r="A51" s="22">
         <v>20180626</v>
       </c>
       <c r="B51">
@@ -3608,7 +3615,7 @@
       <c r="E51">
         <v>5391.11</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="22">
         <v>20180709</v>
       </c>
       <c r="G51">
@@ -3630,7 +3637,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="23">
+      <c r="A52" s="22">
         <v>20180627</v>
       </c>
       <c r="B52">
@@ -3645,7 +3652,7 @@
       <c r="E52">
         <v>5265.11</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>20180629</v>
       </c>
       <c r="G52">
@@ -3667,7 +3674,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="23">
+      <c r="A53" s="22">
         <v>20180702</v>
       </c>
       <c r="B53">
@@ -3682,7 +3689,7 @@
       <c r="E53">
         <v>5099.11</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>20180706</v>
       </c>
       <c r="G53">
@@ -3704,7 +3711,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="23">
+      <c r="A54" s="22">
         <v>20180710</v>
       </c>
       <c r="B54">
@@ -3719,7 +3726,7 @@
       <c r="E54">
         <v>5335.11</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="22">
         <v>20180709</v>
       </c>
       <c r="G54">
@@ -3776,13 +3783,13 @@
         <f t="shared" ref="K55" si="6">J55/E55</f>
         <v>-0.467075419321176</v>
       </c>
-      <c r="L55" s="13" t="s">
+      <c r="L55" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="23"/>
-      <c r="F56" s="23">
+      <c r="A56" s="22"/>
+      <c r="F56" s="22">
         <v>20180711</v>
       </c>
       <c r="J56">
@@ -3797,7 +3804,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="23">
+      <c r="A57" s="22">
         <v>20180716</v>
       </c>
       <c r="B57">
@@ -3812,7 +3819,7 @@
       <c r="E57">
         <v>5139.1</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>20180720</v>
       </c>
       <c r="G57">
@@ -3834,7 +3841,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="23">
+      <c r="A58" s="22">
         <v>20180724</v>
       </c>
       <c r="B58">
@@ -3849,7 +3856,7 @@
       <c r="E58">
         <v>5589.11</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="22">
         <v>20180725</v>
       </c>
       <c r="G58">
@@ -3871,7 +3878,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="23">
+      <c r="A59" s="22">
         <v>20180905</v>
       </c>
       <c r="B59">
@@ -3886,7 +3893,7 @@
       <c r="E59">
         <v>5617.11</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="22">
         <v>20180921</v>
       </c>
       <c r="G59">
@@ -3908,7 +3915,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="23">
+      <c r="A60" s="22">
         <v>20180906</v>
       </c>
       <c r="B60">
@@ -3923,7 +3930,7 @@
       <c r="E60">
         <v>5523.11</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="22">
         <v>20180914</v>
       </c>
       <c r="G60">
@@ -3945,7 +3952,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="23">
+      <c r="A61" s="22">
         <v>20180913</v>
       </c>
       <c r="B61">
@@ -3960,7 +3967,7 @@
       <c r="E61">
         <v>5582.12</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>20180918</v>
       </c>
       <c r="G61">
@@ -3982,7 +3989,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="23">
+      <c r="A62" s="22">
         <v>20180917</v>
       </c>
       <c r="B62">
@@ -3997,7 +4004,7 @@
       <c r="E62">
         <v>5483.11</v>
       </c>
-      <c r="F62" s="23">
+      <c r="F62" s="22">
         <v>20180917</v>
       </c>
       <c r="G62">
@@ -4019,7 +4026,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="23">
+      <c r="A63" s="22">
         <v>20180920</v>
       </c>
       <c r="B63">
@@ -4034,7 +4041,7 @@
       <c r="E63">
         <v>5695.11</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>20180920</v>
       </c>
       <c r="G63">
@@ -4056,7 +4063,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="23">
+      <c r="A64" s="22">
         <v>20181015</v>
       </c>
       <c r="B64">
@@ -4071,7 +4078,7 @@
       <c r="E64">
         <v>5833.12</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>20181016</v>
       </c>
       <c r="G64">
@@ -4093,7 +4100,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="23">
+      <c r="A65" s="22">
         <v>20181016</v>
       </c>
       <c r="B65">
@@ -4108,7 +4115,7 @@
       <c r="E65">
         <v>5793.12</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>20181022</v>
       </c>
       <c r="G65">
@@ -4204,7 +4211,7 @@
       <c r="E68">
         <v>17038.96</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>20191009</v>
       </c>
       <c r="G68">
@@ -4218,7 +4225,7 @@
         <v>548.970000000001</v>
       </c>
       <c r="K68">
-        <f>J68/E68</f>
+        <f t="shared" ref="K68:K73" si="7">J68/E68</f>
         <v>0.0322185156840559</v>
       </c>
     </row>
@@ -4240,7 +4247,7 @@
         <v>-23939.32</v>
       </c>
       <c r="K69">
-        <f>J69/E69</f>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="L69" t="s">
@@ -4263,7 +4270,7 @@
         <v>720</v>
       </c>
       <c r="K70" t="e">
-        <f>J70/E70</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L70" t="s">
@@ -4271,28 +4278,256 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71"/>
+      <c r="A71">
+        <v>20200722</v>
+      </c>
+      <c r="B71">
+        <v>600</v>
+      </c>
+      <c r="C71">
+        <v>36.74</v>
+      </c>
+      <c r="D71">
+        <f>E71-(B71*C71)</f>
+        <v>8.56999999999971</v>
+      </c>
+      <c r="E71">
+        <v>22052.57</v>
+      </c>
       <c r="J71">
         <f t="shared" si="3"/>
+        <v>-22052.57</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>20200731</v>
+      </c>
+      <c r="B72">
+        <v>600</v>
+      </c>
+      <c r="C72">
+        <v>34.72</v>
+      </c>
+      <c r="E72">
+        <v>20840.1</v>
+      </c>
+      <c r="F72" s="22">
+        <v>20200804</v>
+      </c>
+      <c r="G72">
+        <v>35.72</v>
+      </c>
+      <c r="I72">
+        <v>21402.24</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J78" si="8">I72-E72</f>
+        <v>562.140000000003</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="7"/>
+        <v>0.026973958858163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>20200812</v>
+      </c>
+      <c r="B73">
+        <v>600</v>
+      </c>
+      <c r="C73">
+        <v>37.76</v>
+      </c>
+      <c r="E73">
+        <v>22666.81</v>
+      </c>
+      <c r="F73">
+        <v>20200812</v>
+      </c>
+      <c r="G73">
+        <v>38.12</v>
+      </c>
+      <c r="I73">
+        <v>22840.24</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>173.43</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="7"/>
+        <v>0.00765127514634835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>20200812</v>
+      </c>
+      <c r="B74">
+        <v>600</v>
+      </c>
+      <c r="C74">
+        <v>37.31</v>
+      </c>
+      <c r="E74">
+        <v>22394.7</v>
+      </c>
+      <c r="F74">
+        <v>20200812</v>
+      </c>
+      <c r="G74">
+        <v>37.72</v>
+      </c>
+      <c r="I74">
+        <v>22600.58</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>205.880000000001</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74:K84" si="9">J74/E74</f>
+        <v>0.00919324661638696</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>20200825</v>
+      </c>
+      <c r="B75">
+        <v>1200</v>
+      </c>
+      <c r="C75">
+        <v>37.53</v>
+      </c>
+      <c r="E75">
+        <v>45053.5</v>
+      </c>
+      <c r="F75">
+        <v>20200828</v>
+      </c>
+      <c r="G75">
+        <v>37.99</v>
+      </c>
+      <c r="I75">
+        <v>45524.69</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>471.190000000002</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>0.0104584549480063</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="J76">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" t="e">
-        <f>J71/E71</f>
+      <c r="K76" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72"/>
-      <c r="K72" t="e">
-        <f>J72/E72</f>
+    <row r="77" spans="1:11">
+      <c r="A77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K77" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="11:11">
-      <c r="K73" t="e">
-        <f>J73/E73</f>
+    <row r="78" spans="1:11">
+      <c r="A78"/>
+      <c r="F78"/>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K78" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79"/>
+      <c r="F79"/>
+      <c r="K79" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80"/>
+      <c r="F80"/>
+      <c r="K80" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81"/>
+      <c r="F81"/>
+      <c r="K81" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82"/>
+      <c r="F82"/>
+      <c r="K82" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83"/>
+      <c r="F83"/>
+      <c r="K83" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84"/>
+      <c r="F84"/>
+      <c r="K84" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88"/>
+      <c r="F88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4834,37 +5069,37 @@
         <v>0.012276906586098</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:11">
-      <c r="A13" s="14">
+    <row r="13" s="12" customFormat="1" spans="1:11">
+      <c r="A13" s="13">
         <v>20180613</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>100</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>33.91</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>3396.07</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>20190308</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>27.38</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
         <v>2730.21</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>-665.86</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="1"/>
         <v>-0.196067807789592</v>
       </c>
@@ -5149,21 +5384,21 @@
       <c r="G2">
         <v>6.65</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>19913.69</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <f t="shared" ref="J2:J7" si="0">I2-E2</f>
         <v>9795.4</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <f>J2/E2</f>
         <v>0.968088481354062</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
@@ -5246,21 +5481,21 @@
       <c r="G5">
         <v>6.65</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>-9697.94</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="11">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -5519,8 +5754,8 @@
         <f>J2/E2</f>
         <v>0.0436105785026701</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="10:11">
       <c r="J3">
@@ -5971,8 +6206,8 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6020,166 +6255,166 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>20190930</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>100</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>129.62</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>12972.37</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>20191015</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>132.68</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10">
         <v>13244.12</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <f>I2-E2</f>
         <v>271.75</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <f>J2/E2</f>
         <v>0.0209483694960905</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>20191008</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>100</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>132.68</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
         <v>13278.61</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>20191008</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>134.48</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
         <v>13423.79</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f>I3-E3</f>
         <v>145.18</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f>J3/E3</f>
         <v>0.0109333732973557</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>20191009</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>100</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>131.58</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
         <v>13168.53</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>20191031</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>134.52</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>13427.79</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <f t="shared" ref="J4:J22" si="0">I4-E4</f>
         <v>259.26</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <f t="shared" ref="K4:K27" si="1">J4/E4</f>
         <v>0.0196878467072635</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>20191016</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>100</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>129.65</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>12975.37</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>20191029</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>131.89</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10">
         <v>13165.26</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>189.889999999999</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>0.0146346501101702</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>20191031</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>100</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>133.51</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>13361.68</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>20191113</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>133.13</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
         <v>13294.52</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f t="shared" si="0"/>
         <v>-67.1599999999999</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f t="shared" si="1"/>
         <v>-0.00502631405631626</v>
       </c>
@@ -6383,16 +6618,17 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="5" max="6" width="9.375"/>
+    <col min="7" max="7" width="12.625"/>
     <col min="9" max="9" width="9.375"/>
     <col min="10" max="10" width="10.375"/>
     <col min="11" max="11" width="12.625"/>
@@ -6434,7 +6670,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>20191018</v>
       </c>
       <c r="B2">
@@ -6446,8 +6682,6 @@
       <c r="E2">
         <v>17974.73</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
       <c r="J2">
         <f>I2-E2</f>
         <v>-17974.73</v>
@@ -6462,7 +6696,7 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>20191112</v>
       </c>
       <c r="B3">
@@ -6474,8 +6708,6 @@
       <c r="E3">
         <v>17676.86</v>
       </c>
-      <c r="F3"/>
-      <c r="G3"/>
       <c r="J3">
         <f t="shared" ref="J3:J15" si="0">I3-E3</f>
         <v>-17676.86</v>
@@ -6488,7 +6720,7 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>20200106</v>
       </c>
       <c r="B4">
@@ -6512,7 +6744,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>20200108</v>
       </c>
       <c r="B5">
@@ -6539,13 +6771,13 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.00674001746633043</v>
+        <v>0.0067400174663304</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>20200109</v>
       </c>
       <c r="B6">
@@ -6605,7 +6837,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.00423616213089908</v>
+        <v>0.00423616213089909</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6627,7 +6859,6 @@
       <c r="G8">
         <v>81.5</v>
       </c>
-      <c r="H8"/>
       <c r="I8">
         <v>40693.41</v>
       </c>
@@ -6656,8 +6887,6 @@
       <c r="E9">
         <v>39465.34</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
       <c r="J9">
         <f t="shared" si="0"/>
         <v>-39465.34</v>
@@ -6859,34 +7088,150 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="11:11">
-      <c r="K16" t="e">
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>20200731</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16">
+        <v>75.72</v>
+      </c>
+      <c r="E16">
+        <v>45449.66</v>
+      </c>
+      <c r="F16">
+        <v>20200804</v>
+      </c>
+      <c r="G16">
+        <v>76.76</v>
+      </c>
+      <c r="I16">
+        <v>45992.04</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J23" si="2">I16-E16</f>
+        <v>542.379999999997</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" t="e">
+        <v>0.0119336426279096</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>20200812</v>
+      </c>
+      <c r="B17">
+        <v>400</v>
+      </c>
+      <c r="C17">
+        <v>76.8</v>
+      </c>
+      <c r="E17">
+        <v>30731.94</v>
+      </c>
+      <c r="F17">
+        <v>20200812</v>
+      </c>
+      <c r="G17">
+        <v>77.21</v>
+      </c>
+      <c r="I17">
+        <v>30841.11</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>109.170000000002</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" t="e">
+        <v>0.00355233024664248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>20200819</v>
+      </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
+      <c r="C18">
+        <v>78.61</v>
+      </c>
+      <c r="E18">
+        <v>39320.28</v>
+      </c>
+      <c r="F18">
+        <v>20200819</v>
+      </c>
+      <c r="G18">
+        <v>79.56</v>
+      </c>
+      <c r="I18">
+        <v>39724.75</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>404.470000000001</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" t="e">
+        <v>0.0102865493328125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20200828</v>
+      </c>
+      <c r="B19">
+        <v>1100</v>
+      </c>
+      <c r="C19">
+        <v>76.64</v>
+      </c>
+      <c r="E19">
+        <v>84336.77</v>
+      </c>
+      <c r="F19">
+        <v>20200828</v>
+      </c>
+      <c r="G19">
+        <v>77.94</v>
+      </c>
+      <c r="I19">
+        <v>85614.95</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>1278.17999999999</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11">
+        <v>0.0151556669765749</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6952,28 +7297,28 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>20200218</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>3300</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>15.11</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
         <v>49882.38</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
         <f>I2-E2</f>
         <v>-49882.38</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <f>J2/E2</f>
         <v>-1</v>
       </c>
@@ -7013,54 +7358,54 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>20200527</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6">
         <v>697.6</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f t="shared" si="0"/>
         <v>697.6</v>
       </c>
-      <c r="K4" s="7" t="e">
+      <c r="K4" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>20200629</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1000</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>12.96</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
         <v>12965.04</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>-12965.04</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -7097,32 +7442,32 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8">
         <v>4200</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <v>20200707</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>15.93</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>66813.08</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>66813.08</v>
       </c>
-      <c r="K7" s="9" t="e">
+      <c r="K7" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -7314,7 +7659,6 @@
       <c r="G3">
         <v>35.9</v>
       </c>
-      <c r="H3"/>
       <c r="I3">
         <v>14340.06</v>
       </c>
@@ -7359,82 +7703,82 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>20200116</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>700</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>34.5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>24159.38</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
         <f t="shared" si="0"/>
         <v>-24159.38</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>20200117</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>800</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>33.91</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
         <v>27138.54</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
         <v>-27138.54</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>20200120</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1000</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>34.14</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>34153.27</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <f t="shared" si="0"/>
         <v>-34153.27</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -7598,28 +7942,28 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>1200</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>20200707</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>38.205</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>45782.33</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
         <v>45782.33</v>
       </c>
-      <c r="K13" s="7" t="e">
+      <c r="K13" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -7632,28 +7976,28 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>1300</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>20200707</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>36.85</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6">
         <v>47838.47</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f t="shared" ref="J14:J22" si="2">I14-E14</f>
         <v>47838.47</v>
       </c>
-      <c r="K14" s="7" t="e">
+      <c r="K14" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -7866,7 +8210,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>20171012</v>
       </c>
       <c r="B2">
@@ -7881,7 +8225,7 @@
       <c r="E2">
         <v>7221.77</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>20171016</v>
       </c>
       <c r="G2">
@@ -7903,7 +8247,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>20171016</v>
       </c>
       <c r="B3">
@@ -7918,7 +8262,7 @@
       <c r="E3">
         <v>7305.84</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>20171018</v>
       </c>
       <c r="G3">
@@ -7940,7 +8284,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>20171018</v>
       </c>
       <c r="B4">
@@ -7955,7 +8299,7 @@
       <c r="E4">
         <v>7393.91</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>20171019</v>
       </c>
       <c r="G4">
@@ -7977,7 +8321,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>20171020</v>
       </c>
       <c r="B5">
@@ -7992,7 +8336,7 @@
       <c r="E5">
         <v>7393.91</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>20171023</v>
       </c>
       <c r="G5">
@@ -8014,7 +8358,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>20171023</v>
       </c>
       <c r="B6">
@@ -8029,7 +8373,7 @@
       <c r="E6">
         <v>7329.86</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>20171025</v>
       </c>
       <c r="G6">
@@ -8051,7 +8395,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>20171026</v>
       </c>
       <c r="B7">
@@ -8066,7 +8410,7 @@
       <c r="E7">
         <v>7586.06</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>20171031</v>
       </c>
       <c r="G7">
@@ -8125,7 +8469,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>20171107</v>
       </c>
       <c r="B9">
@@ -8140,7 +8484,7 @@
       <c r="E9">
         <v>2041</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>20171107</v>
       </c>
       <c r="G9">
@@ -8177,7 +8521,7 @@
       <c r="E10">
         <v>3913</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>20180802</v>
       </c>
       <c r="G10">
@@ -8201,116 +8545,116 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:13">
-      <c r="A11" s="21">
+    <row r="11" s="12" customFormat="1" spans="1:13">
+      <c r="A11" s="20">
         <v>20180829</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>200</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>17.39</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>3483</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>20190211</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>16.59</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
         <v>6624</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <f t="shared" ref="J11:J16" si="2">I11-E11</f>
         <v>3141</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <f t="shared" ref="K11:K19" si="3">J11/E11</f>
         <v>0.901808785529716</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="14"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>20181130</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>200</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>15.88</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
         <v>3181</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>20181130</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>16.24</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <v>3239.75</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <f t="shared" si="2"/>
         <v>58.75</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>0.0184690348946872</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>20181214</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>200</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>16</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
         <v>3205</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>20190211</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>16.59</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f t="shared" si="2"/>
         <v>-3205</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="15"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -8338,15 +8682,15 @@
         <f t="shared" si="2"/>
         <v>216.34</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>0.0169277211190418</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="6:12">
       <c r="F15">
@@ -8610,17 +8954,20 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K2"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="5" max="6" width="9.375"/>
+    <col min="8" max="8" width="12.625"/>
     <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8660,33 +9007,196 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>20200608</v>
+        <v>20200724</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C2">
-        <v>79.78</v>
+        <v>96.55</v>
       </c>
       <c r="E2">
-        <v>31924.41</v>
-      </c>
-      <c r="F2">
-        <v>20200611</v>
-      </c>
-      <c r="G2">
-        <v>81.2</v>
-      </c>
-      <c r="I2">
-        <v>32434.89</v>
+        <v>19317.5</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>510.48</v>
+        <v>-19317.5</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>0.0159902720206889</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200731</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>94.12</v>
+      </c>
+      <c r="E3">
+        <v>18831.32</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
+        <v>-18831.32</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">J3/E3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200803</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>92.5</v>
+      </c>
+      <c r="E4">
+        <v>18507.19</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-18507.19</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20200804</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>94.25</v>
+      </c>
+      <c r="E5">
+        <v>18857.33</v>
+      </c>
+      <c r="F5">
+        <v>20200804</v>
+      </c>
+      <c r="G5">
+        <v>95.42</v>
+      </c>
+      <c r="I5">
+        <v>19057.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>200.169999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.010614970412036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20200805</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>92.54</v>
+      </c>
+      <c r="E6">
+        <v>18515.19</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-18515.19</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20200812</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>89.8</v>
+      </c>
+      <c r="E7">
+        <v>26950</v>
+      </c>
+      <c r="F7">
+        <v>20200818</v>
+      </c>
+      <c r="G7">
+        <v>92.59</v>
+      </c>
+      <c r="I7">
+        <v>27738.42</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>788.419999999998</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.0292549165120593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20200819</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>93.41</v>
+      </c>
+      <c r="E8">
+        <v>18689.26</v>
+      </c>
+      <c r="F8">
+        <v>20200819</v>
+      </c>
+      <c r="G8">
+        <v>94.36</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>18845.79</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>156.530000000002</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.00837539849089811</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -8707,7 +9217,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="6" max="6" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
     <col min="9" max="9" width="9.375"/>
   </cols>
   <sheetData>
@@ -8748,33 +9258,33 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>20200702</v>
+        <v>20200608</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2">
-        <v>25.65</v>
+        <v>79.78</v>
       </c>
       <c r="E2">
-        <v>10265</v>
+        <v>31924.41</v>
       </c>
       <c r="F2">
-        <v>20200703</v>
+        <v>20200611</v>
       </c>
       <c r="G2">
-        <v>25.46</v>
+        <v>81.2</v>
       </c>
       <c r="I2">
-        <v>10168.82</v>
+        <v>32434.89</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-96.1800000000003</v>
+        <v>510.48</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>-0.00936970287384318</v>
+        <v>0.0159902720206889</v>
       </c>
     </row>
   </sheetData>
@@ -8784,6 +9294,212 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="11" max="11" width="13.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200702</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>25.65</v>
+      </c>
+      <c r="E2">
+        <v>10265</v>
+      </c>
+      <c r="F2">
+        <v>20200703</v>
+      </c>
+      <c r="G2">
+        <v>25.46</v>
+      </c>
+      <c r="I2">
+        <v>10168.82</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-96.1800000000003</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-0.00936970287384319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200727</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>26.53</v>
+      </c>
+      <c r="E3">
+        <v>13270.16</v>
+      </c>
+      <c r="F3">
+        <v>20200729</v>
+      </c>
+      <c r="G3">
+        <v>27.09</v>
+      </c>
+      <c r="I3">
+        <v>13526.19</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="0">I3-E3</f>
+        <v>256.030000000001</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="1">J3/E3</f>
+        <v>0.0192936633770807</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:10">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="10:10">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="10:10">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="10:10">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
@@ -8899,7 +9615,7 @@
         <f>J3/E3</f>
         <v>1.04374683536517</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>194</v>
       </c>
       <c r="M3" s="5"/>
@@ -8922,94 +9638,6 @@
       <c r="K5" t="e">
         <f>J5/E5</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="6" max="6" width="9.375"/>
-    <col min="9" max="9" width="9.375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>20200706</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
-      </c>
-      <c r="C2">
-        <v>41.58</v>
-      </c>
-      <c r="E2">
-        <v>24957.7</v>
-      </c>
-      <c r="F2">
-        <v>20200715</v>
-      </c>
-      <c r="G2">
-        <v>45.57</v>
-      </c>
-      <c r="I2">
-        <v>27304.03</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>2346.33</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>0.0940122687587397</v>
       </c>
     </row>
   </sheetData>
@@ -9021,16 +9649,18 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
-    <col min="5" max="5" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="11" max="11" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9073,37 +9703,137 @@
         <v>20200706</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C2">
-        <v>23.69</v>
+        <v>41.58</v>
       </c>
       <c r="E2">
-        <v>21329.29</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
+        <v>24957.7</v>
+      </c>
+      <c r="F2">
+        <v>20200715</v>
+      </c>
+      <c r="G2">
+        <v>45.57</v>
+      </c>
+      <c r="I2">
+        <v>27304.03</v>
+      </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-21329.29</v>
+        <v>2346.33</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0940122687587398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>20200717</v>
+        <v>20200727</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>24.24</v>
+        <v>42.11</v>
       </c>
       <c r="E3">
-        <v>24249.42</v>
+        <v>21063.18</v>
+      </c>
+      <c r="F3">
+        <v>20200804</v>
+      </c>
+      <c r="G3">
+        <v>44.39</v>
+      </c>
+      <c r="I3">
+        <v>22164.17</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">I3-E3</f>
+        <v>1100.99</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K11" si="1">J3/E3</f>
+        <v>0.0522708346982743</v>
+      </c>
+    </row>
+    <row r="4" spans="10:11">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="10:11">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -9115,10 +9845,594 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="4" max="4" width="12.625"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="12.625"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>20200706</v>
+      </c>
+      <c r="B2">
+        <v>900</v>
+      </c>
+      <c r="C2">
+        <v>23.69</v>
+      </c>
+      <c r="E2">
+        <v>21329.29</v>
+      </c>
+      <c r="F2">
+        <v>20200828</v>
+      </c>
+      <c r="G2">
+        <v>24.35</v>
+      </c>
+      <c r="I2">
+        <v>46200.74</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>24871.45</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>1.16607022549743</v>
+      </c>
+      <c r="L2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200717</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>24.24</v>
+      </c>
+      <c r="E3">
+        <v>24249.42</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>-24249.42</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200821</v>
+      </c>
+      <c r="B4">
+        <v>19000</v>
+      </c>
+      <c r="C4">
+        <v>23.76</v>
+      </c>
+      <c r="E4">
+        <v>45161.55</v>
+      </c>
+      <c r="F4">
+        <v>20200819</v>
+      </c>
+      <c r="G4">
+        <v>24.31</v>
+      </c>
+      <c r="I4">
+        <v>46124.86</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>963.309999999998</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>0.0213303130649855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20200826</v>
+      </c>
+      <c r="B5">
+        <v>19000</v>
+      </c>
+      <c r="C5">
+        <v>23.5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>44667.36</v>
+      </c>
+      <c r="F5">
+        <v>20200824</v>
+      </c>
+      <c r="G5">
+        <v>24.55</v>
+      </c>
+      <c r="I5">
+        <v>46580.21</v>
+      </c>
+      <c r="J5">
+        <f>I5-E5</f>
+        <v>1912.85</v>
+      </c>
+      <c r="K5">
+        <f>J5/E5</f>
+        <v>0.0428243352640496</v>
+      </c>
+    </row>
+    <row r="6" spans="10:11">
+      <c r="J6">
+        <f t="shared" ref="J6:J12" si="0">I6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" ref="K6:K14" si="1">J6/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="11:11">
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="11:11">
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200723</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>55.71</v>
+      </c>
+      <c r="E2">
+        <v>22292.66</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-22292.66</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200727</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>53.45</v>
+      </c>
+      <c r="E3">
+        <v>21388.31</v>
+      </c>
+      <c r="F3">
+        <v>20200731</v>
+      </c>
+      <c r="G3">
+        <v>59.28</v>
+      </c>
+      <c r="I3">
+        <v>23679.07</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="0">I3-E3</f>
+        <v>2290.76</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="1">J3/E3</f>
+        <v>0.107103366278121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200730</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>56.72</v>
+      </c>
+      <c r="E4">
+        <v>22696.82</v>
+      </c>
+      <c r="F4">
+        <v>20200730</v>
+      </c>
+      <c r="G4">
+        <v>57.65</v>
+      </c>
+      <c r="I4">
+        <v>23027.98</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>331.16</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.0145905902236525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20200803</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>59.93</v>
+      </c>
+      <c r="E5">
+        <v>23981.32</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-23981.32</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20200819</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <v>51.04</v>
+      </c>
+      <c r="E6">
+        <v>40847.87</v>
+      </c>
+      <c r="F6">
+        <v>20200821</v>
+      </c>
+      <c r="G6">
+        <v>53.99</v>
+      </c>
+      <c r="I6">
+        <v>43132.02</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2284.14999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0559184603750451</v>
+      </c>
+    </row>
+    <row r="7" spans="10:11">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="5" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200805</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>65.33</v>
+      </c>
+      <c r="E2">
+        <v>13071.08</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-13071.08</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -9176,8 +10490,6 @@
       <c r="E2">
         <v>800</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
       <c r="I2">
         <v>0</v>
       </c>
@@ -9190,7 +10502,7 @@
         <v>-1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -9275,128 +10587,6 @@
     <mergeCell ref="L2:N4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1">
-        <v>12010</v>
-      </c>
-      <c r="O1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>20170907</v>
-      </c>
-      <c r="B2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20170907</v>
-      </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3">
-        <v>590</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>20180913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7">
-      <c r="G21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -10029,28 +11219,28 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="13" customFormat="1" spans="2:12">
-      <c r="B17" s="13">
+    <row r="17" s="12" customFormat="1" spans="2:12">
+      <c r="B17" s="12">
         <v>0</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13" t="e">
+      <c r="K17" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -10143,42 +11333,42 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="1" spans="1:13">
-      <c r="A21" s="19">
+    <row r="21" s="12" customFormat="1" spans="1:13">
+      <c r="A21" s="18">
         <v>20180727</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>200</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>13.48</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>5</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>2701</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20">
+      <c r="F21" s="18"/>
+      <c r="G21" s="19">
         <v>12.75</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18">
         <v>0</v>
       </c>
-      <c r="J21" s="20">
+      <c r="J21" s="19">
         <f t="shared" si="0"/>
         <v>-2701</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="19"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
@@ -10365,27 +11555,27 @@
         <v>0.0169415633695927</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="1" spans="1:11">
-      <c r="A27" s="13">
+    <row r="27" s="12" customFormat="1" spans="1:11">
+      <c r="A27" s="12">
         <v>20181008</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>300</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>13.05</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>5</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>3920</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="12">
         <f t="shared" si="0"/>
         <v>-3920</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -10502,40 +11692,40 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>20181022</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>600</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>12.45</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>5</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>7475.98</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="19">
         <v>20190304</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>12.75</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19">
         <v>10181.64</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <f t="shared" si="0"/>
         <v>2705.66</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <f t="shared" si="1"/>
         <v>0.361913755788539</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="19" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10903,14 +12093,14 @@
       <c r="G42">
         <v>12.26</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <v>22028.28</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <f t="shared" ref="J42:J52" si="5">I42-E42</f>
         <v>9858.55</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="11">
         <f t="shared" ref="K42:K47" si="6">J42/E42</f>
         <v>0.810087816245718</v>
       </c>
@@ -10941,14 +12131,14 @@
       <c r="G43">
         <v>12.26</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <v>0</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="11">
         <f t="shared" si="5"/>
         <v>-9799.83</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
@@ -11204,6 +12394,208 @@
       <c r="K55" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200812</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20160</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-20160</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1">
+        <v>12010</v>
+      </c>
+      <c r="O1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20170907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20170907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3">
+        <v>590</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20180913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -11267,7 +12659,7 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>20171017</v>
       </c>
       <c r="B2">
@@ -11282,7 +12674,7 @@
       <c r="E2">
         <v>9687.94</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>20171027</v>
       </c>
       <c r="G2">
@@ -11307,7 +12699,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>20171027</v>
       </c>
       <c r="B3">
@@ -11344,7 +12736,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>20171030</v>
       </c>
       <c r="B4">
@@ -11359,7 +12751,7 @@
       <c r="E4">
         <v>4885.1</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>20171030</v>
       </c>
       <c r="G4">
@@ -11418,7 +12810,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>20171110</v>
       </c>
       <c r="B6">
@@ -11491,39 +12883,39 @@
         <v>0.00679178885630494</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" spans="1:11">
-      <c r="A8" s="13">
+    <row r="8" s="12" customFormat="1" spans="1:11">
+      <c r="A8" s="12">
         <v>20180326</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>1000</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>4.62</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>4625</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>20180507</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>4.59</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>4580.32</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>-44.6800000000003</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="1"/>
         <v>-0.0096605405405406</v>
       </c>
@@ -11698,7 +13090,7 @@
         <v>0.0473826058201058</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" spans="1:12">
+    <row r="5" s="12" customFormat="1" spans="1:12">
       <c r="A5">
         <v>20180125</v>
       </c>
@@ -11734,11 +13126,11 @@
         <f t="shared" si="1"/>
         <v>-0.38209682642487</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="1" spans="1:11">
+    <row r="6" s="12" customFormat="1" spans="1:11">
       <c r="A6">
         <v>20180202</v>
       </c>
@@ -12471,161 +13863,161 @@
         <v>0.0155137763371151</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" spans="1:13">
-      <c r="A26" s="14">
+    <row r="26" s="12" customFormat="1" spans="1:13">
+      <c r="A26" s="13">
         <v>20180910</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>100</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <v>30.23</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>5</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>3028</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>20190107</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>29.23</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
         <v>8753.21</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <f t="shared" si="2"/>
         <v>5725.21</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <f t="shared" si="1"/>
         <v>1.89075627476882</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M26" s="14"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>20180917</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>100</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>29.07</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <v>5</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>2912</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>20180917</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>29.56</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <v>2946.04</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="14">
         <f t="shared" si="2"/>
         <v>34.04</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <f t="shared" si="1"/>
         <v>0.0116895604395604</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="14">
+      <c r="A28" s="13">
         <v>20180926</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>100</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <v>29.04</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>5</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>2909</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>20190107</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>29.23</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
         <v>0</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <f t="shared" si="2"/>
         <v>-2909</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M28" s="15"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="14">
+      <c r="A29" s="13">
         <v>20180928</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>100</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <v>28.49</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>5</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>2854</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>20190107</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>29.23</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
         <v>0</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <f t="shared" si="2"/>
         <v>-2854</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="M29" s="15"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -12659,7 +14051,7 @@
         <f t="shared" si="2"/>
         <v>37.6099999999997</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <f t="shared" si="1"/>
         <v>0.00865991250287812</v>
       </c>
@@ -12690,7 +14082,7 @@
         <f t="shared" ref="J31:J44" si="3">I31-E31</f>
         <v>-52.2599999999993</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="12">
         <f t="shared" si="1"/>
         <v>-0.00702991953123099</v>
       </c>
@@ -13202,17 +14594,17 @@
         <v>0.0473845657087504</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" spans="6:12">
-      <c r="F5" s="13">
+    <row r="5" s="12" customFormat="1" spans="6:12">
+      <c r="F5" s="12">
         <v>20180426</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>13.26</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>1319.67</v>
       </c>
       <c r="J5">
@@ -13223,7 +14615,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>164</v>
       </c>
     </row>
@@ -13264,7 +14656,7 @@
         <v>0.0225359424920127</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:16384">
+    <row r="7" s="12" customFormat="1" spans="1:16384">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -29672,7 +31064,7 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="13" customFormat="1" spans="1:16384">
+    <row r="8" s="12" customFormat="1" spans="1:16384">
       <c r="A8">
         <v>20180907</v>
       </c>

--- a/document/股票/投资.xlsx
+++ b/document/股票/投资.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="736" firstSheet="12" activeTab="14"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="830" firstSheet="23" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="招商" sheetId="1" r:id="rId1"/>
@@ -28,23 +28,32 @@
     <sheet name="宁波银行" sheetId="19" r:id="rId19"/>
     <sheet name="京东方" sheetId="22" r:id="rId20"/>
     <sheet name="恒瑞医药" sheetId="29" r:id="rId21"/>
-    <sheet name="药明康德" sheetId="23" r:id="rId22"/>
-    <sheet name="华东医药" sheetId="24" r:id="rId23"/>
-    <sheet name="智飞生物" sheetId="25" r:id="rId24"/>
-    <sheet name="乐普医疗" sheetId="26" r:id="rId25"/>
-    <sheet name="温氏股份" sheetId="27" r:id="rId26"/>
-    <sheet name="立讯精密" sheetId="28" r:id="rId27"/>
-    <sheet name="亿联网络" sheetId="30" r:id="rId28"/>
-    <sheet name="芯片基金" sheetId="21" r:id="rId29"/>
-    <sheet name="上证50" sheetId="31" r:id="rId30"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId31"/>
+    <sheet name="长春高新" sheetId="36" r:id="rId22"/>
+    <sheet name="迈瑞医疗" sheetId="39" r:id="rId23"/>
+    <sheet name="药明康德" sheetId="23" r:id="rId24"/>
+    <sheet name="华东医药" sheetId="24" r:id="rId25"/>
+    <sheet name="智飞生物" sheetId="25" r:id="rId26"/>
+    <sheet name="乐普医疗" sheetId="26" r:id="rId27"/>
+    <sheet name="绝味" sheetId="38" r:id="rId28"/>
+    <sheet name="温氏股份" sheetId="27" r:id="rId29"/>
+    <sheet name="立讯精密" sheetId="28" r:id="rId30"/>
+    <sheet name="亿联网络" sheetId="30" r:id="rId31"/>
+    <sheet name="芯片基金" sheetId="21" r:id="rId32"/>
+    <sheet name="上证50" sheetId="31" r:id="rId33"/>
+    <sheet name="港股通50" sheetId="40" r:id="rId34"/>
+    <sheet name="食品饮料" sheetId="32" r:id="rId35"/>
+    <sheet name="恒生互联" sheetId="33" r:id="rId36"/>
+    <sheet name="医药ETF" sheetId="34" r:id="rId37"/>
+    <sheet name="沪深300" sheetId="35" r:id="rId38"/>
+    <sheet name="打新" sheetId="37" r:id="rId39"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId40"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="231">
   <si>
     <t>买入时间</t>
   </si>
@@ -263,6 +272,9 @@
   </si>
   <si>
     <t>分红</t>
+  </si>
+  <si>
+    <t>merge1200</t>
   </si>
   <si>
     <t>5.89+7.37</t>
@@ -598,6 +610,9 @@
     <t>一直买,一直跌.一直补</t>
   </si>
   <si>
+    <t>merge600</t>
+  </si>
+  <si>
     <t>在低价的时候做了一次T,手里平安太多了</t>
   </si>
   <si>
@@ -611,6 +626,9 @@
   </si>
   <si>
     <t>套牢,因为此时在回落,此时还有1100股,股本就是79,感觉还有回落趋势,因此割肉卖出一部分。</t>
+  </si>
+  <si>
+    <t>merge合并卖出2200</t>
   </si>
   <si>
     <t>做T,多卖了100股</t>
@@ -629,14 +647,50 @@
     <t>牛市高点卖出</t>
   </si>
   <si>
+    <t>merge卖出600</t>
+  </si>
+  <si>
+    <t>方便记账原因</t>
+  </si>
+  <si>
+    <t>merge700</t>
+  </si>
+  <si>
     <t>涨幅有30%,因此追加仓位</t>
   </si>
   <si>
     <t>卖出1200股清空</t>
   </si>
   <si>
+    <t>3900股分红</t>
+  </si>
+  <si>
+    <t>参见20200904</t>
+  </si>
+  <si>
+    <t>参见20200904--merge卖出800</t>
+  </si>
+  <si>
     <t>疫情原因,一直跌,一直买
 清仓</t>
+  </si>
+  <si>
+    <t>代码510760</t>
+  </si>
+  <si>
+    <t>股票</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>巴比食品</t>
+  </si>
+  <si>
+    <t>20200925‘</t>
+  </si>
+  <si>
+    <t>20201009开始上市</t>
   </si>
   <si>
     <t>时间</t>
@@ -687,7 +741,13 @@
     <t>证券转入2万</t>
   </si>
   <si>
-    <t>该记录到20200828.即那天已经结束</t>
+    <t>该记录到20210127.即那天已经结束</t>
+  </si>
+  <si>
+    <t>该记录到20210210.即那天已经结束</t>
+  </si>
+  <si>
+    <t>平安未记录</t>
   </si>
 </sst>
 </file>
@@ -695,10 +755,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -746,14 +806,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -761,37 +829,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,24 +851,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,10 +891,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,9 +920,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,6 +944,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -891,12 +957,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,7 +980,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,162 +1142,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1097,31 +1157,63 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,17 +1236,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,16 +1293,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,10 +1321,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,7 +1333,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1220,10 +1342,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1232,116 +1354,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1351,11 +1473,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="7" applyAlignment="1"/>
@@ -1374,6 +1518,7 @@
     <xf numFmtId="14" fontId="5" fillId="7" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="32" applyAlignment="1"/>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="32" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1725,14 +1870,15 @@
   <dimension ref="A1:O88"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="52.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="52.25" style="29" customWidth="1"/>
     <col min="5" max="5" width="9.375"/>
-    <col min="6" max="6" width="10.5" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.375"/>
     <col min="8" max="8" width="16.125" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
     <col min="10" max="10" width="10.375"/>
@@ -1740,7 +1886,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1755,7 +1901,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1775,7 +1921,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="23">
+      <c r="A2" s="31">
         <v>20170626</v>
       </c>
       <c r="B2">
@@ -1790,7 +1936,7 @@
       <c r="E2">
         <v>2373.05</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="31">
         <v>20170711</v>
       </c>
       <c r="G2">
@@ -1812,7 +1958,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="23">
+      <c r="A3" s="31">
         <v>20170627</v>
       </c>
       <c r="B3">
@@ -1827,7 +1973,7 @@
       <c r="E3">
         <v>2299.05</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="31">
         <v>20170627</v>
       </c>
       <c r="G3">
@@ -1852,7 +1998,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="23">
+      <c r="A4" s="31">
         <v>20170628</v>
       </c>
       <c r="B4">
@@ -1867,7 +2013,7 @@
       <c r="E4">
         <v>2417.05</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="31">
         <v>20170629</v>
       </c>
       <c r="G4">
@@ -1889,7 +2035,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="23">
+      <c r="A5" s="31">
         <v>20170629</v>
       </c>
       <c r="B5">
@@ -1904,7 +2050,7 @@
       <c r="E5">
         <v>2396.05</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="31">
         <v>20170629</v>
       </c>
       <c r="G5">
@@ -1926,7 +2072,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23">
+      <c r="A6" s="31">
         <v>20170630</v>
       </c>
       <c r="B6">
@@ -1941,7 +2087,7 @@
       <c r="E6">
         <v>2386.05</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="31">
         <v>20170630</v>
       </c>
       <c r="G6">
@@ -1963,7 +2109,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="23">
+      <c r="A7" s="31">
         <v>20170703</v>
       </c>
       <c r="B7">
@@ -1978,7 +2124,7 @@
       <c r="E7">
         <v>2356.05</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="31">
         <v>20170705</v>
       </c>
       <c r="G7">
@@ -2000,7 +2146,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23">
+      <c r="A8" s="31">
         <v>20170706</v>
       </c>
       <c r="B8">
@@ -2015,7 +2161,7 @@
       <c r="E8">
         <v>2346.05</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="31">
         <v>20170706</v>
       </c>
       <c r="G8">
@@ -2037,7 +2183,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="23">
+      <c r="A9" s="31">
         <v>20170707</v>
       </c>
       <c r="B9">
@@ -2052,7 +2198,7 @@
       <c r="E9">
         <v>2381.05</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="31">
         <v>20170711</v>
       </c>
       <c r="G9">
@@ -2074,7 +2220,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="23">
+      <c r="A10" s="31">
         <v>20170707</v>
       </c>
       <c r="B10">
@@ -2089,7 +2235,7 @@
       <c r="E10">
         <v>2356.05</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="31">
         <v>20170711</v>
       </c>
       <c r="G10">
@@ -2111,7 +2257,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="23">
+      <c r="A11" s="31">
         <v>20170710</v>
       </c>
       <c r="B11">
@@ -2126,7 +2272,7 @@
       <c r="E11">
         <v>6992.73</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="31">
         <v>20170711</v>
       </c>
       <c r="G11">
@@ -2148,7 +2294,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="23">
+      <c r="A12" s="31">
         <v>20170711</v>
       </c>
       <c r="B12">
@@ -2163,7 +2309,7 @@
       <c r="E12">
         <v>2377.05</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="31">
         <v>20170717</v>
       </c>
       <c r="G12">
@@ -2185,7 +2331,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="23">
+      <c r="A13" s="31">
         <v>20170711</v>
       </c>
       <c r="B13">
@@ -2200,7 +2346,7 @@
       <c r="E13">
         <v>4817.1</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="31">
         <v>20170712</v>
       </c>
       <c r="G13">
@@ -2222,7 +2368,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="23">
+      <c r="A14" s="31">
         <v>20170712</v>
       </c>
       <c r="B14">
@@ -2237,7 +2383,7 @@
       <c r="E14">
         <v>2429.05</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="31">
         <v>20170713</v>
       </c>
       <c r="G14">
@@ -2259,7 +2405,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="23">
+      <c r="A15" s="31">
         <v>20170713</v>
       </c>
       <c r="B15">
@@ -2274,7 +2420,7 @@
       <c r="E15">
         <v>2427.05</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="31">
         <v>20170713</v>
       </c>
       <c r="G15">
@@ -2296,7 +2442,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="23">
+      <c r="A16" s="31">
         <v>20170714</v>
       </c>
       <c r="B16">
@@ -2311,7 +2457,7 @@
       <c r="E16">
         <v>2513.05</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="31">
         <v>20170714</v>
       </c>
       <c r="G16">
@@ -2333,7 +2479,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="23">
+      <c r="A17" s="31">
         <v>20170717</v>
       </c>
       <c r="B17">
@@ -2348,7 +2494,7 @@
       <c r="E17">
         <v>5009.1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="31">
         <v>20170719</v>
       </c>
       <c r="G17">
@@ -2370,7 +2516,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="23">
+      <c r="A18" s="31">
         <v>20170718</v>
       </c>
       <c r="B18">
@@ -2385,7 +2531,7 @@
       <c r="E18">
         <v>2430.05</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="31">
         <v>20170719</v>
       </c>
       <c r="G18">
@@ -2407,7 +2553,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="23">
+      <c r="A19" s="31">
         <v>20170720</v>
       </c>
       <c r="B19">
@@ -2422,7 +2568,7 @@
       <c r="E19">
         <v>5029.1</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="31">
         <v>20170724</v>
       </c>
       <c r="G19">
@@ -2444,7 +2590,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="23">
+      <c r="A20" s="31">
         <v>20170720</v>
       </c>
       <c r="B20">
@@ -2459,7 +2605,7 @@
       <c r="E20">
         <v>2495.05</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="31">
         <v>20170727</v>
       </c>
       <c r="G20">
@@ -2481,7 +2627,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="23">
+      <c r="A21" s="31">
         <v>20170721</v>
       </c>
       <c r="B21">
@@ -2496,7 +2642,7 @@
       <c r="E21">
         <v>2476.05</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="31">
         <v>20170727</v>
       </c>
       <c r="G21">
@@ -2518,7 +2664,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="23">
+      <c r="A22" s="31">
         <v>20170724</v>
       </c>
       <c r="B22">
@@ -2533,7 +2679,7 @@
       <c r="E22">
         <v>4983.1</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="31">
         <v>20170724</v>
       </c>
       <c r="G22">
@@ -2555,7 +2701,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="22">
+      <c r="A23" s="30">
         <v>20170725</v>
       </c>
       <c r="B23">
@@ -2570,7 +2716,7 @@
       <c r="E23">
         <v>5165.1</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="30">
         <v>20170802</v>
       </c>
       <c r="G23">
@@ -2592,7 +2738,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="22">
+      <c r="A24" s="30">
         <v>20170725</v>
       </c>
       <c r="B24">
@@ -2607,7 +2753,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="30">
         <v>20170803</v>
       </c>
       <c r="G24">
@@ -2632,7 +2778,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22">
+      <c r="A25" s="30">
         <v>20170726</v>
       </c>
       <c r="B25">
@@ -2647,7 +2793,7 @@
       <c r="E25">
         <v>5113.1</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="31">
         <v>20170726</v>
       </c>
       <c r="G25">
@@ -2669,7 +2815,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="22">
+      <c r="A26" s="30">
         <v>20170731</v>
       </c>
       <c r="B26">
@@ -2684,7 +2830,7 @@
       <c r="E26">
         <v>5097.1</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="30">
         <v>20170731</v>
       </c>
       <c r="G26">
@@ -2706,7 +2852,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="22">
+      <c r="A27" s="30">
         <v>20170801</v>
       </c>
       <c r="B27">
@@ -2721,7 +2867,7 @@
       <c r="E27">
         <v>2545.05</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="30">
         <v>20170801</v>
       </c>
       <c r="G27">
@@ -2743,7 +2889,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="22">
+      <c r="A28" s="30">
         <v>20170801</v>
       </c>
       <c r="B28">
@@ -2758,7 +2904,7 @@
       <c r="E28">
         <v>2583.05</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="30">
         <v>20170801</v>
       </c>
       <c r="G28">
@@ -2780,7 +2926,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="22">
+      <c r="A29" s="30">
         <v>20170803</v>
       </c>
       <c r="B29">
@@ -2795,7 +2941,7 @@
       <c r="E29">
         <v>2646.05</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="30">
         <v>20170811</v>
       </c>
       <c r="G29">
@@ -2817,7 +2963,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="22">
+      <c r="A30" s="30">
         <v>20170804</v>
       </c>
       <c r="B30">
@@ -2832,7 +2978,7 @@
       <c r="E30">
         <v>2600.05</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="30">
         <v>20170811</v>
       </c>
       <c r="G30">
@@ -2854,7 +3000,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="22">
+      <c r="A31" s="30">
         <v>20170810</v>
       </c>
       <c r="B31">
@@ -2869,7 +3015,7 @@
       <c r="E31">
         <v>2549.05</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="30">
         <v>20170811</v>
       </c>
       <c r="G31">
@@ -2894,7 +3040,7 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="22">
+      <c r="A32" s="30">
         <v>20171121</v>
       </c>
       <c r="B32">
@@ -2909,7 +3055,7 @@
       <c r="E32">
         <v>3089.06</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="30">
         <v>20180118</v>
       </c>
       <c r="G32">
@@ -2931,7 +3077,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="22">
+      <c r="A33" s="30">
         <v>20180115</v>
       </c>
       <c r="B33">
@@ -2946,7 +3092,7 @@
       <c r="E33">
         <v>3197.06</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="30">
         <v>20180115</v>
       </c>
       <c r="G33">
@@ -2968,7 +3114,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="22">
+      <c r="A34" s="30">
         <v>20180117</v>
       </c>
       <c r="B34">
@@ -2983,7 +3129,7 @@
       <c r="E34">
         <v>3240.06</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="30">
         <v>20180117</v>
       </c>
       <c r="G34">
@@ -3005,7 +3151,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="22">
+      <c r="A35" s="30">
         <v>20180314</v>
       </c>
       <c r="B35">
@@ -3020,7 +3166,7 @@
       <c r="E35">
         <v>6069.12</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="30">
         <v>20180319</v>
       </c>
       <c r="G35">
@@ -3042,7 +3188,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="22">
+      <c r="A36" s="30">
         <v>20180316</v>
       </c>
       <c r="B36">
@@ -3057,7 +3203,7 @@
       <c r="E36">
         <v>6085.12</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="30">
         <v>20180316</v>
       </c>
       <c r="G36">
@@ -3079,7 +3225,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22">
+      <c r="A37" s="30">
         <v>20180326</v>
       </c>
       <c r="B37">
@@ -3094,7 +3240,7 @@
       <c r="E37">
         <v>5975.12</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="30">
         <v>20180410</v>
       </c>
       <c r="G37">
@@ -3116,7 +3262,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="22">
+      <c r="A38" s="30">
         <v>20180329</v>
       </c>
       <c r="B38">
@@ -3131,7 +3277,7 @@
       <c r="E38">
         <v>5733.11</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="30">
         <v>20180329</v>
       </c>
       <c r="G38">
@@ -3153,7 +3299,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="22">
+      <c r="A39" s="30">
         <v>20180416</v>
       </c>
       <c r="B39">
@@ -3168,7 +3314,7 @@
       <c r="E39">
         <v>5825.12</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="30">
         <v>20180511</v>
       </c>
       <c r="G39">
@@ -3190,7 +3336,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="22">
+      <c r="A40" s="30">
         <v>20180502</v>
       </c>
       <c r="B40">
@@ -3205,7 +3351,7 @@
       <c r="E40">
         <v>5907</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="30">
         <v>20180502</v>
       </c>
       <c r="G40">
@@ -3227,7 +3373,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="22">
+      <c r="A41" s="30">
         <v>20180508</v>
       </c>
       <c r="B41">
@@ -3242,7 +3388,7 @@
       <c r="E41">
         <v>5935.12</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="30">
         <v>20180508</v>
       </c>
       <c r="G41">
@@ -3264,7 +3410,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="22">
+      <c r="A42" s="30">
         <v>20180524</v>
       </c>
       <c r="B42">
@@ -3279,7 +3425,7 @@
       <c r="E42">
         <v>5825.12</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="30">
         <v>20180604</v>
       </c>
       <c r="G42">
@@ -3301,7 +3447,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="22">
+      <c r="A43" s="30">
         <v>20180529</v>
       </c>
       <c r="B43">
@@ -3316,7 +3462,7 @@
       <c r="E43">
         <v>5693.11</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="30">
         <v>20180529</v>
       </c>
       <c r="G43">
@@ -3338,7 +3484,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="22">
+      <c r="A44" s="30">
         <v>20180606</v>
       </c>
       <c r="B44">
@@ -3353,7 +3499,7 @@
       <c r="E44">
         <v>5775.12</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="30">
         <v>20180607</v>
       </c>
       <c r="G44">
@@ -3375,7 +3521,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="22">
+      <c r="A45" s="30">
         <v>20180607</v>
       </c>
       <c r="B45">
@@ -3390,7 +3536,7 @@
       <c r="E45">
         <v>8662</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="30">
         <v>20180615</v>
       </c>
       <c r="G45">
@@ -3412,7 +3558,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="22">
+      <c r="A46" s="30">
         <v>20180608</v>
       </c>
       <c r="B46">
@@ -3427,7 +3573,7 @@
       <c r="E46">
         <v>5693.11</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="30">
         <v>20180619</v>
       </c>
       <c r="G46">
@@ -3449,7 +3595,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="22">
+      <c r="A47" s="30">
         <v>20180620</v>
       </c>
       <c r="B47">
@@ -3464,7 +3610,7 @@
       <c r="E47">
         <v>5711.11</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="30">
         <v>20180622</v>
       </c>
       <c r="G47">
@@ -3486,7 +3632,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="22">
+      <c r="A48" s="30">
         <v>20180621</v>
       </c>
       <c r="B48">
@@ -3501,7 +3647,7 @@
       <c r="E48">
         <v>5727.11</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="30">
         <v>20180621</v>
       </c>
       <c r="G48">
@@ -3523,7 +3669,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="22">
+      <c r="A49" s="30">
         <v>20180625</v>
       </c>
       <c r="B49">
@@ -3538,7 +3684,7 @@
       <c r="E49">
         <v>5551.11</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="30">
         <v>20180720</v>
       </c>
       <c r="G49">
@@ -3560,7 +3706,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="22">
+      <c r="A50" s="30">
         <v>20180625</v>
       </c>
       <c r="B50">
@@ -3575,7 +3721,7 @@
       <c r="E50">
         <v>5677.11</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="30">
         <v>20180720</v>
       </c>
       <c r="G50">
@@ -3595,12 +3741,12 @@
         <f t="shared" si="0"/>
         <v>0.419438763737183</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="22">
+      <c r="A51" s="30">
         <v>20180626</v>
       </c>
       <c r="B51">
@@ -3615,7 +3761,7 @@
       <c r="E51">
         <v>5391.11</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="30">
         <v>20180709</v>
       </c>
       <c r="G51">
@@ -3637,7 +3783,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="22">
+      <c r="A52" s="30">
         <v>20180627</v>
       </c>
       <c r="B52">
@@ -3652,7 +3798,7 @@
       <c r="E52">
         <v>5265.11</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="30">
         <v>20180629</v>
       </c>
       <c r="G52">
@@ -3674,7 +3820,7 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="22">
+      <c r="A53" s="30">
         <v>20180702</v>
       </c>
       <c r="B53">
@@ -3689,7 +3835,7 @@
       <c r="E53">
         <v>5099.11</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="30">
         <v>20180706</v>
       </c>
       <c r="G53">
@@ -3711,7 +3857,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="22">
+      <c r="A54" s="30">
         <v>20180710</v>
       </c>
       <c r="B54">
@@ -3726,7 +3872,7 @@
       <c r="E54">
         <v>5335.11</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="30">
         <v>20180709</v>
       </c>
       <c r="G54">
@@ -3783,13 +3929,13 @@
         <f t="shared" ref="K55" si="6">J55/E55</f>
         <v>-0.467075419321176</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="22"/>
-      <c r="F56" s="22">
+      <c r="A56" s="30"/>
+      <c r="F56" s="30">
         <v>20180711</v>
       </c>
       <c r="J56">
@@ -3804,7 +3950,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="22">
+      <c r="A57" s="30">
         <v>20180716</v>
       </c>
       <c r="B57">
@@ -3819,7 +3965,7 @@
       <c r="E57">
         <v>5139.1</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="30">
         <v>20180720</v>
       </c>
       <c r="G57">
@@ -3841,7 +3987,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="22">
+      <c r="A58" s="30">
         <v>20180724</v>
       </c>
       <c r="B58">
@@ -3856,7 +4002,7 @@
       <c r="E58">
         <v>5589.11</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="30">
         <v>20180725</v>
       </c>
       <c r="G58">
@@ -3878,7 +4024,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="22">
+      <c r="A59" s="30">
         <v>20180905</v>
       </c>
       <c r="B59">
@@ -3893,7 +4039,7 @@
       <c r="E59">
         <v>5617.11</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="30">
         <v>20180921</v>
       </c>
       <c r="G59">
@@ -3915,7 +4061,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="22">
+      <c r="A60" s="30">
         <v>20180906</v>
       </c>
       <c r="B60">
@@ -3930,7 +4076,7 @@
       <c r="E60">
         <v>5523.11</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="30">
         <v>20180914</v>
       </c>
       <c r="G60">
@@ -3952,7 +4098,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="22">
+      <c r="A61" s="30">
         <v>20180913</v>
       </c>
       <c r="B61">
@@ -3967,7 +4113,7 @@
       <c r="E61">
         <v>5582.12</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="30">
         <v>20180918</v>
       </c>
       <c r="G61">
@@ -3989,7 +4135,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="22">
+      <c r="A62" s="30">
         <v>20180917</v>
       </c>
       <c r="B62">
@@ -4004,7 +4150,7 @@
       <c r="E62">
         <v>5483.11</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="30">
         <v>20180917</v>
       </c>
       <c r="G62">
@@ -4026,7 +4172,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="22">
+      <c r="A63" s="30">
         <v>20180920</v>
       </c>
       <c r="B63">
@@ -4041,7 +4187,7 @@
       <c r="E63">
         <v>5695.11</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="30">
         <v>20180920</v>
       </c>
       <c r="G63">
@@ -4063,7 +4209,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="22">
+      <c r="A64" s="30">
         <v>20181015</v>
       </c>
       <c r="B64">
@@ -4078,7 +4224,7 @@
       <c r="E64">
         <v>5833.12</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="30">
         <v>20181016</v>
       </c>
       <c r="G64">
@@ -4100,7 +4246,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="22">
+      <c r="A65" s="30">
         <v>20181016</v>
       </c>
       <c r="B65">
@@ -4115,7 +4261,7 @@
       <c r="E65">
         <v>5793.12</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="30">
         <v>20181022</v>
       </c>
       <c r="G65">
@@ -4211,7 +4357,7 @@
       <c r="E68">
         <v>17038.96</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="30">
         <v>20191009</v>
       </c>
       <c r="G68">
@@ -4241,6 +4387,15 @@
       </c>
       <c r="E69">
         <v>23939.32</v>
+      </c>
+      <c r="F69" s="32">
+        <v>20201019</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
       </c>
       <c r="J69">
         <f t="shared" si="3"/>
@@ -4277,7 +4432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>20200722</v>
       </c>
@@ -4294,13 +4449,25 @@
       <c r="E71">
         <v>22052.57</v>
       </c>
+      <c r="F71" s="32">
+        <v>20201019</v>
+      </c>
+      <c r="G71">
+        <v>40.86</v>
+      </c>
+      <c r="I71">
+        <v>48967</v>
+      </c>
       <c r="J71">
         <f t="shared" si="3"/>
-        <v>-22052.57</v>
+        <v>26914.43</v>
       </c>
       <c r="K71">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1.22046682087394</v>
+      </c>
+      <c r="L71" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4316,7 +4483,7 @@
       <c r="E72">
         <v>20840.1</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="30">
         <v>20200804</v>
       </c>
       <c r="G72">
@@ -4428,54 +4595,136 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76"/>
-      <c r="F76"/>
-      <c r="G76"/>
+      <c r="A76">
+        <v>20200902</v>
+      </c>
+      <c r="B76">
+        <v>1200</v>
+      </c>
+      <c r="C76">
+        <v>37.27</v>
+      </c>
+      <c r="E76">
+        <v>44741</v>
+      </c>
+      <c r="F76">
+        <v>20200904</v>
+      </c>
+      <c r="G76">
+        <v>36.61</v>
+      </c>
+      <c r="I76">
+        <v>43870</v>
+      </c>
       <c r="J76">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K76" t="e">
+        <v>-871</v>
+      </c>
+      <c r="K76">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>-0.0194676024228336</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77"/>
-      <c r="F77"/>
-      <c r="G77"/>
+      <c r="A77">
+        <v>20200917</v>
+      </c>
+      <c r="B77">
+        <v>1200</v>
+      </c>
+      <c r="C77">
+        <v>38.13</v>
+      </c>
+      <c r="E77">
+        <v>45773</v>
+      </c>
+      <c r="F77">
+        <v>20200918</v>
+      </c>
+      <c r="G77">
+        <v>38.65</v>
+      </c>
+      <c r="I77">
+        <v>46315</v>
+      </c>
       <c r="J77">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K77" t="e">
+        <v>542</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.0118410416621152</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78"/>
-      <c r="F78"/>
+      <c r="A78">
+        <v>20200923</v>
+      </c>
+      <c r="B78">
+        <v>1200</v>
+      </c>
+      <c r="C78">
+        <v>37.83</v>
+      </c>
+      <c r="E78">
+        <v>45413</v>
+      </c>
+      <c r="F78">
+        <v>20201013</v>
+      </c>
+      <c r="G78">
+        <v>37.366</v>
+      </c>
+      <c r="I78">
+        <v>44778</v>
+      </c>
       <c r="J78">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K78" t="e">
+        <v>-635</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>-0.0139827802611587</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79"/>
-      <c r="F79"/>
-      <c r="K79" t="e">
+      <c r="A79">
+        <v>20201009</v>
+      </c>
+      <c r="B79">
+        <v>2400</v>
+      </c>
+      <c r="C79">
+        <v>36.28</v>
+      </c>
+      <c r="E79">
+        <v>87105</v>
+      </c>
+      <c r="F79">
+        <v>20201012</v>
+      </c>
+      <c r="G79">
+        <v>36.79</v>
+      </c>
+      <c r="I79">
+        <v>88173</v>
+      </c>
+      <c r="J79">
+        <f t="shared" ref="J79:J86" si="10">I79-E79</f>
+        <v>1068</v>
+      </c>
+      <c r="K79">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.0122610642328225</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80"/>
       <c r="F80"/>
+      <c r="J80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K80" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -4484,6 +4733,10 @@
     <row r="81" spans="1:11">
       <c r="A81"/>
       <c r="F81"/>
+      <c r="J81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K81" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -4492,6 +4745,10 @@
     <row r="82" spans="1:11">
       <c r="A82"/>
       <c r="F82"/>
+      <c r="J82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K82" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -4500,6 +4757,10 @@
     <row r="83" spans="1:11">
       <c r="A83"/>
       <c r="F83"/>
+      <c r="J83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K83" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
@@ -4508,18 +4769,30 @@
     <row r="84" spans="1:11">
       <c r="A84"/>
       <c r="F84"/>
+      <c r="J84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="K84" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:10">
       <c r="A85"/>
       <c r="F85"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="J85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86"/>
       <c r="F86"/>
+      <c r="J86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87"/>
@@ -4585,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:9">
@@ -4599,7 +4872,7 @@
         <v>4.42</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I2">
         <v>878.12</v>
@@ -4685,7 +4958,7 @@
         <v>41.86</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2">
         <v>4176.73</v>
@@ -4722,7 +4995,7 @@
         <v>42.03</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I3">
         <v>4193.72</v>
@@ -4759,7 +5032,7 @@
         <v>42.35</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I4">
         <v>4225.68</v>
@@ -4796,7 +5069,7 @@
         <v>40.78</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I5">
         <v>4068.84</v>
@@ -4833,7 +5106,7 @@
         <v>41.19</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I6">
         <v>4109.8</v>
@@ -4870,7 +5143,7 @@
         <v>35.86</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I7">
         <v>3577.34</v>
@@ -4907,7 +5180,7 @@
         <v>35.23</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I8">
         <v>3514.41</v>
@@ -4944,7 +5217,7 @@
         <v>38.85</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I9">
         <v>3876.03</v>
@@ -4981,7 +5254,7 @@
         <v>34.26</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I10">
         <v>3417.5</v>
@@ -5018,7 +5291,7 @@
         <v>27.93</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11">
         <v>2785.15</v>
@@ -5055,7 +5328,7 @@
         <v>36.54</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I12">
         <v>3645.28</v>
@@ -5069,37 +5342,37 @@
         <v>0.012276906586098</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:11">
-      <c r="A13" s="13">
+    <row r="13" s="20" customFormat="1" spans="1:11">
+      <c r="A13" s="21">
         <v>20180613</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="21">
         <v>100</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="21">
         <v>33.91</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="21">
         <v>3396.07</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="21">
         <v>20190308</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="21">
         <v>27.38</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21">
         <v>2730.21</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="21">
         <f t="shared" si="0"/>
         <v>-665.86</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="21">
         <f t="shared" si="1"/>
         <v>-0.196067807789592</v>
       </c>
@@ -5127,7 +5400,7 @@
         <v>25.7</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I14">
         <v>2562.38</v>
@@ -5164,7 +5437,7 @@
         <v>29.36</v>
       </c>
       <c r="H15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I15">
         <v>2931</v>
@@ -5201,7 +5474,7 @@
         <v>28.23</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16">
         <v>2815.12</v>
@@ -5384,21 +5657,21 @@
       <c r="G2">
         <v>6.65</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="19">
         <v>19913.69</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="19">
         <f t="shared" ref="J2:J7" si="0">I2-E2</f>
         <v>9795.4</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="19">
         <f>J2/E2</f>
         <v>0.968088481354062</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="11"/>
+      <c r="L2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
@@ -5481,21 +5754,21 @@
       <c r="G5">
         <v>6.65</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="19">
         <v>0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="19">
         <f t="shared" si="0"/>
         <v>-9697.94</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="M5" s="11"/>
+      <c r="L5" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
@@ -5754,8 +6027,8 @@
         <f>J2/E2</f>
         <v>0.0436105785026701</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="10:11">
       <c r="J3">
@@ -6206,7 +6479,7 @@
   <sheetPr/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -6255,166 +6528,166 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10">
+      <c r="A2" s="18">
         <v>20190930</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="18">
         <v>100</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="18">
         <v>129.62</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18">
         <v>12972.37</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="18">
         <v>20191015</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="18">
         <v>132.68</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18">
         <v>13244.12</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="18">
         <f>I2-E2</f>
         <v>271.75</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="18">
         <f>J2/E2</f>
         <v>0.0209483694960905</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10">
+      <c r="A3" s="18">
         <v>20191008</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="18">
         <v>132.68</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18">
         <v>13278.61</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="18">
         <v>20191008</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="18">
         <v>134.48</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
         <v>13423.79</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="18">
         <f>I3-E3</f>
         <v>145.18</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="18">
         <f>J3/E3</f>
         <v>0.0109333732973557</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10">
+      <c r="A4" s="18">
         <v>20191009</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="18">
         <v>100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="18">
         <v>131.58</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
         <v>13168.53</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="18">
         <v>20191031</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="18">
         <v>134.52</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18">
         <v>13427.79</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="18">
         <f t="shared" ref="J4:J22" si="0">I4-E4</f>
         <v>259.26</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="18">
         <f t="shared" ref="K4:K27" si="1">J4/E4</f>
         <v>0.0196878467072635</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10">
+      <c r="A5" s="18">
         <v>20191016</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="18">
         <v>100</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="18">
         <v>129.65</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
         <v>12975.37</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="18">
         <v>20191029</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="18">
         <v>131.89</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18">
         <v>13165.26</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="18">
         <f t="shared" si="0"/>
         <v>189.889999999999</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="18">
         <f t="shared" si="1"/>
         <v>0.0146346501101702</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10">
+      <c r="A6" s="18">
         <v>20191031</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="18">
         <v>100</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="18">
         <v>133.51</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
         <v>13361.68</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="18">
         <v>20191113</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="18">
         <v>133.13</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
         <v>13294.52</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="18">
         <f t="shared" si="0"/>
         <v>-67.1599999999999</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="18">
         <f t="shared" si="1"/>
         <v>-0.00502631405631626</v>
       </c>
@@ -6618,10 +6891,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6669,8 +6942,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="9">
+    <row r="2" spans="1:15">
+      <c r="A2" s="11">
         <v>20191018</v>
       </c>
       <c r="B2">
@@ -6682,21 +6955,34 @@
       <c r="E2">
         <v>17974.73</v>
       </c>
+      <c r="F2">
+        <v>20201022</v>
+      </c>
+      <c r="G2">
+        <v>81.48</v>
+      </c>
+      <c r="I2">
+        <v>48822</v>
+      </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-17974.73</v>
+        <v>30847.27</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>-1</v>
+        <v>1.716146501227</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="9">
+      <c r="N2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11">
         <v>20191112</v>
       </c>
       <c r="B3">
@@ -6707,6 +6993,15 @@
       </c>
       <c r="E3">
         <v>17676.86</v>
+      </c>
+      <c r="F3">
+        <v>20201022</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J15" si="0">I3-E3</f>
@@ -6718,9 +7013,11 @@
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="9">
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="11">
         <v>20200106</v>
       </c>
       <c r="B4">
@@ -6731,6 +7028,15 @@
       </c>
       <c r="E4">
         <v>17244.7</v>
+      </c>
+      <c r="F4">
+        <v>20201022</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -6742,9 +7048,11 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>20200108</v>
       </c>
       <c r="B5">
@@ -6771,13 +7079,13 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>0.0067400174663304</v>
+        <v>0.00674001746633043</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="9">
+      <c r="A6" s="11">
         <v>20200109</v>
       </c>
       <c r="B6">
@@ -6837,7 +7145,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>0.00423616213089909</v>
+        <v>0.00423616213089908</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6871,7 +7179,7 @@
         <v>0.0383562531672443</v>
       </c>
       <c r="L8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6887,13 +7195,22 @@
       <c r="E9">
         <v>39465.34</v>
       </c>
+      <c r="F9">
+        <v>20201013</v>
+      </c>
+      <c r="G9">
+        <v>80.25</v>
+      </c>
+      <c r="I9">
+        <v>40071</v>
+      </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>-39465.34</v>
+        <v>605.660000000003</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.0153466307397834</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6927,12 +7244,21 @@
         <v>0.00730094333914629</v>
       </c>
       <c r="L10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="B11">
         <v>1100</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>20200507</v>
@@ -6983,7 +7309,7 @@
         <v>0.0204518900033922</v>
       </c>
       <c r="L12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -7017,7 +7343,7 @@
         <v>0.0183160532205675</v>
       </c>
       <c r="L13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -7051,7 +7377,7 @@
         <v>0.0996176861821067</v>
       </c>
       <c r="L14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -7085,7 +7411,7 @@
         <v>-0.0761705215030424</v>
       </c>
       <c r="L15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7208,35 +7534,311 @@
         <v>1278.17999999999</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f>J19/E19</f>
         <v>0.0151556669765749</v>
       </c>
     </row>
-    <row r="20" spans="10:11">
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>20200901</v>
+      </c>
+      <c r="B20">
+        <v>1100</v>
+      </c>
+      <c r="C20">
+        <v>76.16</v>
+      </c>
+      <c r="E20">
+        <v>83808</v>
+      </c>
+      <c r="F20">
+        <v>20200904</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10">
+        <v>-83808</v>
+      </c>
+      <c r="K20">
+        <f>J20/E20</f>
+        <v>-1</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>20200902</v>
+      </c>
+      <c r="B21">
+        <v>1100</v>
+      </c>
+      <c r="C21">
+        <v>76.64</v>
+      </c>
+      <c r="E21">
+        <v>84336</v>
+      </c>
+      <c r="F21">
+        <v>20200904</v>
+      </c>
+      <c r="G21">
+        <v>74.78</v>
+      </c>
+      <c r="I21">
+        <v>164287</v>
+      </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10">
+        <v>79951</v>
+      </c>
+      <c r="K21">
+        <f>J21/E21</f>
+        <v>0.948005596660975</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20200908</v>
+      </c>
+      <c r="B22">
+        <v>1100</v>
+      </c>
+      <c r="C22">
+        <v>76.99</v>
+      </c>
+      <c r="E22">
+        <v>84721</v>
+      </c>
+      <c r="F22">
+        <v>20200914</v>
+      </c>
+      <c r="G22">
+        <v>78.33</v>
+      </c>
+      <c r="I22">
+        <v>86043</v>
+      </c>
       <c r="J22">
         <f t="shared" si="2"/>
+        <v>1322</v>
+      </c>
+      <c r="K22">
+        <f>J22/E22</f>
+        <v>0.0156041595354162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>0</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>20200915</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>880</v>
+      </c>
+      <c r="J23">
+        <f>I23-E23</f>
+        <v>880</v>
+      </c>
+      <c r="K23" t="e">
+        <f>J23/E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>20201015</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24">
+        <v>82.1</v>
+      </c>
+      <c r="E24">
+        <v>41063</v>
+      </c>
+      <c r="F24">
+        <v>20201019</v>
+      </c>
+      <c r="G24">
+        <v>83.94</v>
+      </c>
+      <c r="I24">
+        <v>41913</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J34" si="3">I24-E24</f>
+        <v>850</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K33" si="4">J24/E24</f>
+        <v>0.0206999001534228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20201023</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25">
+        <v>84.4</v>
+      </c>
+      <c r="E25">
+        <v>33771</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>-33771</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>20210113</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26">
+        <v>88.81</v>
+      </c>
+      <c r="E26">
+        <v>35536</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>-35536</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>20210121</v>
+      </c>
+      <c r="B27">
+        <v>800</v>
+      </c>
+      <c r="C27">
+        <v>84.51</v>
+      </c>
+      <c r="E27">
+        <v>67630</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>-67630</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K30" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="L2:M6"/>
+    <mergeCell ref="N2:O4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7297,28 +7899,28 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>20200218</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>3300</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>15.11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10">
         <v>49882.38</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <f>I2-E2</f>
         <v>-49882.38</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <f>J2/E2</f>
         <v>-1</v>
       </c>
@@ -7354,58 +7956,58 @@
         <v>0.122545225073622</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>20200527</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>697.6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <f t="shared" si="0"/>
         <v>697.6</v>
       </c>
-      <c r="K4" s="6" t="e">
+      <c r="K4" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>20200629</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>1000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <v>12.96</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>12965.04</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>-12965.04</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -7442,33 +8044,33 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10">
         <v>4200</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <v>20200707</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>15.93</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <v>66813.08</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <f t="shared" si="0"/>
         <v>66813.08</v>
       </c>
-      <c r="K7" s="8" t="e">
+      <c r="K7" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>190</v>
+      <c r="L7" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="10:11">
@@ -7563,7 +8165,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7703,82 +8305,82 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>20200116</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>700</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>34.5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
         <v>24159.38</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
         <f t="shared" si="0"/>
         <v>-24159.38</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>20200117</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>800</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>33.91</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>27138.54</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>-27138.54</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>20200120</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>1000</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>34.14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>34153.27</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>-34153.27</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -7814,7 +8416,7 @@
         <v>0.0275379230613069</v>
       </c>
       <c r="L8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7942,33 +8544,33 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8">
         <v>1200</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <v>20200707</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <v>38.205</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>45782.33</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="8">
         <f t="shared" si="0"/>
         <v>45782.33</v>
       </c>
-      <c r="K13" s="6" t="e">
+      <c r="K13" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -7976,28 +8578,28 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
         <v>1300</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
         <v>20200707</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>36.85</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
         <v>47838.47</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <f t="shared" ref="J14:J22" si="2">I14-E14</f>
         <v>47838.47</v>
       </c>
-      <c r="K14" s="6" t="e">
+      <c r="K14" s="8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -8007,10 +8609,22 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="10:10">
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>20210127</v>
+      </c>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15">
+        <v>37.94</v>
+      </c>
+      <c r="E15">
+        <v>60724</v>
+      </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-60724</v>
       </c>
     </row>
     <row r="16" spans="10:10">
@@ -8146,7 +8760,7 @@
         <v>0.0866631495647587</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8210,7 +8824,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16">
+      <c r="A2" s="24">
         <v>20171012</v>
       </c>
       <c r="B2">
@@ -8225,14 +8839,14 @@
       <c r="E2">
         <v>7221.77</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="24">
         <v>20171016</v>
       </c>
       <c r="G2">
         <v>18.42</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>7354.74</v>
@@ -8247,7 +8861,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16">
+      <c r="A3" s="24">
         <v>20171016</v>
       </c>
       <c r="B3">
@@ -8262,14 +8876,14 @@
       <c r="E3">
         <v>7305.84</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="24">
         <v>20171018</v>
       </c>
       <c r="G3">
         <v>18.47</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>7374.7</v>
@@ -8284,7 +8898,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16">
+      <c r="A4" s="24">
         <v>20171018</v>
       </c>
       <c r="B4">
@@ -8299,14 +8913,14 @@
       <c r="E4">
         <v>7393.91</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="24">
         <v>20171019</v>
       </c>
       <c r="G4">
         <v>18.73</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>7478.51</v>
@@ -8321,7 +8935,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16">
+      <c r="A5" s="24">
         <v>20171020</v>
       </c>
       <c r="B5">
@@ -8336,14 +8950,14 @@
       <c r="E5">
         <v>7393.91</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="24">
         <v>20171023</v>
       </c>
       <c r="G5">
         <v>18.65</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5">
         <v>7446.57</v>
@@ -8358,7 +8972,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16">
+      <c r="A6" s="24">
         <v>20171023</v>
       </c>
       <c r="B6">
@@ -8373,14 +8987,14 @@
       <c r="E6">
         <v>7329.86</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="24">
         <v>20171025</v>
       </c>
       <c r="G6">
         <v>18.49</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6">
         <v>7382.68</v>
@@ -8395,7 +9009,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="16">
+      <c r="A7" s="24">
         <v>20171026</v>
       </c>
       <c r="B7">
@@ -8410,14 +9024,14 @@
       <c r="E7">
         <v>7586.06</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="24">
         <v>20171031</v>
       </c>
       <c r="G7">
         <v>19.27</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7">
         <v>7694.12</v>
@@ -8454,7 +9068,7 @@
         <v>18.91</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8">
         <v>1884.11</v>
@@ -8469,7 +9083,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="16">
+      <c r="A9" s="24">
         <v>20171107</v>
       </c>
       <c r="B9">
@@ -8484,14 +9098,14 @@
       <c r="E9">
         <v>2041</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="24">
         <v>20171107</v>
       </c>
       <c r="G9">
         <v>20.78</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>2070.92</v>
@@ -8521,14 +9135,14 @@
       <c r="E10">
         <v>3913</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="24">
         <v>20180802</v>
       </c>
       <c r="G10">
         <v>17.3</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>3451.54</v>
@@ -8542,119 +9156,119 @@
         <v>-0.117929976999744</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" spans="1:13">
-      <c r="A11" s="20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" s="20" customFormat="1" spans="1:13">
+      <c r="A11" s="28">
         <v>20180829</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="21">
         <v>200</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="21">
         <v>17.39</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="21">
         <v>5</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="21">
         <v>3483</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <v>20190211</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="21">
         <v>16.59</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
         <v>6624</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="22">
         <f t="shared" ref="J11:J16" si="2">I11-E11</f>
         <v>3141</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="22">
         <f t="shared" ref="K11:K19" si="3">J11/E11</f>
         <v>0.901808785529716</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="13"/>
+      <c r="L11" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="14">
+      <c r="A12" s="22">
         <v>20181130</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="22">
         <v>200</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="22">
         <v>15.88</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
         <v>3181</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="22">
         <v>20181130</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="22">
         <v>16.24</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
         <v>3239.75</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>58.75</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="22">
         <f t="shared" si="3"/>
         <v>0.0184690348946872</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="14">
+      <c r="A13" s="22">
         <v>20181214</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="22">
         <v>200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="22">
         <v>16</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
         <v>3205</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="22">
         <v>20190211</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="21">
         <v>16.59</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
         <v>0</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="22">
         <f t="shared" si="2"/>
         <v>-3205</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="22">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="14"/>
+      <c r="L13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -8682,15 +9296,15 @@
         <f t="shared" si="2"/>
         <v>216.34</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="19">
         <f t="shared" si="3"/>
         <v>0.0169277211190418</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="L14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="6:12">
       <c r="F15">
@@ -8954,10 +9568,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8967,7 +9581,8 @@
     <col min="8" max="8" width="12.625"/>
     <col min="9" max="9" width="9.375"/>
     <col min="10" max="10" width="10.375"/>
-    <col min="11" max="11" width="11.5"/>
+    <col min="11" max="11" width="12.625"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9005,7 +9620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>20200724</v>
       </c>
@@ -9018,13 +9633,25 @@
       <c r="E2">
         <v>19317.5</v>
       </c>
+      <c r="F2">
+        <v>20200904</v>
+      </c>
+      <c r="G2">
+        <v>93.86</v>
+      </c>
+      <c r="I2">
+        <v>56237</v>
+      </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-19317.5</v>
+        <v>36919.5</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
-        <v>-1</v>
+        <v>1.91119451274751</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9040,12 +9667,21 @@
       <c r="E3">
         <v>18831.32</v>
       </c>
+      <c r="F3">
+        <v>20200904</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="0">I3-E3</f>
+        <f>I3-E3</f>
         <v>-18831.32</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K10" si="1">J3/E3</f>
+        <f t="shared" ref="K3:K10" si="0">J3/E3</f>
         <v>-1</v>
       </c>
     </row>
@@ -9062,12 +9698,21 @@
       <c r="E4">
         <v>18507.19</v>
       </c>
+      <c r="F4">
+        <v>20200904</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
+        <f>I4-E4</f>
+        <v>-18507.19</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
-        <v>-18507.19</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -9094,11 +9739,11 @@
         <v>19057.5</v>
       </c>
       <c r="J5">
+        <f t="shared" ref="J5:J31" si="1">I5-E5</f>
+        <v>200.169999999998</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
-        <v>200.169999999998</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
         <v>0.010614970412036</v>
       </c>
     </row>
@@ -9116,11 +9761,11 @@
         <v>18515.19</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-18515.19</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
-        <v>-18515.19</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -9147,11 +9792,11 @@
         <v>27738.42</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
+        <v>788.419999999998</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
-        <v>788.419999999998</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
         <v>0.0292549165120593</v>
       </c>
     </row>
@@ -9174,27 +9819,828 @@
       <c r="G8">
         <v>94.36</v>
       </c>
-      <c r="H8"/>
       <c r="I8">
         <v>18845.79</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
+        <v>156.530000000002</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="0"/>
-        <v>156.530000000002</v>
+        <v>0.00837539849089811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20200908</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="C9">
+        <v>91.3</v>
+      </c>
+      <c r="E9">
+        <v>54801</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>-54801</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20200925</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>88.45</v>
+      </c>
+      <c r="E10">
+        <v>44242</v>
+      </c>
+      <c r="F10">
+        <v>20200929</v>
+      </c>
+      <c r="G10">
+        <v>89.373</v>
+      </c>
+      <c r="I10">
+        <v>44624</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.00863432937028163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>20201015</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>92.97</v>
+      </c>
+      <c r="E11">
+        <v>37200</v>
+      </c>
+      <c r="F11">
+        <v>20201013</v>
+      </c>
+      <c r="G11">
+        <v>94.3</v>
+      </c>
+      <c r="I11">
+        <v>37669</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K21" si="2">J11/E11</f>
+        <v>0.0126075268817204</v>
+      </c>
+      <c r="L11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>20201030</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+      <c r="C12">
+        <v>88.61</v>
+      </c>
+      <c r="E12">
+        <v>53184</v>
+      </c>
+      <c r="F12">
+        <v>20201104</v>
+      </c>
+      <c r="G12">
+        <v>90.29</v>
+      </c>
+      <c r="I12">
+        <v>54101</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>917</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0.017242027677497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>20201111</v>
+      </c>
+      <c r="B13">
+        <v>600</v>
+      </c>
+      <c r="C13">
+        <v>87.178</v>
+      </c>
+      <c r="E13">
+        <v>52324</v>
+      </c>
+      <c r="F13">
+        <v>20201204</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-52324</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>20201116</v>
+      </c>
+      <c r="B14">
+        <v>600</v>
+      </c>
+      <c r="C14">
+        <v>86</v>
+      </c>
+      <c r="E14">
+        <v>51617</v>
+      </c>
+      <c r="F14">
+        <v>20201204</v>
+      </c>
+      <c r="G14">
+        <v>90.27</v>
+      </c>
+      <c r="I14">
+        <v>108178</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>56561</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1.09578239727222</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>20201228</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>110.54</v>
+      </c>
+      <c r="E15">
+        <v>11059</v>
+      </c>
+      <c r="F15">
+        <v>20201228</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-11059</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>20201228</v>
+      </c>
+      <c r="B16">
+        <v>600</v>
+      </c>
+      <c r="C16">
+        <v>110.67</v>
+      </c>
+      <c r="E16">
+        <v>66424</v>
+      </c>
+      <c r="F16">
+        <v>20201228</v>
+      </c>
+      <c r="G16">
+        <v>112.36</v>
+      </c>
+      <c r="I16">
+        <v>78546</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>12122</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0.182494279176201</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>20210104</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>112.45</v>
+      </c>
+      <c r="E17">
+        <v>89990</v>
+      </c>
+      <c r="F17">
+        <v>20210107</v>
+      </c>
+      <c r="G17">
+        <v>114.45</v>
+      </c>
+      <c r="I17">
+        <v>91437</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>1447</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0.016079564396044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>20210108</v>
+      </c>
+      <c r="B18">
+        <v>800</v>
+      </c>
+      <c r="C18">
+        <v>116.63</v>
+      </c>
+      <c r="E18">
+        <v>93335</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-93335</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200914</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>374</v>
+      </c>
+      <c r="E2">
+        <v>37414</v>
+      </c>
+      <c r="F2">
+        <v>20201013</v>
+      </c>
+      <c r="G2">
+        <v>380.8</v>
+      </c>
+      <c r="I2">
+        <v>38029</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>615</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0164376971187256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200925</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>368.63</v>
+      </c>
+      <c r="E3">
+        <v>36877</v>
+      </c>
+      <c r="F3">
+        <v>20201012</v>
+      </c>
+      <c r="G3">
+        <v>375.31</v>
+      </c>
+      <c r="I3">
+        <v>37478</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">I3-E3</f>
+        <v>601</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K19" si="1">J3/E3</f>
+        <v>0.0162974211568186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200930</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>369.66</v>
+      </c>
+      <c r="E4">
+        <v>36980</v>
+      </c>
+      <c r="F4">
+        <v>20200930</v>
+      </c>
+      <c r="G4">
+        <v>375.02</v>
+      </c>
+      <c r="I4">
+        <v>37449</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.0126825310978908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20201009</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>369.59</v>
+      </c>
+      <c r="E5">
+        <v>36973</v>
+      </c>
+      <c r="F5">
+        <v>20201009</v>
+      </c>
+      <c r="G5">
+        <v>376.2</v>
+      </c>
+      <c r="I5">
+        <v>37567</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.0160657777296946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20201016</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>373.55</v>
+      </c>
+      <c r="E6">
+        <v>37367</v>
+      </c>
+      <c r="F6">
+        <v>20201028</v>
+      </c>
+      <c r="G6">
+        <v>382.46</v>
+      </c>
+      <c r="I6">
+        <v>38194</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>827</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0221318275483716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20201022</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>365.26</v>
+      </c>
+      <c r="E7">
+        <v>36538</v>
+      </c>
+      <c r="F7">
+        <v>20201201</v>
+      </c>
+      <c r="G7">
+        <v>384.8</v>
+      </c>
+      <c r="I7">
+        <v>38428</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1890</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.0517269691827686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20201023</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>327.88</v>
+      </c>
+      <c r="E8">
+        <v>32799</v>
+      </c>
+      <c r="F8">
+        <v>20201026</v>
+      </c>
+      <c r="G8">
+        <v>339.89</v>
+      </c>
+      <c r="I8">
+        <v>33943</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1144</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>0.00837539849089811</v>
-      </c>
-    </row>
-    <row r="9" spans="11:11">
-      <c r="K9" t="e">
+        <v>0.0348791121680539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>20201105</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>366.03</v>
+      </c>
+      <c r="E9">
+        <v>36615</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-36615</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>20201116</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <v>356.65</v>
+      </c>
+      <c r="E10">
+        <v>71354</v>
+      </c>
+      <c r="F10">
+        <v>20201119</v>
+      </c>
+      <c r="G10">
+        <v>355.2</v>
+      </c>
+      <c r="I10">
+        <v>70944</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>-410</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-0.00574599882277097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>20210126</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>493.11</v>
+      </c>
+      <c r="E11">
+        <v>49327</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>-49327</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="11:11">
-      <c r="K10" t="e">
+    <row r="13" spans="10:11">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -9205,7 +10651,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20201125</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>331.3</v>
+      </c>
+      <c r="E2">
+        <v>33141</v>
+      </c>
+      <c r="F2">
+        <v>20201210</v>
+      </c>
+      <c r="G2">
+        <v>345.4</v>
+      </c>
+      <c r="I2">
+        <v>34493</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>1352</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0407953893968196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -9293,7 +10826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K14"/>
@@ -9499,7 +11032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
@@ -9553,72 +11086,72 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>20200706</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>200</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>95.03</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
         <v>19013.39</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
         <v>0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <f>I2-E2</f>
         <v>-19013.39</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f>J2/E2</f>
         <v>-1</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>20200714</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>200</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>130</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
         <v>26010.11</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20200715</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>133.08</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
         <v>53158.08</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f>I3-E3</f>
         <v>27147.97</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f>J3/E3</f>
         <v>1.04374683536517</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="5"/>
+      <c r="L3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="10:11">
       <c r="J4">
@@ -9646,7 +11179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K11"/>
@@ -9842,13 +11375,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20201019</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>77.61</v>
+      </c>
+      <c r="E2">
+        <v>31054</v>
+      </c>
+      <c r="F2">
+        <v>20201021</v>
+      </c>
+      <c r="G2">
+        <v>82.8</v>
+      </c>
+      <c r="I2">
+        <v>33075</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>2021</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0650801829071939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9928,7 +11548,7 @@
         <v>1.16607022549743</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10000,7 +11620,6 @@
       <c r="C5">
         <v>23.5</v>
       </c>
-      <c r="D5"/>
       <c r="E5">
         <v>44667.36</v>
       </c>
@@ -10022,34 +11641,81 @@
         <v>0.0428243352640496</v>
       </c>
     </row>
-    <row r="6" spans="10:11">
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20200904</v>
+      </c>
+      <c r="B6">
+        <v>1900</v>
+      </c>
+      <c r="C6">
+        <v>23.52</v>
+      </c>
+      <c r="E6">
+        <v>44705</v>
+      </c>
       <c r="J6">
         <f t="shared" ref="J6:J12" si="0">I6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" t="e">
+        <v>-44705</v>
+      </c>
+      <c r="K6">
         <f t="shared" ref="K6:K14" si="1">J6/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="10:11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20201021</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7">
+        <v>19.56</v>
+      </c>
+      <c r="E7">
+        <v>39133</v>
+      </c>
       <c r="J7">
         <f t="shared" si="0"/>
+        <v>-39133</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>0</v>
       </c>
-      <c r="K7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="10:11">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>20201104</v>
+      </c>
+      <c r="G8">
+        <v>1170</v>
+      </c>
+      <c r="I8">
+        <v>1170</v>
+      </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="K8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="10:11">
@@ -10105,487 +11771,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="5" max="6" width="9.375"/>
-    <col min="9" max="9" width="9.375"/>
-    <col min="10" max="10" width="10.375"/>
-    <col min="11" max="11" width="11.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>20200723</v>
-      </c>
-      <c r="B2">
-        <v>400</v>
-      </c>
-      <c r="C2">
-        <v>55.71</v>
-      </c>
-      <c r="E2">
-        <v>22292.66</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>-22292.66</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>20200727</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-      <c r="C3">
-        <v>53.45</v>
-      </c>
-      <c r="E3">
-        <v>21388.31</v>
-      </c>
-      <c r="F3">
-        <v>20200731</v>
-      </c>
-      <c r="G3">
-        <v>59.28</v>
-      </c>
-      <c r="I3">
-        <v>23679.07</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J11" si="0">I3-E3</f>
-        <v>2290.76</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="1">J3/E3</f>
-        <v>0.107103366278121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>20200730</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4">
-        <v>56.72</v>
-      </c>
-      <c r="E4">
-        <v>22696.82</v>
-      </c>
-      <c r="F4">
-        <v>20200730</v>
-      </c>
-      <c r="G4">
-        <v>57.65</v>
-      </c>
-      <c r="I4">
-        <v>23027.98</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>331.16</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>0.0145905902236525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>20200803</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>59.93</v>
-      </c>
-      <c r="E5">
-        <v>23981.32</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-23981.32</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>20200819</v>
-      </c>
-      <c r="B6">
-        <v>800</v>
-      </c>
-      <c r="C6">
-        <v>51.04</v>
-      </c>
-      <c r="E6">
-        <v>40847.87</v>
-      </c>
-      <c r="F6">
-        <v>20200821</v>
-      </c>
-      <c r="G6">
-        <v>53.99</v>
-      </c>
-      <c r="I6">
-        <v>43132.02</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>2284.14999999999</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0.0559184603750451</v>
-      </c>
-    </row>
-    <row r="7" spans="10:11">
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="10:11">
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="10:11">
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="10:10">
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="10:10">
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="5" max="5" width="9.375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>20200805</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>65.33</v>
-      </c>
-      <c r="E2">
-        <v>13071.08</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>-13071.08</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="9.375"/>
-    <col min="6" max="6" width="9.375"/>
-    <col min="11" max="11" width="12.625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>20200225</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
-      </c>
-      <c r="C2">
-        <v>1.325</v>
-      </c>
-      <c r="E2">
-        <v>800</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>I2-E2</f>
-        <v>-800</v>
-      </c>
-      <c r="K2">
-        <f>J2/E2</f>
-        <v>-1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>20200302</v>
-      </c>
-      <c r="B3">
-        <v>700</v>
-      </c>
-      <c r="C3">
-        <v>1.149</v>
-      </c>
-      <c r="E3">
-        <v>809.3</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>I3-E3</f>
-        <v>-809.3</v>
-      </c>
-      <c r="K3">
-        <f>J3/E3</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>20200326</v>
-      </c>
-      <c r="B4">
-        <v>1300</v>
-      </c>
-      <c r="C4">
-        <v>0.96</v>
-      </c>
-      <c r="E4">
-        <v>1253</v>
-      </c>
-      <c r="F4">
-        <v>20200717</v>
-      </c>
-      <c r="G4">
-        <v>1.272</v>
-      </c>
-      <c r="I4">
-        <v>3302.2</v>
-      </c>
-      <c r="J4">
-        <f>I4-E4</f>
-        <v>2049.2</v>
-      </c>
-      <c r="K4">
-        <f>J4/E4</f>
-        <v>1.63543495610535</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="11:15">
-      <c r="K5" t="e">
-        <f>J5/E5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L2:N4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10646,7 +11831,7 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -10672,7 +11857,7 @@
         <v>14.27</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <v>5697.29</v>
@@ -10709,7 +11894,7 @@
         <v>14.05</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3">
         <v>4205.78</v>
@@ -10746,7 +11931,7 @@
         <v>14.89</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4">
         <v>4157.83</v>
@@ -10797,7 +11982,7 @@
         <v>-1</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -10823,7 +12008,7 @@
         <v>13.95</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I6">
         <v>1388.6</v>
@@ -10837,7 +12022,7 @@
         <v>-0.533557272421901</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -10863,7 +12048,7 @@
         <v>14.84</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7">
         <v>5925.06</v>
@@ -10897,10 +12082,10 @@
         <v>20180110</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8">
         <v>2537.45</v>
@@ -10914,7 +12099,7 @@
         <v>-0.096027787673673</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -10940,7 +12125,7 @@
         <v>13.49</v>
       </c>
       <c r="H9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9">
         <v>4037.95</v>
@@ -10954,7 +12139,7 @@
         <v>0.595397076254445</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10980,7 +12165,7 @@
         <v>12.74</v>
       </c>
       <c r="H10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I10">
         <v>5085.9</v>
@@ -11017,7 +12202,7 @@
         <v>12.57</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>5017.97</v>
@@ -11054,7 +12239,7 @@
         <v>12.84</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I12">
         <v>5125.86</v>
@@ -11091,7 +12276,7 @@
         <v>13.96</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13">
         <v>1389.6</v>
@@ -11128,7 +12313,7 @@
         <v>16.15</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14">
         <v>3221.77</v>
@@ -11165,7 +12350,7 @@
         <v>16.05</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15">
         <v>3201.79</v>
@@ -11202,7 +12387,7 @@
         <v>14.08</v>
       </c>
       <c r="H16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I16">
         <v>2808.18</v>
@@ -11216,32 +12401,32 @@
         <v>-0.408928646600716</v>
       </c>
       <c r="L16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" s="12" customFormat="1" spans="2:12">
-      <c r="B17" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" s="20" customFormat="1" spans="2:12">
+      <c r="B17" s="20">
         <v>0</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="12" t="e">
+      <c r="K17" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>105</v>
+      <c r="L17" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -11267,7 +12452,7 @@
         <v>13.94</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18">
         <v>2780.21</v>
@@ -11304,7 +12489,7 @@
         <v>13.83</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I19">
         <v>2758.23</v>
@@ -11333,42 +12518,42 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" spans="1:13">
-      <c r="A21" s="18">
+    <row r="21" s="20" customFormat="1" spans="1:13">
+      <c r="A21" s="26">
         <v>20180727</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="26">
         <v>200</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="26">
         <v>13.48</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="26">
         <v>5</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="26">
         <v>2701</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19">
+      <c r="F21" s="26"/>
+      <c r="G21" s="27">
         <v>12.75</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26">
         <v>0</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="27">
         <f t="shared" si="0"/>
         <v>-2701</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="27">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="M21" s="18"/>
+      <c r="L21" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="26"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
@@ -11393,7 +12578,7 @@
         <v>12.92</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I22">
         <v>3867.12</v>
@@ -11430,7 +12615,7 @@
         <v>12.37</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23">
         <v>4938.05</v>
@@ -11467,7 +12652,7 @@
         <v>12.5</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24">
         <v>7486.5</v>
@@ -11504,7 +12689,7 @@
         <v>12.53</v>
       </c>
       <c r="H25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I25">
         <v>7504.47</v>
@@ -11541,7 +12726,7 @@
         <v>13.43</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I26">
         <v>4019.97</v>
@@ -11555,27 +12740,27 @@
         <v>0.0169415633695927</v>
       </c>
     </row>
-    <row r="27" s="12" customFormat="1" spans="1:11">
-      <c r="A27" s="12">
+    <row r="27" s="20" customFormat="1" spans="1:11">
+      <c r="A27" s="20">
         <v>20181008</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="20">
         <v>300</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="20">
         <v>13.05</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="20">
         <v>5</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="20">
         <v>3920</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="20">
         <f t="shared" si="0"/>
         <v>-3920</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -11603,7 +12788,7 @@
         <v>12.24</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I28">
         <v>6108.88</v>
@@ -11640,7 +12825,7 @@
         <v>12.59</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I29">
         <v>7540.41</v>
@@ -11677,7 +12862,7 @@
         <v>12.28</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30">
         <v>6128.86</v>
@@ -11692,41 +12877,41 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="18">
+      <c r="A31" s="26">
         <v>20181022</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="26">
         <v>600</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="26">
         <v>12.45</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="26">
         <v>5</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="26">
         <v>7475.98</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="27">
         <v>20190304</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="27">
         <v>12.75</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19">
+      <c r="H31" s="27"/>
+      <c r="I31" s="27">
         <v>10181.64</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="27">
         <f t="shared" si="0"/>
         <v>2705.66</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="27">
         <f t="shared" si="1"/>
         <v>0.361913755788539</v>
       </c>
-      <c r="L31" s="19" t="s">
-        <v>108</v>
+      <c r="L31" s="27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -12093,19 +13278,19 @@
       <c r="G42">
         <v>12.26</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="19">
         <v>22028.28</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="19">
         <f t="shared" ref="J42:J52" si="5">I42-E42</f>
         <v>9858.55</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="19">
         <f t="shared" ref="K42:K47" si="6">J42/E42</f>
         <v>0.810087816245718</v>
       </c>
       <c r="L42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -12131,19 +13316,19 @@
       <c r="G43">
         <v>12.26</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="19">
         <v>0</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="19">
         <f t="shared" si="5"/>
         <v>-9799.83</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="19">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="L43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -12200,7 +13385,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -12334,7 +13519,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -12404,6 +13589,733 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="10" max="10" width="10.375"/>
+    <col min="11" max="11" width="11.5"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>20200723</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>55.71</v>
+      </c>
+      <c r="E2">
+        <v>22292.66</v>
+      </c>
+      <c r="F2">
+        <v>20200904</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-22292.66</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20200727</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>53.45</v>
+      </c>
+      <c r="E3">
+        <v>21388.31</v>
+      </c>
+      <c r="F3">
+        <v>20200731</v>
+      </c>
+      <c r="G3">
+        <v>59.28</v>
+      </c>
+      <c r="I3">
+        <v>23679.07</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="0">I3-E3</f>
+        <v>2290.76</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="1">J3/E3</f>
+        <v>0.107103366278121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20200730</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>56.72</v>
+      </c>
+      <c r="E4">
+        <v>22696.82</v>
+      </c>
+      <c r="F4">
+        <v>20200730</v>
+      </c>
+      <c r="G4">
+        <v>57.65</v>
+      </c>
+      <c r="I4">
+        <v>23027.98</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>331.16</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0.0145905902236525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>20200803</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+      <c r="C5">
+        <v>59.93</v>
+      </c>
+      <c r="E5">
+        <v>23981.32</v>
+      </c>
+      <c r="F5">
+        <v>20200904</v>
+      </c>
+      <c r="G5">
+        <v>53.24</v>
+      </c>
+      <c r="I5">
+        <v>42532</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>18550.68</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.773547077475302</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>20200819</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <v>51.04</v>
+      </c>
+      <c r="E6">
+        <v>40847.87</v>
+      </c>
+      <c r="F6">
+        <v>20200821</v>
+      </c>
+      <c r="G6">
+        <v>53.99</v>
+      </c>
+      <c r="I6">
+        <v>43132.02</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2284.14999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0.0559184603750451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>20200901</v>
+      </c>
+      <c r="B7">
+        <v>800</v>
+      </c>
+      <c r="C7">
+        <v>55.76</v>
+      </c>
+      <c r="E7">
+        <v>44625</v>
+      </c>
+      <c r="F7">
+        <v>20200901</v>
+      </c>
+      <c r="G7">
+        <v>56.98</v>
+      </c>
+      <c r="I7">
+        <v>45520</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.0200560224089636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>20201215</v>
+      </c>
+      <c r="B8">
+        <v>600</v>
+      </c>
+      <c r="C8">
+        <v>49.865</v>
+      </c>
+      <c r="E8">
+        <v>29929</v>
+      </c>
+      <c r="F8">
+        <v>20201223</v>
+      </c>
+      <c r="G8">
+        <v>54.98</v>
+      </c>
+      <c r="I8">
+        <v>32943</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3014</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.100705001837683</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="10:10">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="10:10">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200805</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <v>65.33</v>
+      </c>
+      <c r="E2">
+        <v>13071.08</v>
+      </c>
+      <c r="F2">
+        <v>20201013</v>
+      </c>
+      <c r="G2">
+        <v>65.84</v>
+      </c>
+      <c r="I2">
+        <v>13149</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>77.9200000000001</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.00596125186289121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>20200225</v>
+      </c>
+      <c r="B2">
+        <v>600</v>
+      </c>
+      <c r="C2">
+        <v>1.325</v>
+      </c>
+      <c r="E2">
+        <v>800</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-800</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>20200302</v>
+      </c>
+      <c r="B3">
+        <v>700</v>
+      </c>
+      <c r="C3">
+        <v>1.149</v>
+      </c>
+      <c r="E3">
+        <v>809.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>I3-E3</f>
+        <v>-809.3</v>
+      </c>
+      <c r="K3">
+        <f>J3/E3</f>
+        <v>-1</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>20200326</v>
+      </c>
+      <c r="B4">
+        <v>1300</v>
+      </c>
+      <c r="C4">
+        <v>0.96</v>
+      </c>
+      <c r="E4">
+        <v>1253</v>
+      </c>
+      <c r="F4">
+        <v>20200717</v>
+      </c>
+      <c r="G4">
+        <v>1.272</v>
+      </c>
+      <c r="I4">
+        <v>3302.2</v>
+      </c>
+      <c r="J4">
+        <f>I4-E4</f>
+        <v>2049.2</v>
+      </c>
+      <c r="K4">
+        <f>J4/E4</f>
+        <v>1.63543495610535</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="11:15">
+      <c r="K5" t="e">
+        <f>J5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L2:N4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+    <col min="6" max="6" width="9.375"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20200812</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20160</v>
+      </c>
+      <c r="F2">
+        <v>20210107</v>
+      </c>
+      <c r="G2">
+        <v>1.015</v>
+      </c>
+      <c r="I2">
+        <v>20294</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>134</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>0.0066468253968254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20210120</v>
+      </c>
+      <c r="B2">
+        <v>20000</v>
+      </c>
+      <c r="C2">
+        <v>1.114</v>
+      </c>
+      <c r="E2">
+        <v>22286</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-22286</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -12454,23 +14366,26 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>20200812</v>
+        <v>20210210</v>
       </c>
       <c r="B2">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.066</v>
+      </c>
+      <c r="D2">
+        <v>1.49</v>
       </c>
       <c r="E2">
-        <v>20160</v>
+        <v>14925</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f>I2-E2</f>
-        <v>-20160</v>
+        <v>-14925</v>
       </c>
       <c r="K2">
         <f>J2/E2</f>
@@ -12483,124 +14398,340 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O20"/>
+  <dimension ref="B1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2">
+        <v>20210210</v>
+      </c>
+      <c r="C2">
+        <v>15000</v>
+      </c>
+      <c r="D2">
+        <v>1.042</v>
+      </c>
+      <c r="E2">
+        <v>1.56</v>
+      </c>
+      <c r="F2">
+        <v>15631</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>J2-F2</f>
+        <v>-15631</v>
+      </c>
+      <c r="L2">
+        <f>K2/F2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20210210</v>
+      </c>
+      <c r="B2">
+        <v>4000</v>
+      </c>
+      <c r="C2">
+        <v>3.56</v>
+      </c>
+      <c r="D2">
+        <v>1.42</v>
+      </c>
+      <c r="E2">
+        <v>14241</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-14241</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>20210210</v>
+      </c>
+      <c r="B2">
+        <v>9000</v>
+      </c>
+      <c r="C2">
+        <v>1.71</v>
+      </c>
+      <c r="D2">
+        <v>1.54</v>
+      </c>
+      <c r="E2">
+        <v>15391</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>I2-E2</f>
+        <v>-15391</v>
+      </c>
+      <c r="K2">
+        <f>J2/E2</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>207</v>
-      </c>
-      <c r="N1">
-        <v>12010</v>
-      </c>
-      <c r="O1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>20170907</v>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
+        <v>12.72</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>12720</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" t="s">
+        <v>20201022</v>
+      </c>
+      <c r="H2">
+        <v>39.28</v>
+      </c>
+      <c r="J2">
+        <v>39227</v>
+      </c>
+      <c r="K2">
+        <f>J2-F2</f>
+        <v>26507</v>
+      </c>
+      <c r="L2">
+        <f>K2/F2</f>
+        <v>2.08388364779874</v>
+      </c>
+      <c r="M2" t="s">
         <v>211</v>
       </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20170907</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3">
-        <v>590</v>
-      </c>
-      <c r="E3">
-        <v>83</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>20180913</v>
-      </c>
-      <c r="B4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
-      <c r="G20" t="s">
-        <v>213</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -12655,11 +14786,11 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="15">
+      <c r="A2" s="23">
         <v>20171017</v>
       </c>
       <c r="B2">
@@ -12674,14 +14805,14 @@
       <c r="E2">
         <v>9687.94</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="24">
         <v>20171027</v>
       </c>
       <c r="G2">
         <v>4.93</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I2">
         <v>9842.05</v>
@@ -12699,7 +14830,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="17">
+      <c r="A3" s="25">
         <v>20171027</v>
       </c>
       <c r="B3">
@@ -12721,7 +14852,7 @@
         <v>4.99</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I3">
         <v>4979.91</v>
@@ -12736,7 +14867,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="15">
+      <c r="A4" s="23">
         <v>20171030</v>
       </c>
       <c r="B4">
@@ -12751,14 +14882,14 @@
       <c r="E4">
         <v>4885.1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="24">
         <v>20171030</v>
       </c>
       <c r="G4">
         <v>4.96</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I4">
         <v>4949.94</v>
@@ -12795,7 +14926,7 @@
         <v>5.12</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5">
         <v>5109.78</v>
@@ -12810,7 +14941,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="17">
+      <c r="A6" s="25">
         <v>20171110</v>
       </c>
       <c r="B6">
@@ -12832,7 +14963,7 @@
         <v>5.11</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I6">
         <v>5099</v>
@@ -12869,7 +15000,7 @@
         <v>5.16</v>
       </c>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7">
         <v>5149.74</v>
@@ -12883,41 +15014,171 @@
         <v>0.00679178885630494</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:11">
-      <c r="A8" s="12">
+    <row r="8" s="20" customFormat="1" spans="1:11">
+      <c r="A8" s="20">
         <v>20180326</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="20">
         <v>1000</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="20">
         <v>4.62</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="20">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="20">
         <v>4625</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="20">
         <v>20180507</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="20">
         <v>4.59</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="20">
         <v>4580.32</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="20">
         <f t="shared" si="0"/>
         <v>-44.6800000000003</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="20">
         <f t="shared" si="1"/>
         <v>-0.0096605405405406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N1">
+        <v>12010</v>
+      </c>
+      <c r="O1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>20170907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>20170907</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3">
+        <v>590</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>20180913</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -13002,7 +15263,7 @@
         <v>62.17</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2">
         <v>6205.78</v>
@@ -13039,7 +15300,7 @@
         <v>61.24</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I3">
         <v>6112.88</v>
@@ -13076,7 +15337,7 @@
         <v>63.46</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>6334.57</v>
@@ -13090,7 +15351,7 @@
         <v>0.0473826058201058</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:12">
+    <row r="5" s="20" customFormat="1" spans="1:12">
       <c r="A5">
         <v>20180125</v>
       </c>
@@ -13113,7 +15374,7 @@
         <v>38.25</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I5">
         <v>3816.17</v>
@@ -13126,11 +15387,11 @@
         <f t="shared" si="1"/>
         <v>-0.38209682642487</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" spans="1:11">
+      <c r="L5" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="1" spans="1:11">
       <c r="A6">
         <v>20180202</v>
       </c>
@@ -13153,7 +15414,7 @@
         <v>61.45</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I6">
         <v>6133.85</v>
@@ -13190,7 +15451,7 @@
         <v>57.02</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I7">
         <v>5691.3</v>
@@ -13227,7 +15488,7 @@
         <v>61.2</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I8">
         <v>6108.88</v>
@@ -13264,7 +15525,7 @@
         <v>62.06</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9">
         <v>6194.79</v>
@@ -13301,7 +15562,7 @@
         <v>63.46</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10">
         <v>6334.57</v>
@@ -13338,7 +15599,7 @@
         <v>58.86</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I11">
         <v>5875.11</v>
@@ -13375,7 +15636,7 @@
         <v>58.05</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I12">
         <v>5794.19</v>
@@ -13412,7 +15673,7 @@
         <v>57.21</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I13">
         <v>5710.28</v>
@@ -13449,7 +15710,7 @@
         <v>38.49</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I14">
         <v>7684.14</v>
@@ -13463,7 +15724,7 @@
         <v>0.351651715039578</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -13490,7 +15751,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13516,7 +15777,7 @@
         <v>30.92</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I16">
         <v>3083.91</v>
@@ -13553,7 +15814,7 @@
         <v>31.18</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17">
         <v>3109.88</v>
@@ -13590,7 +15851,7 @@
         <v>31.64</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I18">
         <v>3155.84</v>
@@ -13627,7 +15888,7 @@
         <v>31.87</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I19">
         <v>3178.81</v>
@@ -13664,7 +15925,7 @@
         <v>32.41</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I20">
         <v>3232.76</v>
@@ -13701,7 +15962,7 @@
         <v>31.71</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I21">
         <v>6330.59</v>
@@ -13715,7 +15976,7 @@
         <v>1.00271749446378</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -13775,7 +16036,7 @@
         <v>29.92</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I23">
         <v>2984.01</v>
@@ -13812,7 +16073,7 @@
         <v>28.73</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I24">
         <v>2865.13</v>
@@ -13849,7 +16110,7 @@
         <v>31.41</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I25">
         <v>3132.86</v>
@@ -13863,161 +16124,161 @@
         <v>0.0155137763371151</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" spans="1:13">
-      <c r="A26" s="13">
+    <row r="26" s="20" customFormat="1" spans="1:13">
+      <c r="A26" s="21">
         <v>20180910</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="21">
         <v>100</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="21">
         <v>30.23</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="21">
         <v>5</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="21">
         <v>3028</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="21">
         <v>20190107</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="21">
         <v>29.23</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21">
         <v>8753.21</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="21">
         <f t="shared" si="2"/>
         <v>5725.21</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="21">
         <f t="shared" si="1"/>
         <v>1.89075627476882</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M26" s="13"/>
+      <c r="L26" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="21"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="14">
+      <c r="A27" s="22">
         <v>20180917</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="22">
         <v>100</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="22">
         <v>29.07</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="22">
         <v>5</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="22">
         <v>2912</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="22">
         <v>20180917</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="22">
         <v>29.56</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="H27" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="22">
         <v>2946.04</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="22">
         <f t="shared" si="2"/>
         <v>34.04</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="21">
         <f t="shared" si="1"/>
         <v>0.0116895604395604</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="13">
+      <c r="A28" s="21">
         <v>20180926</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="21">
         <v>100</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="21">
         <v>29.04</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="21">
         <v>5</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="21">
         <v>2909</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="21">
         <v>20190107</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="21">
         <v>29.23</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13">
+      <c r="H28" s="21"/>
+      <c r="I28" s="21">
         <v>0</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="21">
         <f t="shared" si="2"/>
         <v>-2909</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="21">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" s="14"/>
+      <c r="L28" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="13">
+      <c r="A29" s="21">
         <v>20180928</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="21">
         <v>100</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="21">
         <v>28.49</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="21">
         <v>5</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="21">
         <v>2854</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="21">
         <v>20190107</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="21">
         <v>29.23</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13">
+      <c r="H29" s="21"/>
+      <c r="I29" s="21">
         <v>0</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="21">
         <f t="shared" si="2"/>
         <v>-2854</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="21">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="14"/>
+      <c r="L29" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
@@ -14042,7 +16303,7 @@
         <v>21.95</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I30">
         <v>4380.61</v>
@@ -14051,7 +16312,7 @@
         <f t="shared" si="2"/>
         <v>37.6099999999997</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="20">
         <f t="shared" si="1"/>
         <v>0.00865991250287812</v>
       </c>
@@ -14082,7 +16343,7 @@
         <f t="shared" ref="J31:J44" si="3">I31-E31</f>
         <v>-52.2599999999993</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="20">
         <f t="shared" si="1"/>
         <v>-0.00702991953123099</v>
       </c>
@@ -14246,7 +16507,7 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I2">
         <v>5589.29</v>
@@ -14283,7 +16544,7 @@
         <v>56.76</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I3">
         <v>5665.21</v>
@@ -14320,7 +16581,7 @@
         <v>59.42</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>5930.94</v>
@@ -14401,7 +16662,7 @@
         <v>10.76</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2">
         <v>2157.04</v>
@@ -14413,7 +16674,7 @@
         <v>11.75</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I2">
         <v>2342.6</v>
@@ -14480,7 +16741,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14506,7 +16767,7 @@
         <v>9.11</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2">
         <v>1815.18</v>
@@ -14543,7 +16804,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I3">
         <v>1993</v>
@@ -14580,7 +16841,7 @@
         <v>8.13</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I4">
         <v>3243.75</v>
@@ -14594,17 +16855,17 @@
         <v>0.0473845657087504</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="6:12">
-      <c r="F5" s="12">
+    <row r="5" s="20" customFormat="1" spans="6:12">
+      <c r="F5" s="20">
         <v>20180426</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="20">
         <v>13.26</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="H5" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="20">
         <v>1319.67</v>
       </c>
       <c r="J5">
@@ -14615,8 +16876,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>164</v>
+      <c r="L5" s="20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14642,7 +16903,7 @@
         <v>8.56</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I6">
         <v>2560.43</v>
@@ -14656,7 +16917,7 @@
         <v>0.0225359424920127</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" spans="1:16384">
+    <row r="7" s="20" customFormat="1" spans="1:16384">
       <c r="A7">
         <v>20180829</v>
       </c>
@@ -31064,7 +33325,7 @@
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:16384">
+    <row r="8" s="20" customFormat="1" spans="1:16384">
       <c r="A8">
         <v>20180907</v>
       </c>
@@ -47753,7 +50014,7 @@
         <v>10.33</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2">
         <v>4122.87</v>
@@ -47782,7 +50043,7 @@
         <v>7.47</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I4">
         <v>2233.76</v>
@@ -47792,7 +50053,7 @@
         <v>2233.76</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -47818,7 +50079,7 @@
         <v>7.24</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I5">
         <v>4334.66</v>
